--- a/docs/assets/calendario2026.xlsx
+++ b/docs/assets/calendario2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\JavaScript\docs\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B0F82-581C-4317-9028-2EAF8ED07CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1261DE-576D-4829-9DA4-5EC32075C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35E1C06D-94D8-4720-80C6-B5700077304A}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="122">
   <si>
     <t>Juan J. Sánchez</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>Dif. h/año</t>
-  </si>
-  <si>
-    <t>Semana 53</t>
   </si>
 </sst>
 </file>
@@ -2259,32 +2256,215 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2292,25 +2472,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2415,215 +2577,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2951,11 +2948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A08548-D3C3-429A-917D-B955B168F1ED}">
   <dimension ref="A1:BJ428"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C373" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AG397" sqref="AG397"/>
+      <selection pane="bottomRight" activeCell="P376" sqref="P376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,555 +2974,555 @@
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="315" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="263" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="300" t="s">
+      <c r="C1" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="266" t="s">
+      <c r="F1" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="300" t="s">
+      <c r="G1" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="318" t="s">
+      <c r="H1" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="306" t="s">
+      <c r="I1" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="290" t="s">
+      <c r="J1" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="287" t="s">
+      <c r="K1" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="257" t="s">
+      <c r="L1" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="309" t="s">
+      <c r="M1" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="312" t="s">
+      <c r="N1" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="297" t="s">
+      <c r="O1" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="300" t="s">
+      <c r="P1" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="257" t="s">
+      <c r="Q1" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="290" t="s">
+      <c r="R1" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="263" t="s">
+      <c r="S1" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="303" t="s">
+      <c r="T1" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="293"/>
-      <c r="V1" s="294" t="s">
+      <c r="U1" s="232"/>
+      <c r="V1" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="257" t="s">
+      <c r="W1" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="290" t="s">
+      <c r="X1" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="263" t="s">
+      <c r="Y1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="287" t="s">
+      <c r="Z1" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="275" t="s">
+      <c r="AA1" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="278" t="s">
+      <c r="AB1" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="281" t="s">
+      <c r="AC1" s="263" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="284" t="s">
+      <c r="AD1" s="266" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="287" t="s">
+      <c r="AE1" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="290" t="s">
+      <c r="AF1" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="257" t="s">
+      <c r="AG1" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="260" t="s">
+      <c r="AH1" s="248" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="263" t="s">
+      <c r="AI1" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="266" t="s">
+      <c r="AJ1" s="226" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="269" t="s">
+      <c r="AK1" s="251" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="272" t="s">
+      <c r="AL1" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="246" t="s">
+      <c r="AM1" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="249" t="s">
+      <c r="AN1" s="304" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="249" t="s">
+      <c r="AO1" s="304" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="249" t="s">
+      <c r="AP1" s="304" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="251" t="s">
+      <c r="AQ1" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="254" t="s">
+      <c r="AR1" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="231" t="s">
+      <c r="AS1" s="284"/>
+      <c r="AT1" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="234" t="s">
+      <c r="AU1" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="AV1" s="237" t="s">
+      <c r="AV1" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="240" t="s">
+      <c r="AW1" s="295" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="243" t="s">
+      <c r="AX1" s="298" t="s">
         <v>43</v>
       </c>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="226" t="s">
+      <c r="AZ1" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="220" t="s">
+      <c r="BA1" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="220" t="s">
+      <c r="BB1" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="217" t="s">
+      <c r="BC1" s="272" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="217" t="s">
+      <c r="BD1" s="272" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" s="217" t="s">
+      <c r="BE1" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="217" t="s">
+      <c r="BF1" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="BG1" s="217" t="s">
+      <c r="BG1" s="272" t="s">
         <v>51</v>
       </c>
-      <c r="BH1" s="220" t="s">
+      <c r="BH1" s="275" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="223" t="s">
+      <c r="BI1" s="278" t="s">
         <v>53</v>
       </c>
       <c r="BJ1"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="264"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="293"/>
-      <c r="V2" s="295"/>
-      <c r="W2" s="258"/>
-      <c r="X2" s="291"/>
-      <c r="Y2" s="264"/>
-      <c r="Z2" s="288"/>
-      <c r="AA2" s="276"/>
-      <c r="AB2" s="279"/>
-      <c r="AC2" s="282"/>
-      <c r="AD2" s="285"/>
-      <c r="AE2" s="288"/>
-      <c r="AF2" s="291"/>
-      <c r="AG2" s="258"/>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="267"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="273"/>
-      <c r="AM2" s="247"/>
-      <c r="AN2" s="250"/>
-      <c r="AO2" s="250"/>
-      <c r="AP2" s="250"/>
-      <c r="AQ2" s="252"/>
-      <c r="AR2" s="255"/>
-      <c r="AS2" s="230"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="235"/>
-      <c r="AV2" s="238"/>
-      <c r="AW2" s="241"/>
-      <c r="AX2" s="244"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="224"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="224"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="224"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="209"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="258"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="264"/>
+      <c r="AD2" s="267"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="227"/>
+      <c r="AK2" s="252"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="302"/>
+      <c r="AN2" s="305"/>
+      <c r="AO2" s="305"/>
+      <c r="AP2" s="305"/>
+      <c r="AQ2" s="243"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="285"/>
+      <c r="AT2" s="287"/>
+      <c r="AU2" s="290"/>
+      <c r="AV2" s="293"/>
+      <c r="AW2" s="296"/>
+      <c r="AX2" s="299"/>
       <c r="AY2" s="3"/>
-      <c r="AZ2" s="227"/>
-      <c r="BA2" s="221"/>
-      <c r="BB2" s="221"/>
-      <c r="BC2" s="218"/>
-      <c r="BD2" s="218"/>
-      <c r="BE2" s="218"/>
-      <c r="BF2" s="218"/>
-      <c r="BG2" s="218"/>
-      <c r="BH2" s="221"/>
-      <c r="BI2" s="224"/>
+      <c r="AZ2" s="282"/>
+      <c r="BA2" s="276"/>
+      <c r="BB2" s="276"/>
+      <c r="BC2" s="273"/>
+      <c r="BD2" s="273"/>
+      <c r="BE2" s="273"/>
+      <c r="BF2" s="273"/>
+      <c r="BG2" s="273"/>
+      <c r="BH2" s="276"/>
+      <c r="BI2" s="279"/>
       <c r="BJ2"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="319"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="288"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="310"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="258"/>
-      <c r="R3" s="291"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="293"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="258"/>
-      <c r="X3" s="291"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="288"/>
-      <c r="AA3" s="276"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="282"/>
-      <c r="AD3" s="285"/>
-      <c r="AE3" s="288"/>
-      <c r="AF3" s="291"/>
-      <c r="AG3" s="258"/>
-      <c r="AH3" s="261"/>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="267"/>
-      <c r="AK3" s="270"/>
-      <c r="AL3" s="273"/>
-      <c r="AM3" s="247"/>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="250"/>
-      <c r="AP3" s="250"/>
-      <c r="AQ3" s="252"/>
-      <c r="AR3" s="255"/>
-      <c r="AS3" s="230"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="235"/>
-      <c r="AV3" s="238"/>
-      <c r="AW3" s="241"/>
-      <c r="AX3" s="244"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="264"/>
+      <c r="AD3" s="267"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="221"/>
+      <c r="AJ3" s="227"/>
+      <c r="AK3" s="252"/>
+      <c r="AL3" s="255"/>
+      <c r="AM3" s="302"/>
+      <c r="AN3" s="305"/>
+      <c r="AO3" s="305"/>
+      <c r="AP3" s="305"/>
+      <c r="AQ3" s="243"/>
+      <c r="AR3" s="246"/>
+      <c r="AS3" s="285"/>
+      <c r="AT3" s="287"/>
+      <c r="AU3" s="290"/>
+      <c r="AV3" s="293"/>
+      <c r="AW3" s="296"/>
+      <c r="AX3" s="299"/>
       <c r="AY3" s="3"/>
-      <c r="AZ3" s="227"/>
-      <c r="BA3" s="221"/>
-      <c r="BB3" s="221"/>
-      <c r="BC3" s="218"/>
-      <c r="BD3" s="218"/>
-      <c r="BE3" s="218"/>
-      <c r="BF3" s="218"/>
-      <c r="BG3" s="218"/>
-      <c r="BH3" s="221"/>
-      <c r="BI3" s="224"/>
+      <c r="AZ3" s="282"/>
+      <c r="BA3" s="276"/>
+      <c r="BB3" s="276"/>
+      <c r="BC3" s="273"/>
+      <c r="BD3" s="273"/>
+      <c r="BE3" s="273"/>
+      <c r="BF3" s="273"/>
+      <c r="BG3" s="273"/>
+      <c r="BH3" s="276"/>
+      <c r="BI3" s="279"/>
       <c r="BJ3"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="258"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="313"/>
-      <c r="O4" s="298"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="291"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="293"/>
-      <c r="V4" s="295"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="291"/>
-      <c r="Y4" s="264"/>
-      <c r="Z4" s="288"/>
-      <c r="AA4" s="276"/>
-      <c r="AB4" s="279"/>
-      <c r="AC4" s="282"/>
-      <c r="AD4" s="285"/>
-      <c r="AE4" s="288"/>
-      <c r="AF4" s="291"/>
-      <c r="AG4" s="258"/>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="264"/>
-      <c r="AJ4" s="267"/>
-      <c r="AK4" s="270"/>
-      <c r="AL4" s="273"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="250"/>
-      <c r="AO4" s="250"/>
-      <c r="AP4" s="250"/>
-      <c r="AQ4" s="252"/>
-      <c r="AR4" s="255"/>
-      <c r="AS4" s="230"/>
-      <c r="AT4" s="232"/>
-      <c r="AU4" s="235"/>
-      <c r="AV4" s="238"/>
-      <c r="AW4" s="241"/>
-      <c r="AX4" s="244"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="237"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="232"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="221"/>
+      <c r="Z4" s="206"/>
+      <c r="AA4" s="258"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="264"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="206"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="209"/>
+      <c r="AH4" s="249"/>
+      <c r="AI4" s="221"/>
+      <c r="AJ4" s="227"/>
+      <c r="AK4" s="252"/>
+      <c r="AL4" s="255"/>
+      <c r="AM4" s="302"/>
+      <c r="AN4" s="305"/>
+      <c r="AO4" s="305"/>
+      <c r="AP4" s="305"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="246"/>
+      <c r="AS4" s="285"/>
+      <c r="AT4" s="287"/>
+      <c r="AU4" s="290"/>
+      <c r="AV4" s="293"/>
+      <c r="AW4" s="296"/>
+      <c r="AX4" s="299"/>
       <c r="AY4" s="3"/>
-      <c r="AZ4" s="227"/>
-      <c r="BA4" s="221"/>
-      <c r="BB4" s="221"/>
-      <c r="BC4" s="218"/>
-      <c r="BD4" s="218"/>
-      <c r="BE4" s="218"/>
-      <c r="BF4" s="218"/>
-      <c r="BG4" s="218"/>
-      <c r="BH4" s="221"/>
-      <c r="BI4" s="224"/>
+      <c r="AZ4" s="282"/>
+      <c r="BA4" s="276"/>
+      <c r="BB4" s="276"/>
+      <c r="BC4" s="273"/>
+      <c r="BD4" s="273"/>
+      <c r="BE4" s="273"/>
+      <c r="BF4" s="273"/>
+      <c r="BG4" s="273"/>
+      <c r="BH4" s="276"/>
+      <c r="BI4" s="279"/>
       <c r="BJ4"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="307"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="310"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="298"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="291"/>
-      <c r="S5" s="264"/>
-      <c r="T5" s="304"/>
-      <c r="U5" s="293"/>
-      <c r="V5" s="295"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="291"/>
-      <c r="Y5" s="264"/>
-      <c r="Z5" s="288"/>
-      <c r="AA5" s="276"/>
-      <c r="AB5" s="279"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="285"/>
-      <c r="AE5" s="288"/>
-      <c r="AF5" s="291"/>
-      <c r="AG5" s="258"/>
-      <c r="AH5" s="261"/>
-      <c r="AI5" s="264"/>
-      <c r="AJ5" s="267"/>
-      <c r="AK5" s="270"/>
-      <c r="AL5" s="273"/>
-      <c r="AM5" s="247"/>
-      <c r="AN5" s="250"/>
-      <c r="AO5" s="250"/>
-      <c r="AP5" s="250"/>
-      <c r="AQ5" s="252"/>
-      <c r="AR5" s="255"/>
-      <c r="AS5" s="230"/>
-      <c r="AT5" s="232"/>
-      <c r="AU5" s="235"/>
-      <c r="AV5" s="238"/>
-      <c r="AW5" s="241"/>
-      <c r="AX5" s="244"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="224"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="232"/>
+      <c r="V5" s="234"/>
+      <c r="W5" s="209"/>
+      <c r="X5" s="203"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="258"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="264"/>
+      <c r="AD5" s="267"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="209"/>
+      <c r="AH5" s="249"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="227"/>
+      <c r="AK5" s="252"/>
+      <c r="AL5" s="255"/>
+      <c r="AM5" s="302"/>
+      <c r="AN5" s="305"/>
+      <c r="AO5" s="305"/>
+      <c r="AP5" s="305"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="246"/>
+      <c r="AS5" s="285"/>
+      <c r="AT5" s="287"/>
+      <c r="AU5" s="290"/>
+      <c r="AV5" s="293"/>
+      <c r="AW5" s="296"/>
+      <c r="AX5" s="299"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="227"/>
-      <c r="BA5" s="221"/>
-      <c r="BB5" s="221"/>
-      <c r="BC5" s="218"/>
-      <c r="BD5" s="218"/>
-      <c r="BE5" s="218"/>
-      <c r="BF5" s="218"/>
-      <c r="BG5" s="218"/>
-      <c r="BH5" s="221"/>
-      <c r="BI5" s="224"/>
+      <c r="AZ5" s="282"/>
+      <c r="BA5" s="276"/>
+      <c r="BB5" s="276"/>
+      <c r="BC5" s="273"/>
+      <c r="BD5" s="273"/>
+      <c r="BE5" s="273"/>
+      <c r="BF5" s="273"/>
+      <c r="BG5" s="273"/>
+      <c r="BH5" s="276"/>
+      <c r="BI5" s="279"/>
       <c r="BJ5"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="307"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="288"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="310"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="258"/>
-      <c r="R6" s="291"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="304"/>
-      <c r="U6" s="293"/>
-      <c r="V6" s="295"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="291"/>
-      <c r="Y6" s="264"/>
-      <c r="Z6" s="288"/>
-      <c r="AA6" s="276"/>
-      <c r="AB6" s="279"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="285"/>
-      <c r="AE6" s="288"/>
-      <c r="AF6" s="291"/>
-      <c r="AG6" s="258"/>
-      <c r="AH6" s="261"/>
-      <c r="AI6" s="264"/>
-      <c r="AJ6" s="267"/>
-      <c r="AK6" s="270"/>
-      <c r="AL6" s="273"/>
-      <c r="AM6" s="247"/>
-      <c r="AN6" s="250"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="250"/>
-      <c r="AQ6" s="252"/>
-      <c r="AR6" s="255"/>
-      <c r="AS6" s="230"/>
-      <c r="AT6" s="232"/>
-      <c r="AU6" s="235"/>
-      <c r="AV6" s="238"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="244"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="230"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="206"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="237"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="209"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="232"/>
+      <c r="V6" s="234"/>
+      <c r="W6" s="209"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="221"/>
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="258"/>
+      <c r="AB6" s="261"/>
+      <c r="AC6" s="264"/>
+      <c r="AD6" s="267"/>
+      <c r="AE6" s="206"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="209"/>
+      <c r="AH6" s="249"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="227"/>
+      <c r="AK6" s="252"/>
+      <c r="AL6" s="255"/>
+      <c r="AM6" s="302"/>
+      <c r="AN6" s="305"/>
+      <c r="AO6" s="305"/>
+      <c r="AP6" s="305"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="246"/>
+      <c r="AS6" s="285"/>
+      <c r="AT6" s="287"/>
+      <c r="AU6" s="290"/>
+      <c r="AV6" s="293"/>
+      <c r="AW6" s="296"/>
+      <c r="AX6" s="299"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="227"/>
-      <c r="BA6" s="221"/>
-      <c r="BB6" s="221"/>
-      <c r="BC6" s="218"/>
-      <c r="BD6" s="218"/>
-      <c r="BE6" s="218"/>
-      <c r="BF6" s="218"/>
-      <c r="BG6" s="218"/>
-      <c r="BH6" s="221"/>
-      <c r="BI6" s="224"/>
+      <c r="AZ6" s="282"/>
+      <c r="BA6" s="276"/>
+      <c r="BB6" s="276"/>
+      <c r="BC6" s="273"/>
+      <c r="BD6" s="273"/>
+      <c r="BE6" s="273"/>
+      <c r="BF6" s="273"/>
+      <c r="BG6" s="273"/>
+      <c r="BH6" s="276"/>
+      <c r="BI6" s="279"/>
       <c r="BJ6"/>
     </row>
     <row r="7" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
-      <c r="C7" s="317"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="289"/>
-      <c r="L7" s="259"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="302"/>
-      <c r="Q7" s="259"/>
-      <c r="R7" s="292"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="293"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="259"/>
-      <c r="X7" s="292"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="277"/>
-      <c r="AB7" s="280"/>
-      <c r="AC7" s="283"/>
-      <c r="AD7" s="286"/>
-      <c r="AE7" s="289"/>
-      <c r="AF7" s="292"/>
-      <c r="AG7" s="259"/>
-      <c r="AH7" s="262"/>
-      <c r="AI7" s="265"/>
-      <c r="AJ7" s="268"/>
-      <c r="AK7" s="271"/>
-      <c r="AL7" s="274"/>
-      <c r="AM7" s="248"/>
-      <c r="AN7" s="250"/>
-      <c r="AO7" s="250"/>
-      <c r="AP7" s="250"/>
-      <c r="AQ7" s="253"/>
-      <c r="AR7" s="256"/>
-      <c r="AS7" s="230"/>
-      <c r="AT7" s="233"/>
-      <c r="AU7" s="236"/>
-      <c r="AV7" s="239"/>
-      <c r="AW7" s="242"/>
-      <c r="AX7" s="245"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="238"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="232"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="207"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="204"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="250"/>
+      <c r="AI7" s="222"/>
+      <c r="AJ7" s="228"/>
+      <c r="AK7" s="253"/>
+      <c r="AL7" s="256"/>
+      <c r="AM7" s="303"/>
+      <c r="AN7" s="305"/>
+      <c r="AO7" s="305"/>
+      <c r="AP7" s="305"/>
+      <c r="AQ7" s="244"/>
+      <c r="AR7" s="247"/>
+      <c r="AS7" s="285"/>
+      <c r="AT7" s="288"/>
+      <c r="AU7" s="291"/>
+      <c r="AV7" s="294"/>
+      <c r="AW7" s="297"/>
+      <c r="AX7" s="300"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="228"/>
-      <c r="BA7" s="222"/>
-      <c r="BB7" s="222"/>
-      <c r="BC7" s="219"/>
-      <c r="BD7" s="219"/>
-      <c r="BE7" s="219"/>
-      <c r="BF7" s="219"/>
-      <c r="BG7" s="219"/>
-      <c r="BH7" s="222"/>
-      <c r="BI7" s="225"/>
+      <c r="AZ7" s="283"/>
+      <c r="BA7" s="277"/>
+      <c r="BB7" s="277"/>
+      <c r="BC7" s="274"/>
+      <c r="BD7" s="274"/>
+      <c r="BE7" s="274"/>
+      <c r="BF7" s="274"/>
+      <c r="BG7" s="274"/>
+      <c r="BH7" s="277"/>
+      <c r="BI7" s="280"/>
       <c r="BJ7"/>
     </row>
     <row r="8" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3761,7 +3758,7 @@
       <c r="BJ8"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="269" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3935,7 +3932,7 @@
       <c r="BJ9" s="35"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="209"/>
+      <c r="A10" s="270"/>
       <c r="B10" s="36" t="s">
         <v>56</v>
       </c>
@@ -4107,7 +4104,7 @@
       <c r="BJ10" s="35"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="209"/>
+      <c r="A11" s="270"/>
       <c r="B11" s="36" t="s">
         <v>57</v>
       </c>
@@ -4173,7 +4170,7 @@
       <c r="BJ11" s="35"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="209"/>
+      <c r="A12" s="270"/>
       <c r="B12" s="36" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4236,7 @@
       <c r="BJ12" s="35"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A13" s="209"/>
+      <c r="A13" s="270"/>
       <c r="B13" s="36" t="s">
         <v>59</v>
       </c>
@@ -4409,7 +4406,7 @@
       <c r="BJ13" s="35"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
+      <c r="A14" s="270"/>
       <c r="B14" s="59" t="s">
         <v>60</v>
       </c>
@@ -4478,7 +4475,7 @@
       </c>
     </row>
     <row r="15" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211"/>
+      <c r="A15" s="271"/>
       <c r="B15" s="69" t="s">
         <v>61</v>
       </c>
@@ -4546,7 +4543,7 @@
       <c r="BJ15" s="35"/>
     </row>
     <row r="16" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="269" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -4723,7 +4720,7 @@
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A17" s="209"/>
+      <c r="A17" s="270"/>
       <c r="B17" s="36" t="s">
         <v>56</v>
       </c>
@@ -4898,7 +4895,7 @@
       </c>
     </row>
     <row r="18" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="209"/>
+      <c r="A18" s="270"/>
       <c r="B18" s="78" t="s">
         <v>57</v>
       </c>
@@ -4967,7 +4964,7 @@
       </c>
     </row>
     <row r="19" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="209"/>
+      <c r="A19" s="270"/>
       <c r="B19" s="86" t="s">
         <v>58</v>
       </c>
@@ -5036,7 +5033,7 @@
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="209"/>
+      <c r="A20" s="270"/>
       <c r="B20" s="36" t="s">
         <v>59</v>
       </c>
@@ -5193,7 +5190,7 @@
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
+      <c r="A21" s="270"/>
       <c r="B21" s="59" t="s">
         <v>60</v>
       </c>
@@ -5262,7 +5259,7 @@
       </c>
     </row>
     <row r="22" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="211"/>
+      <c r="A22" s="271"/>
       <c r="B22" s="96" t="s">
         <v>61</v>
       </c>
@@ -5330,7 +5327,7 @@
       <c r="BJ22" s="35"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A23" s="208" t="s">
+      <c r="A23" s="269" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -5401,7 +5398,7 @@
       </c>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
+      <c r="A24" s="270"/>
       <c r="B24" s="36" t="s">
         <v>56</v>
       </c>
@@ -5470,7 +5467,7 @@
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
+      <c r="A25" s="270"/>
       <c r="B25" s="36" t="s">
         <v>57</v>
       </c>
@@ -5631,7 +5628,7 @@
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
+      <c r="A26" s="270"/>
       <c r="B26" s="36" t="s">
         <v>58</v>
       </c>
@@ -5794,7 +5791,7 @@
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A27" s="209"/>
+      <c r="A27" s="270"/>
       <c r="B27" s="36" t="s">
         <v>59</v>
       </c>
@@ -5955,7 +5952,7 @@
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="209"/>
+      <c r="A28" s="270"/>
       <c r="B28" s="59" t="s">
         <v>60</v>
       </c>
@@ -6024,7 +6021,7 @@
       </c>
     </row>
     <row r="29" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
+      <c r="A29" s="271"/>
       <c r="B29" s="96" t="s">
         <v>61</v>
       </c>
@@ -6092,7 +6089,7 @@
       <c r="BJ29" s="35"/>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="269" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="24" t="s">
@@ -6263,7 +6260,7 @@
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A31" s="209"/>
+      <c r="A31" s="270"/>
       <c r="B31" s="36" t="s">
         <v>56</v>
       </c>
@@ -6430,7 +6427,7 @@
       </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="209"/>
+      <c r="A32" s="270"/>
       <c r="B32" s="36" t="s">
         <v>57</v>
       </c>
@@ -6597,7 +6594,7 @@
       </c>
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
+      <c r="A33" s="270"/>
       <c r="B33" s="36" t="s">
         <v>58</v>
       </c>
@@ -6760,7 +6757,7 @@
       </c>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
+      <c r="A34" s="270"/>
       <c r="B34" s="36" t="s">
         <v>59</v>
       </c>
@@ -6921,7 +6918,7 @@
       </c>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
+      <c r="A35" s="270"/>
       <c r="B35" s="59" t="s">
         <v>60</v>
       </c>
@@ -6990,7 +6987,7 @@
       </c>
     </row>
     <row r="36" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="209"/>
+      <c r="A36" s="270"/>
       <c r="B36" s="96" t="s">
         <v>61</v>
       </c>
@@ -7058,7 +7055,7 @@
       <c r="BJ36" s="35"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A37" s="214" t="s">
+      <c r="A37" s="306" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -7227,7 +7224,7 @@
       </c>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A38" s="215"/>
+      <c r="A38" s="307"/>
       <c r="B38" s="36" t="s">
         <v>56</v>
       </c>
@@ -7394,7 +7391,7 @@
       </c>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A39" s="215"/>
+      <c r="A39" s="307"/>
       <c r="B39" s="36" t="s">
         <v>57</v>
       </c>
@@ -7561,7 +7558,7 @@
       </c>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
+      <c r="A40" s="307"/>
       <c r="B40" s="36" t="s">
         <v>58</v>
       </c>
@@ -7724,7 +7721,7 @@
       </c>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A41" s="215"/>
+      <c r="A41" s="307"/>
       <c r="B41" s="36" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7874,7 @@
       </c>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A42" s="215"/>
+      <c r="A42" s="307"/>
       <c r="B42" s="36" t="s">
         <v>60</v>
       </c>
@@ -7946,7 +7943,7 @@
       </c>
     </row>
     <row r="43" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="216"/>
+      <c r="A43" s="308"/>
       <c r="B43" s="96" t="s">
         <v>61</v>
       </c>
@@ -8014,7 +8011,7 @@
       <c r="BJ43" s="35"/>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A44" s="208" t="s">
+      <c r="A44" s="269" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -8181,7 +8178,7 @@
       </c>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A45" s="209"/>
+      <c r="A45" s="270"/>
       <c r="B45" s="36" t="s">
         <v>56</v>
       </c>
@@ -8348,7 +8345,7 @@
       </c>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A46" s="209"/>
+      <c r="A46" s="270"/>
       <c r="B46" s="36" t="s">
         <v>57</v>
       </c>
@@ -8513,7 +8510,7 @@
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A47" s="209"/>
+      <c r="A47" s="270"/>
       <c r="B47" s="36" t="s">
         <v>58</v>
       </c>
@@ -8678,7 +8675,7 @@
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A48" s="209"/>
+      <c r="A48" s="270"/>
       <c r="B48" s="36" t="s">
         <v>59</v>
       </c>
@@ -8841,7 +8838,7 @@
       </c>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A49" s="209"/>
+      <c r="A49" s="270"/>
       <c r="B49" s="59" t="s">
         <v>60</v>
       </c>
@@ -8910,7 +8907,7 @@
       </c>
     </row>
     <row r="50" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="211"/>
+      <c r="A50" s="271"/>
       <c r="B50" s="96" t="s">
         <v>61</v>
       </c>
@@ -8978,7 +8975,7 @@
       <c r="BJ50" s="35"/>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="269" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="24" t="s">
@@ -9139,7 +9136,7 @@
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A52" s="209"/>
+      <c r="A52" s="270"/>
       <c r="B52" s="36" t="s">
         <v>56</v>
       </c>
@@ -9300,7 +9297,7 @@
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A53" s="209"/>
+      <c r="A53" s="270"/>
       <c r="B53" s="36" t="s">
         <v>57</v>
       </c>
@@ -9461,7 +9458,7 @@
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A54" s="209"/>
+      <c r="A54" s="270"/>
       <c r="B54" s="36" t="s">
         <v>58</v>
       </c>
@@ -9622,7 +9619,7 @@
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A55" s="209"/>
+      <c r="A55" s="270"/>
       <c r="B55" s="36" t="s">
         <v>59</v>
       </c>
@@ -9781,7 +9778,7 @@
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A56" s="209"/>
+      <c r="A56" s="270"/>
       <c r="B56" s="59" t="s">
         <v>60</v>
       </c>
@@ -9850,7 +9847,7 @@
       </c>
     </row>
     <row r="57" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="211"/>
+      <c r="A57" s="271"/>
       <c r="B57" s="96" t="s">
         <v>61</v>
       </c>
@@ -9918,7 +9915,7 @@
       <c r="BJ57" s="35"/>
     </row>
     <row r="58" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="214" t="s">
+      <c r="A58" s="306" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="24" t="s">
@@ -10089,7 +10086,7 @@
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A59" s="215"/>
+      <c r="A59" s="307"/>
       <c r="B59" s="36" t="s">
         <v>56</v>
       </c>
@@ -10262,7 +10259,7 @@
       </c>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A60" s="215"/>
+      <c r="A60" s="307"/>
       <c r="B60" s="36" t="s">
         <v>57</v>
       </c>
@@ -10433,7 +10430,7 @@
       </c>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A61" s="215"/>
+      <c r="A61" s="307"/>
       <c r="B61" s="36" t="s">
         <v>58</v>
       </c>
@@ -10598,7 +10595,7 @@
       </c>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A62" s="215"/>
+      <c r="A62" s="307"/>
       <c r="B62" s="36" t="s">
         <v>59</v>
       </c>
@@ -10763,7 +10760,7 @@
       </c>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A63" s="215"/>
+      <c r="A63" s="307"/>
       <c r="B63" s="36" t="s">
         <v>60</v>
       </c>
@@ -10916,7 +10913,7 @@
       </c>
     </row>
     <row r="64" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="216"/>
+      <c r="A64" s="308"/>
       <c r="B64" s="96" t="s">
         <v>61</v>
       </c>
@@ -10984,7 +10981,7 @@
       <c r="BJ64" s="35"/>
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A65" s="208" t="s">
+      <c r="A65" s="269" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="24" t="s">
@@ -11153,7 +11150,7 @@
       </c>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A66" s="209"/>
+      <c r="A66" s="270"/>
       <c r="B66" s="36" t="s">
         <v>56</v>
       </c>
@@ -11322,7 +11319,7 @@
       </c>
     </row>
     <row r="67" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A67" s="209"/>
+      <c r="A67" s="270"/>
       <c r="B67" s="36" t="s">
         <v>57</v>
       </c>
@@ -11493,7 +11490,7 @@
       </c>
     </row>
     <row r="68" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A68" s="209"/>
+      <c r="A68" s="270"/>
       <c r="B68" s="36" t="s">
         <v>58</v>
       </c>
@@ -11656,7 +11653,7 @@
       </c>
     </row>
     <row r="69" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A69" s="209"/>
+      <c r="A69" s="270"/>
       <c r="B69" s="36" t="s">
         <v>59</v>
       </c>
@@ -11817,7 +11814,7 @@
       </c>
     </row>
     <row r="70" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A70" s="209"/>
+      <c r="A70" s="270"/>
       <c r="B70" s="59" t="s">
         <v>60</v>
       </c>
@@ -11886,7 +11883,7 @@
       </c>
     </row>
     <row r="71" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="209"/>
+      <c r="A71" s="270"/>
       <c r="B71" s="96" t="s">
         <v>61</v>
       </c>
@@ -11954,7 +11951,7 @@
       <c r="BJ71" s="35"/>
     </row>
     <row r="72" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A72" s="208" t="s">
+      <c r="A72" s="269" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -12119,7 +12116,7 @@
       </c>
     </row>
     <row r="73" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A73" s="209"/>
+      <c r="A73" s="270"/>
       <c r="B73" s="36" t="s">
         <v>56</v>
       </c>
@@ -12280,7 +12277,7 @@
       </c>
     </row>
     <row r="74" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A74" s="209"/>
+      <c r="A74" s="270"/>
       <c r="B74" s="36" t="s">
         <v>57</v>
       </c>
@@ -12443,7 +12440,7 @@
       </c>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A75" s="209"/>
+      <c r="A75" s="270"/>
       <c r="B75" s="36" t="s">
         <v>58</v>
       </c>
@@ -12606,7 +12603,7 @@
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A76" s="209"/>
+      <c r="A76" s="270"/>
       <c r="B76" s="36" t="s">
         <v>59</v>
       </c>
@@ -12767,7 +12764,7 @@
       </c>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A77" s="209"/>
+      <c r="A77" s="270"/>
       <c r="B77" s="59" t="s">
         <v>60</v>
       </c>
@@ -12836,7 +12833,7 @@
       </c>
     </row>
     <row r="78" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="211"/>
+      <c r="A78" s="271"/>
       <c r="B78" s="96" t="s">
         <v>61</v>
       </c>
@@ -12904,7 +12901,7 @@
       <c r="BJ78" s="35"/>
     </row>
     <row r="79" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="208" t="s">
+      <c r="A79" s="269" t="s">
         <v>71</v>
       </c>
       <c r="B79" s="24" t="s">
@@ -13071,7 +13068,7 @@
       </c>
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A80" s="209"/>
+      <c r="A80" s="270"/>
       <c r="B80" s="36" t="s">
         <v>56</v>
       </c>
@@ -13240,7 +13237,7 @@
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A81" s="209"/>
+      <c r="A81" s="270"/>
       <c r="B81" s="36" t="s">
         <v>57</v>
       </c>
@@ -13409,7 +13406,7 @@
       </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A82" s="209"/>
+      <c r="A82" s="270"/>
       <c r="B82" s="36" t="s">
         <v>58</v>
       </c>
@@ -13572,7 +13569,7 @@
       </c>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A83" s="209"/>
+      <c r="A83" s="270"/>
       <c r="B83" s="36" t="s">
         <v>59</v>
       </c>
@@ -13733,7 +13730,7 @@
       </c>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A84" s="209"/>
+      <c r="A84" s="270"/>
       <c r="B84" s="59" t="s">
         <v>60</v>
       </c>
@@ -13802,7 +13799,7 @@
       </c>
     </row>
     <row r="85" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="211"/>
+      <c r="A85" s="271"/>
       <c r="B85" s="96" t="s">
         <v>61</v>
       </c>
@@ -13870,7 +13867,7 @@
       <c r="BJ85" s="35"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A86" s="208" t="s">
+      <c r="A86" s="269" t="s">
         <v>72</v>
       </c>
       <c r="B86" s="24" t="s">
@@ -14031,7 +14028,7 @@
       </c>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A87" s="209"/>
+      <c r="A87" s="270"/>
       <c r="B87" s="36" t="s">
         <v>56</v>
       </c>
@@ -14190,7 +14187,7 @@
       </c>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A88" s="209"/>
+      <c r="A88" s="270"/>
       <c r="B88" s="36" t="s">
         <v>57</v>
       </c>
@@ -14351,7 +14348,7 @@
       </c>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A89" s="209"/>
+      <c r="A89" s="270"/>
       <c r="B89" s="36" t="s">
         <v>58</v>
       </c>
@@ -14512,7 +14509,7 @@
       </c>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A90" s="209"/>
+      <c r="A90" s="270"/>
       <c r="B90" s="36" t="s">
         <v>59</v>
       </c>
@@ -14671,7 +14668,7 @@
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A91" s="209"/>
+      <c r="A91" s="270"/>
       <c r="B91" s="59" t="s">
         <v>60</v>
       </c>
@@ -14740,7 +14737,7 @@
       </c>
     </row>
     <row r="92" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="211"/>
+      <c r="A92" s="271"/>
       <c r="B92" s="96" t="s">
         <v>61</v>
       </c>
@@ -14808,7 +14805,7 @@
       <c r="BJ92" s="35"/>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A93" s="214" t="s">
+      <c r="A93" s="306" t="s">
         <v>73</v>
       </c>
       <c r="B93" s="24" t="s">
@@ -14973,7 +14970,7 @@
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A94" s="215"/>
+      <c r="A94" s="307"/>
       <c r="B94" s="36" t="s">
         <v>56</v>
       </c>
@@ -15136,7 +15133,7 @@
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A95" s="215"/>
+      <c r="A95" s="307"/>
       <c r="B95" s="36" t="s">
         <v>57</v>
       </c>
@@ -15297,7 +15294,7 @@
       </c>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A96" s="215"/>
+      <c r="A96" s="307"/>
       <c r="B96" s="36" t="s">
         <v>58</v>
       </c>
@@ -15458,7 +15455,7 @@
       </c>
     </row>
     <row r="97" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A97" s="215"/>
+      <c r="A97" s="307"/>
       <c r="B97" s="36" t="s">
         <v>59</v>
       </c>
@@ -15619,7 +15616,7 @@
       </c>
     </row>
     <row r="98" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A98" s="215"/>
+      <c r="A98" s="307"/>
       <c r="B98" s="36" t="s">
         <v>60</v>
       </c>
@@ -15770,7 +15767,7 @@
       </c>
     </row>
     <row r="99" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="216"/>
+      <c r="A99" s="308"/>
       <c r="B99" s="96" t="s">
         <v>61</v>
       </c>
@@ -15838,7 +15835,7 @@
       <c r="BJ99" s="35"/>
     </row>
     <row r="100" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="208" t="s">
+      <c r="A100" s="269" t="s">
         <v>74</v>
       </c>
       <c r="B100" s="24" t="s">
@@ -15999,7 +15996,7 @@
       </c>
     </row>
     <row r="101" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A101" s="209"/>
+      <c r="A101" s="270"/>
       <c r="B101" s="36" t="s">
         <v>56</v>
       </c>
@@ -16160,7 +16157,7 @@
       </c>
     </row>
     <row r="102" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A102" s="209"/>
+      <c r="A102" s="270"/>
       <c r="B102" s="36" t="s">
         <v>57</v>
       </c>
@@ -16321,7 +16318,7 @@
       </c>
     </row>
     <row r="103" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A103" s="209"/>
+      <c r="A103" s="270"/>
       <c r="B103" s="36" t="s">
         <v>58</v>
       </c>
@@ -16482,7 +16479,7 @@
       </c>
     </row>
     <row r="104" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A104" s="209"/>
+      <c r="A104" s="270"/>
       <c r="B104" s="36" t="s">
         <v>59</v>
       </c>
@@ -16641,7 +16638,7 @@
       </c>
     </row>
     <row r="105" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A105" s="209"/>
+      <c r="A105" s="270"/>
       <c r="B105" s="59" t="s">
         <v>60</v>
       </c>
@@ -16710,7 +16707,7 @@
       </c>
     </row>
     <row r="106" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="211"/>
+      <c r="A106" s="271"/>
       <c r="B106" s="96" t="s">
         <v>61</v>
       </c>
@@ -16778,7 +16775,7 @@
       <c r="BJ106" s="35"/>
     </row>
     <row r="107" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A107" s="208" t="s">
+      <c r="A107" s="269" t="s">
         <v>75</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -16941,7 +16938,7 @@
       </c>
     </row>
     <row r="108" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A108" s="209"/>
+      <c r="A108" s="270"/>
       <c r="B108" s="36" t="s">
         <v>56</v>
       </c>
@@ -17104,7 +17101,7 @@
       </c>
     </row>
     <row r="109" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A109" s="209"/>
+      <c r="A109" s="270"/>
       <c r="B109" s="36" t="s">
         <v>57</v>
       </c>
@@ -17267,7 +17264,7 @@
       </c>
     </row>
     <row r="110" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A110" s="209"/>
+      <c r="A110" s="270"/>
       <c r="B110" s="36" t="s">
         <v>58</v>
       </c>
@@ -17336,7 +17333,7 @@
       </c>
     </row>
     <row r="111" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A111" s="209"/>
+      <c r="A111" s="270"/>
       <c r="B111" s="36" t="s">
         <v>59</v>
       </c>
@@ -17405,7 +17402,7 @@
       </c>
     </row>
     <row r="112" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A112" s="209"/>
+      <c r="A112" s="270"/>
       <c r="B112" s="59" t="s">
         <v>60</v>
       </c>
@@ -17474,7 +17471,7 @@
       </c>
     </row>
     <row r="113" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="211"/>
+      <c r="A113" s="271"/>
       <c r="B113" s="96" t="s">
         <v>61</v>
       </c>
@@ -17542,7 +17539,7 @@
       <c r="BJ113" s="35"/>
     </row>
     <row r="114" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A114" s="214" t="s">
+      <c r="A114" s="306" t="s">
         <v>76</v>
       </c>
       <c r="B114" s="24" t="s">
@@ -17613,7 +17610,7 @@
       </c>
     </row>
     <row r="115" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A115" s="215"/>
+      <c r="A115" s="307"/>
       <c r="B115" s="36" t="s">
         <v>56</v>
       </c>
@@ -17774,7 +17771,7 @@
       </c>
     </row>
     <row r="116" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A116" s="215"/>
+      <c r="A116" s="307"/>
       <c r="B116" s="36" t="s">
         <v>57</v>
       </c>
@@ -17937,7 +17934,7 @@
       </c>
     </row>
     <row r="117" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A117" s="215"/>
+      <c r="A117" s="307"/>
       <c r="B117" s="36" t="s">
         <v>58</v>
       </c>
@@ -18100,7 +18097,7 @@
       </c>
     </row>
     <row r="118" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A118" s="215"/>
+      <c r="A118" s="307"/>
       <c r="B118" s="36" t="s">
         <v>59</v>
       </c>
@@ -18263,7 +18260,7 @@
       </c>
     </row>
     <row r="119" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A119" s="215"/>
+      <c r="A119" s="307"/>
       <c r="B119" s="36" t="s">
         <v>60</v>
       </c>
@@ -18414,7 +18411,7 @@
       </c>
     </row>
     <row r="120" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="215"/>
+      <c r="A120" s="307"/>
       <c r="B120" s="96" t="s">
         <v>61</v>
       </c>
@@ -18482,7 +18479,7 @@
       <c r="BJ120" s="35"/>
     </row>
     <row r="121" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A121" s="208" t="s">
+      <c r="A121" s="269" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="24" t="s">
@@ -18645,7 +18642,7 @@
       </c>
     </row>
     <row r="122" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A122" s="209"/>
+      <c r="A122" s="270"/>
       <c r="B122" s="36" t="s">
         <v>56</v>
       </c>
@@ -18808,7 +18805,7 @@
       </c>
     </row>
     <row r="123" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A123" s="209"/>
+      <c r="A123" s="270"/>
       <c r="B123" s="36" t="s">
         <v>57</v>
       </c>
@@ -18971,7 +18968,7 @@
       </c>
     </row>
     <row r="124" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A124" s="209"/>
+      <c r="A124" s="270"/>
       <c r="B124" s="36" t="s">
         <v>58</v>
       </c>
@@ -19134,7 +19131,7 @@
       </c>
     </row>
     <row r="125" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A125" s="209"/>
+      <c r="A125" s="270"/>
       <c r="B125" s="36" t="s">
         <v>59</v>
       </c>
@@ -19295,7 +19292,7 @@
       </c>
     </row>
     <row r="126" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A126" s="209"/>
+      <c r="A126" s="270"/>
       <c r="B126" s="59" t="s">
         <v>60</v>
       </c>
@@ -19364,7 +19361,7 @@
       </c>
     </row>
     <row r="127" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="211"/>
+      <c r="A127" s="271"/>
       <c r="B127" s="96" t="s">
         <v>61</v>
       </c>
@@ -19432,7 +19429,7 @@
       <c r="BJ127" s="35"/>
     </row>
     <row r="128" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A128" s="208" t="s">
+      <c r="A128" s="269" t="s">
         <v>78</v>
       </c>
       <c r="B128" s="24" t="s">
@@ -19594,7 +19591,7 @@
       <c r="BJ128" s="35"/>
     </row>
     <row r="129" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A129" s="209"/>
+      <c r="A129" s="270"/>
       <c r="B129" s="36" t="s">
         <v>56</v>
       </c>
@@ -19759,7 +19756,7 @@
       </c>
     </row>
     <row r="130" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A130" s="209"/>
+      <c r="A130" s="270"/>
       <c r="B130" s="36" t="s">
         <v>57</v>
       </c>
@@ -19924,7 +19921,7 @@
       </c>
     </row>
     <row r="131" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A131" s="209"/>
+      <c r="A131" s="270"/>
       <c r="B131" s="36" t="s">
         <v>58</v>
       </c>
@@ -20089,7 +20086,7 @@
       </c>
     </row>
     <row r="132" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A132" s="209"/>
+      <c r="A132" s="270"/>
       <c r="B132" s="36" t="s">
         <v>59</v>
       </c>
@@ -20252,7 +20249,7 @@
       </c>
     </row>
     <row r="133" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A133" s="209"/>
+      <c r="A133" s="270"/>
       <c r="B133" s="59" t="s">
         <v>60</v>
       </c>
@@ -20321,7 +20318,7 @@
       </c>
     </row>
     <row r="134" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="211"/>
+      <c r="A134" s="271"/>
       <c r="B134" s="96" t="s">
         <v>61</v>
       </c>
@@ -20389,7 +20386,7 @@
       <c r="BJ134" s="35"/>
     </row>
     <row r="135" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="208" t="s">
+      <c r="A135" s="269" t="s">
         <v>79</v>
       </c>
       <c r="B135" s="24" t="s">
@@ -20552,7 +20549,7 @@
       </c>
     </row>
     <row r="136" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A136" s="209"/>
+      <c r="A136" s="270"/>
       <c r="B136" s="36" t="s">
         <v>56</v>
       </c>
@@ -20713,7 +20710,7 @@
       </c>
     </row>
     <row r="137" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A137" s="209"/>
+      <c r="A137" s="270"/>
       <c r="B137" s="36" t="s">
         <v>57</v>
       </c>
@@ -20874,7 +20871,7 @@
       </c>
     </row>
     <row r="138" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A138" s="209"/>
+      <c r="A138" s="270"/>
       <c r="B138" s="36" t="s">
         <v>58</v>
       </c>
@@ -21037,7 +21034,7 @@
       </c>
     </row>
     <row r="139" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A139" s="209"/>
+      <c r="A139" s="270"/>
       <c r="B139" s="36" t="s">
         <v>59</v>
       </c>
@@ -21106,7 +21103,7 @@
       </c>
     </row>
     <row r="140" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A140" s="209"/>
+      <c r="A140" s="270"/>
       <c r="B140" s="59" t="s">
         <v>60</v>
       </c>
@@ -21175,7 +21172,7 @@
       </c>
     </row>
     <row r="141" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="211"/>
+      <c r="A141" s="271"/>
       <c r="B141" s="96" t="s">
         <v>61</v>
       </c>
@@ -21243,7 +21240,7 @@
       <c r="BJ141" s="35"/>
     </row>
     <row r="142" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A142" s="208" t="s">
+      <c r="A142" s="269" t="s">
         <v>80</v>
       </c>
       <c r="B142" s="24" t="s">
@@ -21408,7 +21405,7 @@
       </c>
     </row>
     <row r="143" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A143" s="209"/>
+      <c r="A143" s="270"/>
       <c r="B143" s="36" t="s">
         <v>56</v>
       </c>
@@ -21573,7 +21570,7 @@
       </c>
     </row>
     <row r="144" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A144" s="209"/>
+      <c r="A144" s="270"/>
       <c r="B144" s="36" t="s">
         <v>57</v>
       </c>
@@ -21738,7 +21735,7 @@
       </c>
     </row>
     <row r="145" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A145" s="209"/>
+      <c r="A145" s="270"/>
       <c r="B145" s="36" t="s">
         <v>58</v>
       </c>
@@ -21903,7 +21900,7 @@
       </c>
     </row>
     <row r="146" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A146" s="209"/>
+      <c r="A146" s="270"/>
       <c r="B146" s="36" t="s">
         <v>59</v>
       </c>
@@ -22066,7 +22063,7 @@
       </c>
     </row>
     <row r="147" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A147" s="209"/>
+      <c r="A147" s="270"/>
       <c r="B147" s="59" t="s">
         <v>60</v>
       </c>
@@ -22135,7 +22132,7 @@
       </c>
     </row>
     <row r="148" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="211"/>
+      <c r="A148" s="271"/>
       <c r="B148" s="96" t="s">
         <v>61</v>
       </c>
@@ -22203,7 +22200,7 @@
       <c r="BJ148" s="35"/>
     </row>
     <row r="149" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A149" s="214" t="s">
+      <c r="A149" s="306" t="s">
         <v>81</v>
       </c>
       <c r="B149" s="24" t="s">
@@ -22366,7 +22363,7 @@
       </c>
     </row>
     <row r="150" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A150" s="215"/>
+      <c r="A150" s="307"/>
       <c r="B150" s="36" t="s">
         <v>56</v>
       </c>
@@ -22527,7 +22524,7 @@
       </c>
     </row>
     <row r="151" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A151" s="215"/>
+      <c r="A151" s="307"/>
       <c r="B151" s="36" t="s">
         <v>57</v>
       </c>
@@ -22686,7 +22683,7 @@
       </c>
     </row>
     <row r="152" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A152" s="215"/>
+      <c r="A152" s="307"/>
       <c r="B152" s="36" t="s">
         <v>58</v>
       </c>
@@ -22847,7 +22844,7 @@
       </c>
     </row>
     <row r="153" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A153" s="215"/>
+      <c r="A153" s="307"/>
       <c r="B153" s="36" t="s">
         <v>59</v>
       </c>
@@ -23006,7 +23003,7 @@
       </c>
     </row>
     <row r="154" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A154" s="215"/>
+      <c r="A154" s="307"/>
       <c r="B154" s="36" t="s">
         <v>60</v>
       </c>
@@ -23155,7 +23152,7 @@
       </c>
     </row>
     <row r="155" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="216"/>
+      <c r="A155" s="308"/>
       <c r="B155" s="96" t="s">
         <v>61</v>
       </c>
@@ -23223,7 +23220,7 @@
       <c r="BJ155" s="35"/>
     </row>
     <row r="156" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="208" t="s">
+      <c r="A156" s="269" t="s">
         <v>82</v>
       </c>
       <c r="B156" s="24" t="s">
@@ -23388,7 +23385,7 @@
       </c>
     </row>
     <row r="157" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A157" s="209"/>
+      <c r="A157" s="270"/>
       <c r="B157" s="36" t="s">
         <v>56</v>
       </c>
@@ -23549,7 +23546,7 @@
       </c>
     </row>
     <row r="158" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A158" s="209"/>
+      <c r="A158" s="270"/>
       <c r="B158" s="36" t="s">
         <v>57</v>
       </c>
@@ -23710,7 +23707,7 @@
       </c>
     </row>
     <row r="159" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A159" s="209"/>
+      <c r="A159" s="270"/>
       <c r="B159" s="36" t="s">
         <v>58</v>
       </c>
@@ -23871,7 +23868,7 @@
       </c>
     </row>
     <row r="160" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A160" s="209"/>
+      <c r="A160" s="270"/>
       <c r="B160" s="36" t="s">
         <v>59</v>
       </c>
@@ -24032,7 +24029,7 @@
       </c>
     </row>
     <row r="161" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A161" s="209"/>
+      <c r="A161" s="270"/>
       <c r="B161" s="59" t="s">
         <v>60</v>
       </c>
@@ -24101,7 +24098,7 @@
       </c>
     </row>
     <row r="162" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="211"/>
+      <c r="A162" s="271"/>
       <c r="B162" s="96" t="s">
         <v>61</v>
       </c>
@@ -24169,7 +24166,7 @@
       <c r="BJ162" s="35"/>
     </row>
     <row r="163" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A163" s="208" t="s">
+      <c r="A163" s="269" t="s">
         <v>83</v>
       </c>
       <c r="B163" s="24" t="s">
@@ -24332,7 +24329,7 @@
       </c>
     </row>
     <row r="164" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A164" s="209"/>
+      <c r="A164" s="270"/>
       <c r="B164" s="36" t="s">
         <v>56</v>
       </c>
@@ -24495,7 +24492,7 @@
       </c>
     </row>
     <row r="165" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A165" s="209"/>
+      <c r="A165" s="270"/>
       <c r="B165" s="36" t="s">
         <v>57</v>
       </c>
@@ -24658,7 +24655,7 @@
       </c>
     </row>
     <row r="166" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A166" s="209"/>
+      <c r="A166" s="270"/>
       <c r="B166" s="36" t="s">
         <v>58</v>
       </c>
@@ -24821,7 +24818,7 @@
       </c>
     </row>
     <row r="167" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A167" s="209"/>
+      <c r="A167" s="270"/>
       <c r="B167" s="36" t="s">
         <v>59</v>
       </c>
@@ -24982,7 +24979,7 @@
       </c>
     </row>
     <row r="168" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A168" s="209"/>
+      <c r="A168" s="270"/>
       <c r="B168" s="59" t="s">
         <v>60</v>
       </c>
@@ -25051,7 +25048,7 @@
       </c>
     </row>
     <row r="169" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="209"/>
+      <c r="A169" s="270"/>
       <c r="B169" s="96" t="s">
         <v>61</v>
       </c>
@@ -25119,7 +25116,7 @@
       <c r="BJ169" s="35"/>
     </row>
     <row r="170" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A170" s="214" t="s">
+      <c r="A170" s="306" t="s">
         <v>84</v>
       </c>
       <c r="B170" s="24" t="s">
@@ -25284,7 +25281,7 @@
       </c>
     </row>
     <row r="171" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A171" s="215"/>
+      <c r="A171" s="307"/>
       <c r="B171" s="36" t="s">
         <v>56</v>
       </c>
@@ -25447,7 +25444,7 @@
       </c>
     </row>
     <row r="172" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A172" s="215"/>
+      <c r="A172" s="307"/>
       <c r="B172" s="36" t="s">
         <v>57</v>
       </c>
@@ -25610,7 +25607,7 @@
       </c>
     </row>
     <row r="173" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A173" s="215"/>
+      <c r="A173" s="307"/>
       <c r="B173" s="36" t="s">
         <v>58</v>
       </c>
@@ -25679,7 +25676,7 @@
       </c>
     </row>
     <row r="174" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A174" s="215"/>
+      <c r="A174" s="307"/>
       <c r="B174" s="36" t="s">
         <v>59</v>
       </c>
@@ -25844,7 +25841,7 @@
       </c>
     </row>
     <row r="175" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A175" s="215"/>
+      <c r="A175" s="307"/>
       <c r="B175" s="36" t="s">
         <v>60</v>
       </c>
@@ -25997,7 +25994,7 @@
       </c>
     </row>
     <row r="176" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="216"/>
+      <c r="A176" s="308"/>
       <c r="B176" s="96" t="s">
         <v>61</v>
       </c>
@@ -26065,7 +26062,7 @@
       <c r="BJ176" s="35"/>
     </row>
     <row r="177" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A177" s="208" t="s">
+      <c r="A177" s="269" t="s">
         <v>85</v>
       </c>
       <c r="B177" s="24" t="s">
@@ -26228,7 +26225,7 @@
       </c>
     </row>
     <row r="178" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A178" s="209"/>
+      <c r="A178" s="270"/>
       <c r="B178" s="36" t="s">
         <v>56</v>
       </c>
@@ -26389,7 +26386,7 @@
       </c>
     </row>
     <row r="179" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A179" s="209"/>
+      <c r="A179" s="270"/>
       <c r="B179" s="36" t="s">
         <v>57</v>
       </c>
@@ -26550,7 +26547,7 @@
       </c>
     </row>
     <row r="180" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A180" s="209"/>
+      <c r="A180" s="270"/>
       <c r="B180" s="36" t="s">
         <v>58</v>
       </c>
@@ -26713,7 +26710,7 @@
       </c>
     </row>
     <row r="181" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A181" s="209"/>
+      <c r="A181" s="270"/>
       <c r="B181" s="36" t="s">
         <v>59</v>
       </c>
@@ -26874,7 +26871,7 @@
       </c>
     </row>
     <row r="182" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A182" s="209"/>
+      <c r="A182" s="270"/>
       <c r="B182" s="59" t="s">
         <v>60</v>
       </c>
@@ -26943,7 +26940,7 @@
       </c>
     </row>
     <row r="183" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="211"/>
+      <c r="A183" s="271"/>
       <c r="B183" s="96" t="s">
         <v>61</v>
       </c>
@@ -27011,7 +27008,7 @@
       <c r="BJ183" s="35"/>
     </row>
     <row r="184" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A184" s="208" t="s">
+      <c r="A184" s="269" t="s">
         <v>86</v>
       </c>
       <c r="B184" s="24" t="s">
@@ -27176,7 +27173,7 @@
       </c>
     </row>
     <row r="185" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A185" s="209"/>
+      <c r="A185" s="270"/>
       <c r="B185" s="36" t="s">
         <v>56</v>
       </c>
@@ -27339,7 +27336,7 @@
       </c>
     </row>
     <row r="186" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A186" s="209"/>
+      <c r="A186" s="270"/>
       <c r="B186" s="36" t="s">
         <v>57</v>
       </c>
@@ -27502,7 +27499,7 @@
       </c>
     </row>
     <row r="187" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A187" s="209"/>
+      <c r="A187" s="270"/>
       <c r="B187" s="36" t="s">
         <v>58</v>
       </c>
@@ -27664,7 +27661,7 @@
       <c r="BJ187" s="35"/>
     </row>
     <row r="188" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A188" s="209"/>
+      <c r="A188" s="270"/>
       <c r="B188" s="36" t="s">
         <v>59</v>
       </c>
@@ -27827,7 +27824,7 @@
       </c>
     </row>
     <row r="189" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A189" s="209"/>
+      <c r="A189" s="270"/>
       <c r="B189" s="59" t="s">
         <v>60</v>
       </c>
@@ -27896,7 +27893,7 @@
       </c>
     </row>
     <row r="190" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="211"/>
+      <c r="A190" s="271"/>
       <c r="B190" s="96" t="s">
         <v>61</v>
       </c>
@@ -27964,7 +27961,7 @@
       <c r="BJ190" s="35"/>
     </row>
     <row r="191" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="208" t="s">
+      <c r="A191" s="269" t="s">
         <v>87</v>
       </c>
       <c r="B191" s="24" t="s">
@@ -28127,7 +28124,7 @@
       </c>
     </row>
     <row r="192" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A192" s="209"/>
+      <c r="A192" s="270"/>
       <c r="B192" s="36" t="s">
         <v>56</v>
       </c>
@@ -28288,7 +28285,7 @@
       </c>
     </row>
     <row r="193" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A193" s="209"/>
+      <c r="A193" s="270"/>
       <c r="B193" s="36" t="s">
         <v>57</v>
       </c>
@@ -28451,7 +28448,7 @@
       </c>
     </row>
     <row r="194" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A194" s="209"/>
+      <c r="A194" s="270"/>
       <c r="B194" s="36" t="s">
         <v>58</v>
       </c>
@@ -28614,7 +28611,7 @@
       </c>
     </row>
     <row r="195" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A195" s="209"/>
+      <c r="A195" s="270"/>
       <c r="B195" s="36" t="s">
         <v>59</v>
       </c>
@@ -28775,7 +28772,7 @@
       </c>
     </row>
     <row r="196" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A196" s="209"/>
+      <c r="A196" s="270"/>
       <c r="B196" s="59" t="s">
         <v>60</v>
       </c>
@@ -28844,7 +28841,7 @@
       </c>
     </row>
     <row r="197" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="211"/>
+      <c r="A197" s="271"/>
       <c r="B197" s="96" t="s">
         <v>61</v>
       </c>
@@ -28912,7 +28909,7 @@
       <c r="BJ197" s="35"/>
     </row>
     <row r="198" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A198" s="208" t="s">
+      <c r="A198" s="269" t="s">
         <v>88</v>
       </c>
       <c r="B198" s="24" t="s">
@@ -28983,7 +28980,7 @@
       </c>
     </row>
     <row r="199" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A199" s="209"/>
+      <c r="A199" s="270"/>
       <c r="B199" s="36" t="s">
         <v>56</v>
       </c>
@@ -29144,7 +29141,7 @@
       </c>
     </row>
     <row r="200" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A200" s="209"/>
+      <c r="A200" s="270"/>
       <c r="B200" s="36" t="s">
         <v>57</v>
       </c>
@@ -29305,7 +29302,7 @@
       </c>
     </row>
     <row r="201" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A201" s="209"/>
+      <c r="A201" s="270"/>
       <c r="B201" s="36" t="s">
         <v>58</v>
       </c>
@@ -29466,7 +29463,7 @@
       </c>
     </row>
     <row r="202" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A202" s="209"/>
+      <c r="A202" s="270"/>
       <c r="B202" s="36" t="s">
         <v>59</v>
       </c>
@@ -29627,7 +29624,7 @@
       </c>
     </row>
     <row r="203" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A203" s="209"/>
+      <c r="A203" s="270"/>
       <c r="B203" s="59" t="s">
         <v>60</v>
       </c>
@@ -29696,7 +29693,7 @@
       </c>
     </row>
     <row r="204" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="211"/>
+      <c r="A204" s="271"/>
       <c r="B204" s="96" t="s">
         <v>61</v>
       </c>
@@ -29764,7 +29761,7 @@
       <c r="BJ204" s="35"/>
     </row>
     <row r="205" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A205" s="214" t="s">
+      <c r="A205" s="306" t="s">
         <v>89</v>
       </c>
       <c r="B205" s="24" t="s">
@@ -29927,7 +29924,7 @@
       </c>
     </row>
     <row r="206" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A206" s="215"/>
+      <c r="A206" s="307"/>
       <c r="B206" s="36" t="s">
         <v>56</v>
       </c>
@@ -30088,7 +30085,7 @@
       </c>
     </row>
     <row r="207" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A207" s="215"/>
+      <c r="A207" s="307"/>
       <c r="B207" s="36" t="s">
         <v>57</v>
       </c>
@@ -30249,7 +30246,7 @@
       </c>
     </row>
     <row r="208" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A208" s="215"/>
+      <c r="A208" s="307"/>
       <c r="B208" s="36" t="s">
         <v>58</v>
       </c>
@@ -30412,7 +30409,7 @@
       </c>
     </row>
     <row r="209" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A209" s="215"/>
+      <c r="A209" s="307"/>
       <c r="B209" s="36" t="s">
         <v>59</v>
       </c>
@@ -30575,7 +30572,7 @@
       </c>
     </row>
     <row r="210" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="215"/>
+      <c r="A210" s="307"/>
       <c r="B210" s="36" t="s">
         <v>60</v>
       </c>
@@ -30726,7 +30723,7 @@
       </c>
     </row>
     <row r="211" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="216"/>
+      <c r="A211" s="308"/>
       <c r="B211" s="96" t="s">
         <v>61</v>
       </c>
@@ -30794,7 +30791,7 @@
       <c r="BJ211" s="169"/>
     </row>
     <row r="212" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="208" t="s">
+      <c r="A212" s="269" t="s">
         <v>90</v>
       </c>
       <c r="B212" s="24" t="s">
@@ -30955,7 +30952,7 @@
       </c>
     </row>
     <row r="213" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A213" s="209"/>
+      <c r="A213" s="270"/>
       <c r="B213" s="36" t="s">
         <v>56</v>
       </c>
@@ -31114,7 +31111,7 @@
       </c>
     </row>
     <row r="214" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A214" s="209"/>
+      <c r="A214" s="270"/>
       <c r="B214" s="36" t="s">
         <v>57</v>
       </c>
@@ -31273,7 +31270,7 @@
       </c>
     </row>
     <row r="215" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A215" s="209"/>
+      <c r="A215" s="270"/>
       <c r="B215" s="36" t="s">
         <v>58</v>
       </c>
@@ -31434,7 +31431,7 @@
       </c>
     </row>
     <row r="216" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A216" s="209"/>
+      <c r="A216" s="270"/>
       <c r="B216" s="36" t="s">
         <v>59</v>
       </c>
@@ -31593,7 +31590,7 @@
       </c>
     </row>
     <row r="217" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A217" s="209"/>
+      <c r="A217" s="270"/>
       <c r="B217" s="59" t="s">
         <v>60</v>
       </c>
@@ -31662,7 +31659,7 @@
       </c>
     </row>
     <row r="218" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="211"/>
+      <c r="A218" s="271"/>
       <c r="B218" s="96" t="s">
         <v>61</v>
       </c>
@@ -31730,7 +31727,7 @@
       <c r="BJ218" s="35"/>
     </row>
     <row r="219" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A219" s="208" t="s">
+      <c r="A219" s="269" t="s">
         <v>91</v>
       </c>
       <c r="B219" s="24" t="s">
@@ -31895,7 +31892,7 @@
       </c>
     </row>
     <row r="220" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A220" s="209"/>
+      <c r="A220" s="270"/>
       <c r="B220" s="36" t="s">
         <v>56</v>
       </c>
@@ -32056,7 +32053,7 @@
       </c>
     </row>
     <row r="221" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A221" s="209"/>
+      <c r="A221" s="270"/>
       <c r="B221" s="36" t="s">
         <v>57</v>
       </c>
@@ -32217,7 +32214,7 @@
       </c>
     </row>
     <row r="222" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A222" s="209"/>
+      <c r="A222" s="270"/>
       <c r="B222" s="36" t="s">
         <v>58</v>
       </c>
@@ -32378,7 +32375,7 @@
       </c>
     </row>
     <row r="223" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A223" s="209"/>
+      <c r="A223" s="270"/>
       <c r="B223" s="36" t="s">
         <v>59</v>
       </c>
@@ -32539,7 +32536,7 @@
       </c>
     </row>
     <row r="224" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A224" s="209"/>
+      <c r="A224" s="270"/>
       <c r="B224" s="59" t="s">
         <v>60</v>
       </c>
@@ -32608,7 +32605,7 @@
       </c>
     </row>
     <row r="225" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="211"/>
+      <c r="A225" s="271"/>
       <c r="B225" s="96" t="s">
         <v>61</v>
       </c>
@@ -32676,7 +32673,7 @@
       <c r="BJ225" s="35"/>
     </row>
     <row r="226" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A226" s="214" t="s">
+      <c r="A226" s="306" t="s">
         <v>92</v>
       </c>
       <c r="B226" s="24" t="s">
@@ -32837,7 +32834,7 @@
       </c>
     </row>
     <row r="227" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A227" s="215"/>
+      <c r="A227" s="307"/>
       <c r="B227" s="36" t="s">
         <v>56</v>
       </c>
@@ -32998,7 +32995,7 @@
       </c>
     </row>
     <row r="228" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A228" s="215"/>
+      <c r="A228" s="307"/>
       <c r="B228" s="36" t="s">
         <v>57</v>
       </c>
@@ -33159,7 +33156,7 @@
       </c>
     </row>
     <row r="229" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A229" s="215"/>
+      <c r="A229" s="307"/>
       <c r="B229" s="36" t="s">
         <v>58</v>
       </c>
@@ -33320,7 +33317,7 @@
       </c>
     </row>
     <row r="230" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A230" s="215"/>
+      <c r="A230" s="307"/>
       <c r="B230" s="36" t="s">
         <v>59</v>
       </c>
@@ -33481,7 +33478,7 @@
       </c>
     </row>
     <row r="231" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A231" s="215"/>
+      <c r="A231" s="307"/>
       <c r="B231" s="36" t="s">
         <v>60</v>
       </c>
@@ -33630,7 +33627,7 @@
       </c>
     </row>
     <row r="232" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="216"/>
+      <c r="A232" s="308"/>
       <c r="B232" s="96" t="s">
         <v>61</v>
       </c>
@@ -33698,7 +33695,7 @@
       <c r="BJ232" s="35"/>
     </row>
     <row r="233" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A233" s="208" t="s">
+      <c r="A233" s="269" t="s">
         <v>93</v>
       </c>
       <c r="B233" s="24" t="s">
@@ -33861,7 +33858,7 @@
       </c>
     </row>
     <row r="234" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A234" s="209"/>
+      <c r="A234" s="270"/>
       <c r="B234" s="36" t="s">
         <v>56</v>
       </c>
@@ -34022,7 +34019,7 @@
       </c>
     </row>
     <row r="235" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A235" s="209"/>
+      <c r="A235" s="270"/>
       <c r="B235" s="36" t="s">
         <v>57</v>
       </c>
@@ -34183,7 +34180,7 @@
       </c>
     </row>
     <row r="236" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A236" s="209"/>
+      <c r="A236" s="270"/>
       <c r="B236" s="36" t="s">
         <v>58</v>
       </c>
@@ -34346,7 +34343,7 @@
       </c>
     </row>
     <row r="237" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A237" s="209"/>
+      <c r="A237" s="270"/>
       <c r="B237" s="36" t="s">
         <v>59</v>
       </c>
@@ -34507,7 +34504,7 @@
       </c>
     </row>
     <row r="238" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A238" s="209"/>
+      <c r="A238" s="270"/>
       <c r="B238" s="59" t="s">
         <v>60</v>
       </c>
@@ -34576,7 +34573,7 @@
       </c>
     </row>
     <row r="239" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="211"/>
+      <c r="A239" s="271"/>
       <c r="B239" s="96" t="s">
         <v>61</v>
       </c>
@@ -34644,7 +34641,7 @@
       <c r="BJ239" s="35"/>
     </row>
     <row r="240" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A240" s="208" t="s">
+      <c r="A240" s="269" t="s">
         <v>94</v>
       </c>
       <c r="B240" s="24" t="s">
@@ -34807,7 +34804,7 @@
       </c>
     </row>
     <row r="241" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A241" s="209"/>
+      <c r="A241" s="270"/>
       <c r="B241" s="36" t="s">
         <v>56</v>
       </c>
@@ -34968,7 +34965,7 @@
       </c>
     </row>
     <row r="242" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A242" s="209"/>
+      <c r="A242" s="270"/>
       <c r="B242" s="36" t="s">
         <v>57</v>
       </c>
@@ -35129,7 +35126,7 @@
       </c>
     </row>
     <row r="243" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A243" s="209"/>
+      <c r="A243" s="270"/>
       <c r="B243" s="36" t="s">
         <v>58</v>
       </c>
@@ -35292,7 +35289,7 @@
       </c>
     </row>
     <row r="244" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A244" s="209"/>
+      <c r="A244" s="270"/>
       <c r="B244" s="36" t="s">
         <v>59</v>
       </c>
@@ -35453,7 +35450,7 @@
       </c>
     </row>
     <row r="245" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A245" s="209"/>
+      <c r="A245" s="270"/>
       <c r="B245" s="59" t="s">
         <v>60</v>
       </c>
@@ -35522,7 +35519,7 @@
       </c>
     </row>
     <row r="246" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="211"/>
+      <c r="A246" s="271"/>
       <c r="B246" s="96" t="s">
         <v>61</v>
       </c>
@@ -35590,7 +35587,7 @@
       <c r="BJ246" s="35"/>
     </row>
     <row r="247" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="208" t="s">
+      <c r="A247" s="269" t="s">
         <v>95</v>
       </c>
       <c r="B247" s="24" t="s">
@@ -35753,7 +35750,7 @@
       </c>
     </row>
     <row r="248" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A248" s="209"/>
+      <c r="A248" s="270"/>
       <c r="B248" s="36" t="s">
         <v>56</v>
       </c>
@@ -35914,7 +35911,7 @@
       </c>
     </row>
     <row r="249" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A249" s="209"/>
+      <c r="A249" s="270"/>
       <c r="B249" s="36" t="s">
         <v>57</v>
       </c>
@@ -36075,7 +36072,7 @@
       </c>
     </row>
     <row r="250" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A250" s="209"/>
+      <c r="A250" s="270"/>
       <c r="B250" s="36" t="s">
         <v>58</v>
       </c>
@@ -36238,7 +36235,7 @@
       </c>
     </row>
     <row r="251" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A251" s="209"/>
+      <c r="A251" s="270"/>
       <c r="B251" s="36" t="s">
         <v>59</v>
       </c>
@@ -36399,7 +36396,7 @@
       </c>
     </row>
     <row r="252" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A252" s="209"/>
+      <c r="A252" s="270"/>
       <c r="B252" s="59" t="s">
         <v>60</v>
       </c>
@@ -36468,7 +36465,7 @@
       </c>
     </row>
     <row r="253" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="211"/>
+      <c r="A253" s="271"/>
       <c r="B253" s="96" t="s">
         <v>61</v>
       </c>
@@ -36536,7 +36533,7 @@
       <c r="BJ253" s="35"/>
     </row>
     <row r="254" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A254" s="208" t="s">
+      <c r="A254" s="269" t="s">
         <v>96</v>
       </c>
       <c r="B254" s="24" t="s">
@@ -36607,7 +36604,7 @@
       </c>
     </row>
     <row r="255" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A255" s="209"/>
+      <c r="A255" s="270"/>
       <c r="B255" s="36" t="s">
         <v>56</v>
       </c>
@@ -36766,7 +36763,7 @@
       </c>
     </row>
     <row r="256" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A256" s="209"/>
+      <c r="A256" s="270"/>
       <c r="B256" s="36" t="s">
         <v>57</v>
       </c>
@@ -36925,7 +36922,7 @@
       </c>
     </row>
     <row r="257" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A257" s="209"/>
+      <c r="A257" s="270"/>
       <c r="B257" s="36" t="s">
         <v>58</v>
       </c>
@@ -37086,7 +37083,7 @@
       </c>
     </row>
     <row r="258" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A258" s="209"/>
+      <c r="A258" s="270"/>
       <c r="B258" s="36" t="s">
         <v>59</v>
       </c>
@@ -37245,7 +37242,7 @@
       </c>
     </row>
     <row r="259" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A259" s="209"/>
+      <c r="A259" s="270"/>
       <c r="B259" s="59" t="s">
         <v>60</v>
       </c>
@@ -37314,7 +37311,7 @@
       </c>
     </row>
     <row r="260" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="211"/>
+      <c r="A260" s="271"/>
       <c r="B260" s="96" t="s">
         <v>61</v>
       </c>
@@ -37382,7 +37379,7 @@
       <c r="BJ260" s="35"/>
     </row>
     <row r="261" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A261" s="214" t="s">
+      <c r="A261" s="306" t="s">
         <v>97</v>
       </c>
       <c r="B261" s="24" t="s">
@@ -37545,7 +37542,7 @@
       </c>
     </row>
     <row r="262" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A262" s="215"/>
+      <c r="A262" s="307"/>
       <c r="B262" s="36" t="s">
         <v>56</v>
       </c>
@@ -37706,7 +37703,7 @@
       </c>
     </row>
     <row r="263" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A263" s="215"/>
+      <c r="A263" s="307"/>
       <c r="B263" s="36" t="s">
         <v>57</v>
       </c>
@@ -37867,7 +37864,7 @@
       </c>
     </row>
     <row r="264" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A264" s="215"/>
+      <c r="A264" s="307"/>
       <c r="B264" s="36" t="s">
         <v>58</v>
       </c>
@@ -38028,7 +38025,7 @@
       </c>
     </row>
     <row r="265" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A265" s="215"/>
+      <c r="A265" s="307"/>
       <c r="B265" s="36" t="s">
         <v>59</v>
       </c>
@@ -38191,7 +38188,7 @@
       </c>
     </row>
     <row r="266" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A266" s="215"/>
+      <c r="A266" s="307"/>
       <c r="B266" s="36" t="s">
         <v>60</v>
       </c>
@@ -38342,7 +38339,7 @@
       </c>
     </row>
     <row r="267" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="215"/>
+      <c r="A267" s="307"/>
       <c r="B267" s="96" t="s">
         <v>61</v>
       </c>
@@ -38410,7 +38407,7 @@
       <c r="BJ267" s="35"/>
     </row>
     <row r="268" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="208" t="s">
+      <c r="A268" s="269" t="s">
         <v>98</v>
       </c>
       <c r="B268" s="24" t="s">
@@ -38571,7 +38568,7 @@
       </c>
     </row>
     <row r="269" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A269" s="209"/>
+      <c r="A269" s="270"/>
       <c r="B269" s="36" t="s">
         <v>56</v>
       </c>
@@ -38730,7 +38727,7 @@
       </c>
     </row>
     <row r="270" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A270" s="209"/>
+      <c r="A270" s="270"/>
       <c r="B270" s="36" t="s">
         <v>57</v>
       </c>
@@ -38889,7 +38886,7 @@
       </c>
     </row>
     <row r="271" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A271" s="209"/>
+      <c r="A271" s="270"/>
       <c r="B271" s="36" t="s">
         <v>58</v>
       </c>
@@ -39050,7 +39047,7 @@
       </c>
     </row>
     <row r="272" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A272" s="209"/>
+      <c r="A272" s="270"/>
       <c r="B272" s="36" t="s">
         <v>59</v>
       </c>
@@ -39209,7 +39206,7 @@
       </c>
     </row>
     <row r="273" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A273" s="209"/>
+      <c r="A273" s="270"/>
       <c r="B273" s="59" t="s">
         <v>60</v>
       </c>
@@ -39278,7 +39275,7 @@
       </c>
     </row>
     <row r="274" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="211"/>
+      <c r="A274" s="271"/>
       <c r="B274" s="96" t="s">
         <v>61</v>
       </c>
@@ -39346,7 +39343,7 @@
       <c r="BJ274" s="35"/>
     </row>
     <row r="275" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A275" s="208" t="s">
+      <c r="A275" s="269" t="s">
         <v>99</v>
       </c>
       <c r="B275" s="24" t="s">
@@ -39509,7 +39506,7 @@
       </c>
     </row>
     <row r="276" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A276" s="209"/>
+      <c r="A276" s="270"/>
       <c r="B276" s="36" t="s">
         <v>56</v>
       </c>
@@ -39670,7 +39667,7 @@
       </c>
     </row>
     <row r="277" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A277" s="209"/>
+      <c r="A277" s="270"/>
       <c r="B277" s="36" t="s">
         <v>57</v>
       </c>
@@ -39831,7 +39828,7 @@
       </c>
     </row>
     <row r="278" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A278" s="209"/>
+      <c r="A278" s="270"/>
       <c r="B278" s="36" t="s">
         <v>58</v>
       </c>
@@ -39994,7 +39991,7 @@
       </c>
     </row>
     <row r="279" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A279" s="209"/>
+      <c r="A279" s="270"/>
       <c r="B279" s="36" t="s">
         <v>59</v>
       </c>
@@ -40155,7 +40152,7 @@
       </c>
     </row>
     <row r="280" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A280" s="209"/>
+      <c r="A280" s="270"/>
       <c r="B280" s="59" t="s">
         <v>60</v>
       </c>
@@ -40224,7 +40221,7 @@
       </c>
     </row>
     <row r="281" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="211"/>
+      <c r="A281" s="271"/>
       <c r="B281" s="96" t="s">
         <v>61</v>
       </c>
@@ -40292,7 +40289,7 @@
       <c r="BJ281" s="35"/>
     </row>
     <row r="282" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A282" s="214" t="s">
+      <c r="A282" s="306" t="s">
         <v>100</v>
       </c>
       <c r="B282" s="24" t="s">
@@ -40457,7 +40454,7 @@
       </c>
     </row>
     <row r="283" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A283" s="215"/>
+      <c r="A283" s="307"/>
       <c r="B283" s="36" t="s">
         <v>56</v>
       </c>
@@ -40618,7 +40615,7 @@
       </c>
     </row>
     <row r="284" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A284" s="215"/>
+      <c r="A284" s="307"/>
       <c r="B284" s="36" t="s">
         <v>57</v>
       </c>
@@ -40779,7 +40776,7 @@
       </c>
     </row>
     <row r="285" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A285" s="215"/>
+      <c r="A285" s="307"/>
       <c r="B285" s="36" t="s">
         <v>58</v>
       </c>
@@ -40940,7 +40937,7 @@
       </c>
     </row>
     <row r="286" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A286" s="215"/>
+      <c r="A286" s="307"/>
       <c r="B286" s="36" t="s">
         <v>59</v>
       </c>
@@ -41101,7 +41098,7 @@
       </c>
     </row>
     <row r="287" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A287" s="215"/>
+      <c r="A287" s="307"/>
       <c r="B287" s="36" t="s">
         <v>60</v>
       </c>
@@ -41252,7 +41249,7 @@
       </c>
     </row>
     <row r="288" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="216"/>
+      <c r="A288" s="308"/>
       <c r="B288" s="96" t="s">
         <v>61</v>
       </c>
@@ -41320,7 +41317,7 @@
       <c r="BJ288" s="35"/>
     </row>
     <row r="289" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A289" s="208" t="s">
+      <c r="A289" s="269" t="s">
         <v>101</v>
       </c>
       <c r="B289" s="24" t="s">
@@ -41483,7 +41480,7 @@
       </c>
     </row>
     <row r="290" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A290" s="209"/>
+      <c r="A290" s="270"/>
       <c r="B290" s="36" t="s">
         <v>56</v>
       </c>
@@ -41644,7 +41641,7 @@
       </c>
     </row>
     <row r="291" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A291" s="209"/>
+      <c r="A291" s="270"/>
       <c r="B291" s="36" t="s">
         <v>57</v>
       </c>
@@ -41805,7 +41802,7 @@
       </c>
     </row>
     <row r="292" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A292" s="209"/>
+      <c r="A292" s="270"/>
       <c r="B292" s="36" t="s">
         <v>58</v>
       </c>
@@ -41968,7 +41965,7 @@
       </c>
     </row>
     <row r="293" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A293" s="209"/>
+      <c r="A293" s="270"/>
       <c r="B293" s="36" t="s">
         <v>59</v>
       </c>
@@ -42129,7 +42126,7 @@
       </c>
     </row>
     <row r="294" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A294" s="209"/>
+      <c r="A294" s="270"/>
       <c r="B294" s="59" t="s">
         <v>60</v>
       </c>
@@ -42198,7 +42195,7 @@
       </c>
     </row>
     <row r="295" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="211"/>
+      <c r="A295" s="271"/>
       <c r="B295" s="96" t="s">
         <v>61</v>
       </c>
@@ -42266,7 +42263,7 @@
       <c r="BJ295" s="35"/>
     </row>
     <row r="296" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A296" s="208" t="s">
+      <c r="A296" s="269" t="s">
         <v>102</v>
       </c>
       <c r="B296" s="24" t="s">
@@ -42337,7 +42334,7 @@
       </c>
     </row>
     <row r="297" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A297" s="209"/>
+      <c r="A297" s="270"/>
       <c r="B297" s="36" t="s">
         <v>56</v>
       </c>
@@ -42496,7 +42493,7 @@
       </c>
     </row>
     <row r="298" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A298" s="209"/>
+      <c r="A298" s="270"/>
       <c r="B298" s="36" t="s">
         <v>57</v>
       </c>
@@ -42655,7 +42652,7 @@
       </c>
     </row>
     <row r="299" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A299" s="209"/>
+      <c r="A299" s="270"/>
       <c r="B299" s="36" t="s">
         <v>58</v>
       </c>
@@ -42816,7 +42813,7 @@
       </c>
     </row>
     <row r="300" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A300" s="209"/>
+      <c r="A300" s="270"/>
       <c r="B300" s="36" t="s">
         <v>59</v>
       </c>
@@ -42975,7 +42972,7 @@
       </c>
     </row>
     <row r="301" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A301" s="209"/>
+      <c r="A301" s="270"/>
       <c r="B301" s="59" t="s">
         <v>60</v>
       </c>
@@ -43044,7 +43041,7 @@
       </c>
     </row>
     <row r="302" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="211"/>
+      <c r="A302" s="271"/>
       <c r="B302" s="96" t="s">
         <v>61</v>
       </c>
@@ -43112,7 +43109,7 @@
       <c r="BJ302" s="35"/>
     </row>
     <row r="303" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="208" t="s">
+      <c r="A303" s="269" t="s">
         <v>103</v>
       </c>
       <c r="B303" s="24" t="s">
@@ -43183,7 +43180,7 @@
       </c>
     </row>
     <row r="304" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A304" s="209"/>
+      <c r="A304" s="270"/>
       <c r="B304" s="36" t="s">
         <v>56</v>
       </c>
@@ -43344,7 +43341,7 @@
       </c>
     </row>
     <row r="305" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A305" s="209"/>
+      <c r="A305" s="270"/>
       <c r="B305" s="36" t="s">
         <v>57</v>
       </c>
@@ -43505,7 +43502,7 @@
       </c>
     </row>
     <row r="306" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A306" s="209"/>
+      <c r="A306" s="270"/>
       <c r="B306" s="36" t="s">
         <v>58</v>
       </c>
@@ -43668,7 +43665,7 @@
       </c>
     </row>
     <row r="307" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A307" s="209"/>
+      <c r="A307" s="270"/>
       <c r="B307" s="36" t="s">
         <v>59</v>
       </c>
@@ -43829,7 +43826,7 @@
       </c>
     </row>
     <row r="308" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A308" s="209"/>
+      <c r="A308" s="270"/>
       <c r="B308" s="59" t="s">
         <v>60</v>
       </c>
@@ -43898,7 +43895,7 @@
       </c>
     </row>
     <row r="309" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="211"/>
+      <c r="A309" s="271"/>
       <c r="B309" s="96" t="s">
         <v>61</v>
       </c>
@@ -43966,7 +43963,7 @@
       <c r="BJ309" s="35"/>
     </row>
     <row r="310" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A310" s="208" t="s">
+      <c r="A310" s="269" t="s">
         <v>104</v>
       </c>
       <c r="B310" s="24" t="s">
@@ -44131,7 +44128,7 @@
       </c>
     </row>
     <row r="311" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A311" s="209"/>
+      <c r="A311" s="270"/>
       <c r="B311" s="36" t="s">
         <v>56</v>
       </c>
@@ -44294,7 +44291,7 @@
       </c>
     </row>
     <row r="312" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A312" s="209"/>
+      <c r="A312" s="270"/>
       <c r="B312" s="36" t="s">
         <v>57</v>
       </c>
@@ -44457,7 +44454,7 @@
       </c>
     </row>
     <row r="313" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A313" s="209"/>
+      <c r="A313" s="270"/>
       <c r="B313" s="36" t="s">
         <v>58</v>
       </c>
@@ -44622,7 +44619,7 @@
       </c>
     </row>
     <row r="314" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A314" s="209"/>
+      <c r="A314" s="270"/>
       <c r="B314" s="36" t="s">
         <v>59</v>
       </c>
@@ -44785,7 +44782,7 @@
       </c>
     </row>
     <row r="315" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A315" s="209"/>
+      <c r="A315" s="270"/>
       <c r="B315" s="59" t="s">
         <v>60</v>
       </c>
@@ -44854,7 +44851,7 @@
       </c>
     </row>
     <row r="316" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="209"/>
+      <c r="A316" s="270"/>
       <c r="B316" s="96" t="s">
         <v>61</v>
       </c>
@@ -44922,7 +44919,7 @@
       <c r="BJ316" s="35"/>
     </row>
     <row r="317" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A317" s="214" t="s">
+      <c r="A317" s="306" t="s">
         <v>105</v>
       </c>
       <c r="B317" s="24" t="s">
@@ -45083,7 +45080,7 @@
       </c>
     </row>
     <row r="318" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A318" s="215"/>
+      <c r="A318" s="307"/>
       <c r="B318" s="36" t="s">
         <v>56</v>
       </c>
@@ -45242,7 +45239,7 @@
       </c>
     </row>
     <row r="319" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A319" s="215"/>
+      <c r="A319" s="307"/>
       <c r="B319" s="36" t="s">
         <v>57</v>
       </c>
@@ -45401,7 +45398,7 @@
       </c>
     </row>
     <row r="320" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A320" s="215"/>
+      <c r="A320" s="307"/>
       <c r="B320" s="36" t="s">
         <v>58</v>
       </c>
@@ -45560,7 +45557,7 @@
       </c>
     </row>
     <row r="321" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A321" s="215"/>
+      <c r="A321" s="307"/>
       <c r="B321" s="36" t="s">
         <v>59</v>
       </c>
@@ -45721,7 +45718,7 @@
       </c>
     </row>
     <row r="322" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A322" s="215"/>
+      <c r="A322" s="307"/>
       <c r="B322" s="36" t="s">
         <v>60</v>
       </c>
@@ -45870,7 +45867,7 @@
       </c>
     </row>
     <row r="323" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="216"/>
+      <c r="A323" s="308"/>
       <c r="B323" s="96" t="s">
         <v>61</v>
       </c>
@@ -45938,7 +45935,7 @@
       <c r="BJ323" s="35"/>
     </row>
     <row r="324" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="208" t="s">
+      <c r="A324" s="269" t="s">
         <v>106</v>
       </c>
       <c r="B324" s="24" t="s">
@@ -46009,7 +46006,7 @@
       </c>
     </row>
     <row r="325" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A325" s="209"/>
+      <c r="A325" s="270"/>
       <c r="B325" s="36" t="s">
         <v>56</v>
       </c>
@@ -46170,7 +46167,7 @@
       </c>
     </row>
     <row r="326" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A326" s="209"/>
+      <c r="A326" s="270"/>
       <c r="B326" s="36" t="s">
         <v>57</v>
       </c>
@@ -46331,7 +46328,7 @@
       </c>
     </row>
     <row r="327" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A327" s="209"/>
+      <c r="A327" s="270"/>
       <c r="B327" s="36" t="s">
         <v>58</v>
       </c>
@@ -46494,7 +46491,7 @@
       </c>
     </row>
     <row r="328" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A328" s="209"/>
+      <c r="A328" s="270"/>
       <c r="B328" s="36" t="s">
         <v>59</v>
       </c>
@@ -46655,7 +46652,7 @@
       </c>
     </row>
     <row r="329" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A329" s="209"/>
+      <c r="A329" s="270"/>
       <c r="B329" s="59" t="s">
         <v>60</v>
       </c>
@@ -46724,7 +46721,7 @@
       </c>
     </row>
     <row r="330" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="211"/>
+      <c r="A330" s="271"/>
       <c r="B330" s="96" t="s">
         <v>61</v>
       </c>
@@ -46792,7 +46789,7 @@
       <c r="BJ330" s="35"/>
     </row>
     <row r="331" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A331" s="208" t="s">
+      <c r="A331" s="269" t="s">
         <v>107</v>
       </c>
       <c r="B331" s="24" t="s">
@@ -46955,7 +46952,7 @@
       </c>
     </row>
     <row r="332" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A332" s="209"/>
+      <c r="A332" s="270"/>
       <c r="B332" s="36" t="s">
         <v>56</v>
       </c>
@@ -47116,7 +47113,7 @@
       </c>
     </row>
     <row r="333" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A333" s="209"/>
+      <c r="A333" s="270"/>
       <c r="B333" s="36" t="s">
         <v>57</v>
       </c>
@@ -47277,7 +47274,7 @@
       </c>
     </row>
     <row r="334" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A334" s="209"/>
+      <c r="A334" s="270"/>
       <c r="B334" s="36" t="s">
         <v>58</v>
       </c>
@@ -47440,7 +47437,7 @@
       </c>
     </row>
     <row r="335" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A335" s="209"/>
+      <c r="A335" s="270"/>
       <c r="B335" s="36" t="s">
         <v>59</v>
       </c>
@@ -47601,7 +47598,7 @@
       </c>
     </row>
     <row r="336" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A336" s="209"/>
+      <c r="A336" s="270"/>
       <c r="B336" s="59" t="s">
         <v>60</v>
       </c>
@@ -47670,7 +47667,7 @@
       </c>
     </row>
     <row r="337" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="211"/>
+      <c r="A337" s="271"/>
       <c r="B337" s="96" t="s">
         <v>61</v>
       </c>
@@ -47738,7 +47735,7 @@
       <c r="BJ337" s="35"/>
     </row>
     <row r="338" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A338" s="214" t="s">
+      <c r="A338" s="306" t="s">
         <v>108</v>
       </c>
       <c r="B338" s="24" t="s">
@@ -47903,7 +47900,7 @@
       </c>
     </row>
     <row r="339" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A339" s="215"/>
+      <c r="A339" s="307"/>
       <c r="B339" s="36" t="s">
         <v>56</v>
       </c>
@@ -48066,7 +48063,7 @@
       </c>
     </row>
     <row r="340" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A340" s="215"/>
+      <c r="A340" s="307"/>
       <c r="B340" s="36" t="s">
         <v>57</v>
       </c>
@@ -48229,7 +48226,7 @@
       </c>
     </row>
     <row r="341" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A341" s="215"/>
+      <c r="A341" s="307"/>
       <c r="B341" s="36" t="s">
         <v>58</v>
       </c>
@@ -48392,7 +48389,7 @@
       </c>
     </row>
     <row r="342" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A342" s="215"/>
+      <c r="A342" s="307"/>
       <c r="B342" s="36" t="s">
         <v>59</v>
       </c>
@@ -48557,7 +48554,7 @@
       </c>
     </row>
     <row r="343" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A343" s="215"/>
+      <c r="A343" s="307"/>
       <c r="B343" s="36" t="s">
         <v>60</v>
       </c>
@@ -48710,7 +48707,7 @@
       </c>
     </row>
     <row r="344" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="216"/>
+      <c r="A344" s="308"/>
       <c r="B344" s="96" t="s">
         <v>61</v>
       </c>
@@ -48778,7 +48775,7 @@
       <c r="BJ344" s="35"/>
     </row>
     <row r="345" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="208" t="s">
+      <c r="A345" s="269" t="s">
         <v>109</v>
       </c>
       <c r="B345" s="24" t="s">
@@ -48943,7 +48940,7 @@
       </c>
     </row>
     <row r="346" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A346" s="209"/>
+      <c r="A346" s="270"/>
       <c r="B346" s="36" t="s">
         <v>56</v>
       </c>
@@ -49104,7 +49101,7 @@
       </c>
     </row>
     <row r="347" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A347" s="209"/>
+      <c r="A347" s="270"/>
       <c r="B347" s="36" t="s">
         <v>57</v>
       </c>
@@ -49265,7 +49262,7 @@
       </c>
     </row>
     <row r="348" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A348" s="209"/>
+      <c r="A348" s="270"/>
       <c r="B348" s="36" t="s">
         <v>58</v>
       </c>
@@ -49334,7 +49331,7 @@
       </c>
     </row>
     <row r="349" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A349" s="209"/>
+      <c r="A349" s="270"/>
       <c r="B349" s="36" t="s">
         <v>59</v>
       </c>
@@ -49495,7 +49492,7 @@
       </c>
     </row>
     <row r="350" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A350" s="209"/>
+      <c r="A350" s="270"/>
       <c r="B350" s="59" t="s">
         <v>60</v>
       </c>
@@ -49564,7 +49561,7 @@
       </c>
     </row>
     <row r="351" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="211"/>
+      <c r="A351" s="271"/>
       <c r="B351" s="96" t="s">
         <v>61</v>
       </c>
@@ -49632,7 +49629,7 @@
       <c r="BJ351" s="35"/>
     </row>
     <row r="352" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A352" s="208" t="s">
+      <c r="A352" s="269" t="s">
         <v>110</v>
       </c>
       <c r="B352" s="24" t="s">
@@ -49797,7 +49794,7 @@
       </c>
     </row>
     <row r="353" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A353" s="209"/>
+      <c r="A353" s="270"/>
       <c r="B353" s="36" t="s">
         <v>56</v>
       </c>
@@ -49956,7 +49953,7 @@
       </c>
     </row>
     <row r="354" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A354" s="209"/>
+      <c r="A354" s="270"/>
       <c r="B354" s="36" t="s">
         <v>57</v>
       </c>
@@ -50115,7 +50112,7 @@
       </c>
     </row>
     <row r="355" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A355" s="209"/>
+      <c r="A355" s="270"/>
       <c r="B355" s="36" t="s">
         <v>58</v>
       </c>
@@ -50276,7 +50273,7 @@
       </c>
     </row>
     <row r="356" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A356" s="209"/>
+      <c r="A356" s="270"/>
       <c r="B356" s="36" t="s">
         <v>59</v>
       </c>
@@ -50435,7 +50432,7 @@
       </c>
     </row>
     <row r="357" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A357" s="209"/>
+      <c r="A357" s="270"/>
       <c r="B357" s="59" t="s">
         <v>60</v>
       </c>
@@ -50504,7 +50501,7 @@
       </c>
     </row>
     <row r="358" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="211"/>
+      <c r="A358" s="271"/>
       <c r="B358" s="96" t="s">
         <v>61</v>
       </c>
@@ -50572,7 +50569,7 @@
       <c r="BJ358" s="35"/>
     </row>
     <row r="359" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="214" t="s">
+      <c r="A359" s="306" t="s">
         <v>111</v>
       </c>
       <c r="B359" s="24" t="s">
@@ -50735,7 +50732,7 @@
       </c>
     </row>
     <row r="360" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A360" s="215"/>
+      <c r="A360" s="307"/>
       <c r="B360" s="36" t="s">
         <v>56</v>
       </c>
@@ -50804,7 +50801,7 @@
       </c>
     </row>
     <row r="361" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A361" s="215"/>
+      <c r="A361" s="307"/>
       <c r="B361" s="36" t="s">
         <v>57</v>
       </c>
@@ -50965,7 +50962,7 @@
       </c>
     </row>
     <row r="362" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A362" s="215"/>
+      <c r="A362" s="307"/>
       <c r="B362" s="36" t="s">
         <v>58</v>
       </c>
@@ -51126,7 +51123,7 @@
       </c>
     </row>
     <row r="363" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A363" s="215"/>
+      <c r="A363" s="307"/>
       <c r="B363" s="36" t="s">
         <v>59</v>
       </c>
@@ -51289,7 +51286,7 @@
       </c>
     </row>
     <row r="364" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A364" s="215"/>
+      <c r="A364" s="307"/>
       <c r="B364" s="36" t="s">
         <v>60</v>
       </c>
@@ -51440,7 +51437,7 @@
       </c>
     </row>
     <row r="365" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="216"/>
+      <c r="A365" s="308"/>
       <c r="B365" s="96" t="s">
         <v>61</v>
       </c>
@@ -51508,7 +51505,7 @@
       <c r="BJ365" s="35"/>
     </row>
     <row r="366" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A366" s="208" t="s">
+      <c r="A366" s="269" t="s">
         <v>112</v>
       </c>
       <c r="B366" s="24" t="s">
@@ -51671,7 +51668,7 @@
       </c>
     </row>
     <row r="367" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A367" s="209"/>
+      <c r="A367" s="270"/>
       <c r="B367" s="36" t="s">
         <v>56</v>
       </c>
@@ -51832,7 +51829,7 @@
       </c>
     </row>
     <row r="368" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A368" s="209"/>
+      <c r="A368" s="270"/>
       <c r="B368" s="36" t="s">
         <v>57</v>
       </c>
@@ -51993,7 +51990,7 @@
       </c>
     </row>
     <row r="369" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A369" s="209"/>
+      <c r="A369" s="270"/>
       <c r="B369" s="36" t="s">
         <v>58</v>
       </c>
@@ -52156,7 +52153,7 @@
       </c>
     </row>
     <row r="370" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A370" s="209"/>
+      <c r="A370" s="270"/>
       <c r="B370" s="36" t="s">
         <v>59</v>
       </c>
@@ -52317,7 +52314,7 @@
       </c>
     </row>
     <row r="371" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A371" s="209"/>
+      <c r="A371" s="270"/>
       <c r="B371" s="59" t="s">
         <v>60</v>
       </c>
@@ -52386,7 +52383,7 @@
       </c>
     </row>
     <row r="372" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="211"/>
+      <c r="A372" s="271"/>
       <c r="B372" s="96" t="s">
         <v>61</v>
       </c>
@@ -52454,7 +52451,7 @@
       <c r="BJ372" s="35"/>
     </row>
     <row r="373" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A373" s="208" t="s">
+      <c r="A373" s="269" t="s">
         <v>54</v>
       </c>
       <c r="B373" s="24" t="s">
@@ -52617,7 +52614,7 @@
       </c>
     </row>
     <row r="374" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A374" s="209"/>
+      <c r="A374" s="270"/>
       <c r="B374" s="36" t="s">
         <v>56</v>
       </c>
@@ -52778,7 +52775,7 @@
       </c>
     </row>
     <row r="375" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A375" s="209"/>
+      <c r="A375" s="270"/>
       <c r="B375" s="36" t="s">
         <v>57</v>
       </c>
@@ -52939,7 +52936,7 @@
       </c>
     </row>
     <row r="376" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A376" s="209"/>
+      <c r="A376" s="270"/>
       <c r="B376" s="36" t="s">
         <v>58</v>
       </c>
@@ -53008,7 +53005,7 @@
       </c>
     </row>
     <row r="377" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A377" s="209"/>
+      <c r="A377" s="270"/>
       <c r="B377" s="36" t="s">
         <v>59</v>
       </c>
@@ -53077,7 +53074,7 @@
       </c>
     </row>
     <row r="378" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A378" s="209"/>
+      <c r="A378" s="270"/>
       <c r="B378" s="59" t="s">
         <v>60</v>
       </c>
@@ -53146,7 +53143,7 @@
       </c>
     </row>
     <row r="379" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="210"/>
+      <c r="A379" s="309"/>
       <c r="B379" s="96" t="s">
         <v>61</v>
       </c>
@@ -53214,8 +53211,8 @@
       <c r="BJ379" s="35"/>
     </row>
     <row r="380" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A380" s="208" t="s">
-        <v>122</v>
+      <c r="A380" s="269" t="s">
+        <v>62</v>
       </c>
       <c r="B380" s="86" t="s">
         <v>55</v>
@@ -53285,7 +53282,7 @@
       </c>
     </row>
     <row r="381" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A381" s="209"/>
+      <c r="A381" s="270"/>
       <c r="B381" s="36" t="s">
         <v>56</v>
       </c>
@@ -53444,7 +53441,7 @@
       </c>
     </row>
     <row r="382" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A382" s="209"/>
+      <c r="A382" s="270"/>
       <c r="B382" s="36" t="s">
         <v>57</v>
       </c>
@@ -53603,7 +53600,7 @@
       </c>
     </row>
     <row r="383" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="209"/>
+      <c r="A383" s="270"/>
       <c r="B383" s="78" t="s">
         <v>58</v>
       </c>
@@ -53672,7 +53669,7 @@
       </c>
     </row>
     <row r="384" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="209"/>
+      <c r="A384" s="270"/>
       <c r="B384" s="86" t="s">
         <v>59</v>
       </c>
@@ -53741,7 +53738,7 @@
       </c>
     </row>
     <row r="385" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A385" s="209"/>
+      <c r="A385" s="270"/>
       <c r="B385" s="59" t="s">
         <v>60</v>
       </c>
@@ -53810,7 +53807,7 @@
       </c>
     </row>
     <row r="386" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="211"/>
+      <c r="A386" s="271"/>
       <c r="B386" s="96" t="s">
         <v>61</v>
       </c>
@@ -53881,8 +53878,8 @@
       </c>
     </row>
     <row r="387" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A387" s="208" t="s">
-        <v>62</v>
+      <c r="A387" s="269" t="s">
+        <v>63</v>
       </c>
       <c r="B387" s="24" t="s">
         <v>55</v>
@@ -54058,7 +54055,7 @@
       </c>
     </row>
     <row r="388" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A388" s="209"/>
+      <c r="A388" s="270"/>
       <c r="B388" s="36" t="s">
         <v>56</v>
       </c>
@@ -54230,7 +54227,7 @@
       <c r="BJ388" s="35"/>
     </row>
     <row r="389" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A389" s="209"/>
+      <c r="A389" s="270"/>
       <c r="B389" s="36" t="s">
         <v>57</v>
       </c>
@@ -54299,7 +54296,7 @@
       </c>
     </row>
     <row r="390" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A390" s="209"/>
+      <c r="A390" s="270"/>
       <c r="B390" s="36" t="s">
         <v>58</v>
       </c>
@@ -54474,7 +54471,7 @@
       </c>
     </row>
     <row r="391" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A391" s="209"/>
+      <c r="A391" s="270"/>
       <c r="B391" s="36" t="s">
         <v>59</v>
       </c>
@@ -54647,7 +54644,7 @@
       </c>
     </row>
     <row r="392" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A392" s="209"/>
+      <c r="A392" s="270"/>
       <c r="B392" s="59" t="s">
         <v>60</v>
       </c>
@@ -54716,7 +54713,7 @@
       </c>
     </row>
     <row r="393" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="211"/>
+      <c r="A393" s="271"/>
       <c r="B393" s="96" t="s">
         <v>61</v>
       </c>
@@ -54883,11 +54880,11 @@
       <c r="AP395"/>
       <c r="AT395"/>
       <c r="AU395"/>
-      <c r="AY395" s="212">
+      <c r="AY395" s="310">
         <f>COUNTA(AY18:AY382)</f>
         <v>0</v>
       </c>
-      <c r="AZ395" s="212"/>
+      <c r="AZ395" s="310"/>
       <c r="BA395" s="185"/>
       <c r="BB395" s="185"/>
       <c r="BC395" s="185"/>
@@ -55193,222 +55190,222 @@
     </row>
     <row r="401" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5"/>
-      <c r="B401" s="213" t="s">
+      <c r="B401" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="C401" s="207">
+      <c r="C401" s="313">
         <f>SUM(C19:C383)</f>
         <v>193</v>
       </c>
-      <c r="D401" s="207">
+      <c r="D401" s="313">
         <f t="shared" ref="D401:T401" si="55">SUM(D19:D383)</f>
         <v>193</v>
       </c>
-      <c r="E401" s="207">
+      <c r="E401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="F401" s="207">
+      <c r="F401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="G401" s="207">
+      <c r="G401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="H401" s="207">
+      <c r="H401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="I401" s="207">
+      <c r="I401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="J401" s="207">
+      <c r="J401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="K401" s="207">
+      <c r="K401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="L401" s="207">
+      <c r="L401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="M401" s="207">
+      <c r="M401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="N401" s="207">
+      <c r="N401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="O401" s="207">
+      <c r="O401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="P401" s="207">
+      <c r="P401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="Q401" s="207">
+      <c r="Q401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="R401" s="207">
+      <c r="R401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="S401" s="207">
+      <c r="S401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="T401" s="207">
+      <c r="T401" s="313">
         <f t="shared" si="55"/>
         <v>193</v>
       </c>
-      <c r="V401" s="207">
+      <c r="V401" s="313">
         <f t="shared" ref="V401:AR401" si="56">SUM(V19:V383)</f>
         <v>193</v>
       </c>
-      <c r="W401" s="207">
+      <c r="W401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="X401" s="207">
+      <c r="X401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="Y401" s="207">
+      <c r="Y401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="Z401" s="207">
+      <c r="Z401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AA401" s="207">
+      <c r="AA401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AB401" s="207">
+      <c r="AB401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AC401" s="207">
+      <c r="AC401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AD401" s="207">
+      <c r="AD401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AE401" s="207">
+      <c r="AE401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AF401" s="207">
+      <c r="AF401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AG401" s="207">
+      <c r="AG401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AH401" s="207">
+      <c r="AH401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AI401" s="207">
+      <c r="AI401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AJ401" s="207">
+      <c r="AJ401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AK401" s="207">
+      <c r="AK401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AL401" s="207">
+      <c r="AL401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AM401" s="207">
+      <c r="AM401" s="313">
         <f t="shared" si="56"/>
         <v>193</v>
       </c>
-      <c r="AN401" s="207">
+      <c r="AN401" s="313">
         <f t="shared" si="56"/>
         <v>220</v>
       </c>
-      <c r="AO401" s="207">
+      <c r="AO401" s="313">
         <f t="shared" si="56"/>
         <v>220</v>
       </c>
-      <c r="AP401" s="207">
+      <c r="AP401" s="313">
         <f t="shared" si="56"/>
         <v>220</v>
       </c>
-      <c r="AQ401" s="207">
+      <c r="AQ401" s="313">
         <f t="shared" si="56"/>
         <v>220</v>
       </c>
-      <c r="AR401" s="207">
+      <c r="AR401" s="313">
         <f t="shared" si="56"/>
         <v>220</v>
       </c>
-      <c r="AS401" s="203"/>
-      <c r="AT401" s="207">
+      <c r="AS401" s="316"/>
+      <c r="AT401" s="313">
         <f t="shared" ref="AT401:AU401" si="57">SUM(AT19:AT383)</f>
         <v>193</v>
       </c>
-      <c r="AU401" s="207">
+      <c r="AU401" s="313">
         <f t="shared" si="57"/>
         <v>193</v>
       </c>
       <c r="AV401" s="192"/>
       <c r="AW401" s="192"/>
       <c r="AX401" s="192"/>
-      <c r="AZ401" s="207">
+      <c r="AZ401" s="313">
         <f t="shared" ref="AZ401:BI401" si="58">SUM(AZ19:AZ383)</f>
         <v>220</v>
       </c>
-      <c r="BA401" s="207">
+      <c r="BA401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BB401" s="207">
+      <c r="BB401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BC401" s="207">
+      <c r="BC401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BD401" s="207">
+      <c r="BD401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BE401" s="207">
+      <c r="BE401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BF401" s="207">
+      <c r="BF401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BG401" s="207">
+      <c r="BG401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BH401" s="207">
+      <c r="BH401" s="313">
         <f t="shared" si="58"/>
         <v>220</v>
       </c>
-      <c r="BI401" s="207">
+      <c r="BI401" s="313">
         <f t="shared" si="58"/>
         <v>242</v>
       </c>
@@ -55416,345 +55413,345 @@
     </row>
     <row r="402" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A402" s="5"/>
-      <c r="B402" s="204"/>
-      <c r="C402" s="206"/>
-      <c r="D402" s="206"/>
-      <c r="E402" s="206"/>
-      <c r="F402" s="206"/>
-      <c r="G402" s="206"/>
-      <c r="H402" s="206"/>
-      <c r="I402" s="206"/>
-      <c r="J402" s="206"/>
-      <c r="K402" s="206"/>
-      <c r="L402" s="206"/>
-      <c r="M402" s="206"/>
-      <c r="N402" s="206"/>
-      <c r="O402" s="206"/>
-      <c r="P402" s="206"/>
-      <c r="Q402" s="206"/>
-      <c r="R402" s="206"/>
-      <c r="S402" s="206"/>
-      <c r="T402" s="206"/>
-      <c r="V402" s="206"/>
-      <c r="W402" s="206"/>
-      <c r="X402" s="206"/>
-      <c r="Y402" s="206"/>
-      <c r="Z402" s="206"/>
-      <c r="AA402" s="206"/>
-      <c r="AB402" s="206"/>
-      <c r="AC402" s="206"/>
-      <c r="AD402" s="206"/>
-      <c r="AE402" s="206"/>
-      <c r="AF402" s="206"/>
-      <c r="AG402" s="206"/>
-      <c r="AH402" s="206"/>
-      <c r="AI402" s="206"/>
-      <c r="AJ402" s="206"/>
-      <c r="AK402" s="206"/>
-      <c r="AL402" s="206"/>
-      <c r="AM402" s="206"/>
-      <c r="AN402" s="206"/>
-      <c r="AO402" s="206"/>
-      <c r="AP402" s="206"/>
-      <c r="AQ402" s="206"/>
-      <c r="AR402" s="206"/>
-      <c r="AS402" s="203"/>
-      <c r="AT402" s="206"/>
-      <c r="AU402" s="206"/>
+      <c r="B402" s="312"/>
+      <c r="C402" s="314"/>
+      <c r="D402" s="314"/>
+      <c r="E402" s="314"/>
+      <c r="F402" s="314"/>
+      <c r="G402" s="314"/>
+      <c r="H402" s="314"/>
+      <c r="I402" s="314"/>
+      <c r="J402" s="314"/>
+      <c r="K402" s="314"/>
+      <c r="L402" s="314"/>
+      <c r="M402" s="314"/>
+      <c r="N402" s="314"/>
+      <c r="O402" s="314"/>
+      <c r="P402" s="314"/>
+      <c r="Q402" s="314"/>
+      <c r="R402" s="314"/>
+      <c r="S402" s="314"/>
+      <c r="T402" s="314"/>
+      <c r="V402" s="314"/>
+      <c r="W402" s="314"/>
+      <c r="X402" s="314"/>
+      <c r="Y402" s="314"/>
+      <c r="Z402" s="314"/>
+      <c r="AA402" s="314"/>
+      <c r="AB402" s="314"/>
+      <c r="AC402" s="314"/>
+      <c r="AD402" s="314"/>
+      <c r="AE402" s="314"/>
+      <c r="AF402" s="314"/>
+      <c r="AG402" s="314"/>
+      <c r="AH402" s="314"/>
+      <c r="AI402" s="314"/>
+      <c r="AJ402" s="314"/>
+      <c r="AK402" s="314"/>
+      <c r="AL402" s="314"/>
+      <c r="AM402" s="314"/>
+      <c r="AN402" s="314"/>
+      <c r="AO402" s="314"/>
+      <c r="AP402" s="314"/>
+      <c r="AQ402" s="314"/>
+      <c r="AR402" s="314"/>
+      <c r="AS402" s="316"/>
+      <c r="AT402" s="314"/>
+      <c r="AU402" s="314"/>
       <c r="AV402" s="192"/>
       <c r="AW402" s="192"/>
       <c r="AX402" s="192"/>
-      <c r="AZ402" s="206"/>
-      <c r="BA402" s="206"/>
-      <c r="BB402" s="206"/>
-      <c r="BC402" s="206"/>
-      <c r="BD402" s="206"/>
-      <c r="BE402" s="206"/>
-      <c r="BF402" s="206"/>
-      <c r="BG402" s="206"/>
-      <c r="BH402" s="206"/>
-      <c r="BI402" s="206"/>
+      <c r="AZ402" s="314"/>
+      <c r="BA402" s="314"/>
+      <c r="BB402" s="314"/>
+      <c r="BC402" s="314"/>
+      <c r="BD402" s="314"/>
+      <c r="BE402" s="314"/>
+      <c r="BF402" s="314"/>
+      <c r="BG402" s="314"/>
+      <c r="BH402" s="314"/>
+      <c r="BI402" s="314"/>
       <c r="BJ402"/>
     </row>
     <row r="403" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A403" s="5"/>
-      <c r="B403" s="204"/>
-      <c r="C403" s="206"/>
-      <c r="D403" s="206"/>
-      <c r="E403" s="206"/>
-      <c r="F403" s="206"/>
-      <c r="G403" s="206"/>
-      <c r="H403" s="206"/>
-      <c r="I403" s="206"/>
-      <c r="J403" s="206"/>
-      <c r="K403" s="206"/>
-      <c r="L403" s="206"/>
-      <c r="M403" s="206"/>
-      <c r="N403" s="206"/>
-      <c r="O403" s="206"/>
-      <c r="P403" s="206"/>
-      <c r="Q403" s="206"/>
-      <c r="R403" s="206"/>
-      <c r="S403" s="206"/>
-      <c r="T403" s="206"/>
-      <c r="V403" s="206"/>
-      <c r="W403" s="206"/>
-      <c r="X403" s="206"/>
-      <c r="Y403" s="206"/>
-      <c r="Z403" s="206"/>
-      <c r="AA403" s="206"/>
-      <c r="AB403" s="206"/>
-      <c r="AC403" s="206"/>
-      <c r="AD403" s="206"/>
-      <c r="AE403" s="206"/>
-      <c r="AF403" s="206"/>
-      <c r="AG403" s="206"/>
-      <c r="AH403" s="206"/>
-      <c r="AI403" s="206"/>
-      <c r="AJ403" s="206"/>
-      <c r="AK403" s="206"/>
-      <c r="AL403" s="206"/>
-      <c r="AM403" s="206"/>
-      <c r="AN403" s="206"/>
-      <c r="AO403" s="206"/>
-      <c r="AP403" s="206"/>
-      <c r="AQ403" s="206"/>
-      <c r="AR403" s="206"/>
-      <c r="AS403" s="203"/>
-      <c r="AT403" s="206"/>
-      <c r="AU403" s="206"/>
+      <c r="B403" s="312"/>
+      <c r="C403" s="314"/>
+      <c r="D403" s="314"/>
+      <c r="E403" s="314"/>
+      <c r="F403" s="314"/>
+      <c r="G403" s="314"/>
+      <c r="H403" s="314"/>
+      <c r="I403" s="314"/>
+      <c r="J403" s="314"/>
+      <c r="K403" s="314"/>
+      <c r="L403" s="314"/>
+      <c r="M403" s="314"/>
+      <c r="N403" s="314"/>
+      <c r="O403" s="314"/>
+      <c r="P403" s="314"/>
+      <c r="Q403" s="314"/>
+      <c r="R403" s="314"/>
+      <c r="S403" s="314"/>
+      <c r="T403" s="314"/>
+      <c r="V403" s="314"/>
+      <c r="W403" s="314"/>
+      <c r="X403" s="314"/>
+      <c r="Y403" s="314"/>
+      <c r="Z403" s="314"/>
+      <c r="AA403" s="314"/>
+      <c r="AB403" s="314"/>
+      <c r="AC403" s="314"/>
+      <c r="AD403" s="314"/>
+      <c r="AE403" s="314"/>
+      <c r="AF403" s="314"/>
+      <c r="AG403" s="314"/>
+      <c r="AH403" s="314"/>
+      <c r="AI403" s="314"/>
+      <c r="AJ403" s="314"/>
+      <c r="AK403" s="314"/>
+      <c r="AL403" s="314"/>
+      <c r="AM403" s="314"/>
+      <c r="AN403" s="314"/>
+      <c r="AO403" s="314"/>
+      <c r="AP403" s="314"/>
+      <c r="AQ403" s="314"/>
+      <c r="AR403" s="314"/>
+      <c r="AS403" s="316"/>
+      <c r="AT403" s="314"/>
+      <c r="AU403" s="314"/>
       <c r="AV403" s="192"/>
       <c r="AW403" s="192"/>
       <c r="AX403" s="192"/>
-      <c r="AZ403" s="206"/>
-      <c r="BA403" s="206"/>
-      <c r="BB403" s="206"/>
-      <c r="BC403" s="206"/>
-      <c r="BD403" s="206"/>
-      <c r="BE403" s="206"/>
-      <c r="BF403" s="206"/>
-      <c r="BG403" s="206"/>
-      <c r="BH403" s="206"/>
-      <c r="BI403" s="206"/>
+      <c r="AZ403" s="314"/>
+      <c r="BA403" s="314"/>
+      <c r="BB403" s="314"/>
+      <c r="BC403" s="314"/>
+      <c r="BD403" s="314"/>
+      <c r="BE403" s="314"/>
+      <c r="BF403" s="314"/>
+      <c r="BG403" s="314"/>
+      <c r="BH403" s="314"/>
+      <c r="BI403" s="314"/>
       <c r="BJ403"/>
     </row>
     <row r="404" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="5"/>
-      <c r="B404" s="204" t="s">
+      <c r="B404" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="C404" s="202">
+      <c r="C404" s="315">
         <f>+C401-2</f>
         <v>191</v>
       </c>
-      <c r="D404" s="202">
+      <c r="D404" s="315">
         <f t="shared" ref="D404:T404" si="59">+D401-2</f>
         <v>191</v>
       </c>
-      <c r="E404" s="202">
+      <c r="E404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="F404" s="202">
+      <c r="F404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="G404" s="202">
+      <c r="G404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="H404" s="202">
+      <c r="H404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="I404" s="202">
+      <c r="I404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="J404" s="202">
+      <c r="J404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="K404" s="202">
+      <c r="K404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="L404" s="202">
+      <c r="L404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="M404" s="202">
+      <c r="M404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="N404" s="202">
+      <c r="N404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="O404" s="202">
+      <c r="O404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="P404" s="202">
+      <c r="P404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="Q404" s="202">
+      <c r="Q404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="R404" s="202">
+      <c r="R404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="S404" s="202">
+      <c r="S404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="T404" s="202">
+      <c r="T404" s="315">
         <f t="shared" si="59"/>
         <v>191</v>
       </c>
-      <c r="V404" s="202">
+      <c r="V404" s="315">
         <f t="shared" ref="V404:AR404" si="60">+V401-2</f>
         <v>191</v>
       </c>
-      <c r="W404" s="202">
+      <c r="W404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="X404" s="202">
+      <c r="X404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="Y404" s="202">
+      <c r="Y404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="Z404" s="202">
+      <c r="Z404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AA404" s="202">
+      <c r="AA404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AB404" s="202">
+      <c r="AB404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AC404" s="202">
+      <c r="AC404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AD404" s="202">
+      <c r="AD404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AE404" s="202">
+      <c r="AE404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AF404" s="202">
+      <c r="AF404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AG404" s="202">
+      <c r="AG404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AH404" s="202">
+      <c r="AH404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AI404" s="202">
+      <c r="AI404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AJ404" s="202">
+      <c r="AJ404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AK404" s="202">
+      <c r="AK404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AL404" s="202">
+      <c r="AL404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AM404" s="202">
+      <c r="AM404" s="315">
         <f t="shared" si="60"/>
         <v>191</v>
       </c>
-      <c r="AN404" s="202">
+      <c r="AN404" s="315">
         <f t="shared" si="60"/>
         <v>218</v>
       </c>
-      <c r="AO404" s="202">
+      <c r="AO404" s="315">
         <f t="shared" si="60"/>
         <v>218</v>
       </c>
-      <c r="AP404" s="202">
+      <c r="AP404" s="315">
         <f t="shared" si="60"/>
         <v>218</v>
       </c>
-      <c r="AQ404" s="202">
+      <c r="AQ404" s="315">
         <f t="shared" si="60"/>
         <v>218</v>
       </c>
-      <c r="AR404" s="202">
+      <c r="AR404" s="315">
         <f t="shared" si="60"/>
         <v>218</v>
       </c>
-      <c r="AT404" s="202">
+      <c r="AT404" s="315">
         <f t="shared" ref="AT404:AU404" si="61">+AT401-2</f>
         <v>191</v>
       </c>
-      <c r="AU404" s="202">
+      <c r="AU404" s="315">
         <f t="shared" si="61"/>
         <v>191</v>
       </c>
       <c r="AV404" s="192"/>
       <c r="AW404" s="192"/>
       <c r="AX404" s="192"/>
-      <c r="AZ404" s="202">
+      <c r="AZ404" s="315">
         <f t="shared" ref="AZ404:BH404" si="62">+AZ401-2</f>
         <v>218</v>
       </c>
-      <c r="BA404" s="202">
+      <c r="BA404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BB404" s="202">
+      <c r="BB404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BC404" s="202">
+      <c r="BC404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BD404" s="202">
+      <c r="BD404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BE404" s="202">
+      <c r="BE404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BF404" s="202">
+      <c r="BF404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BG404" s="202">
+      <c r="BG404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BH404" s="202">
+      <c r="BH404" s="315">
         <f t="shared" si="62"/>
         <v>218</v>
       </c>
-      <c r="BI404" s="202">
+      <c r="BI404" s="315">
         <f>+BI401-2-22</f>
         <v>218</v>
       </c>
@@ -55762,343 +55759,343 @@
     </row>
     <row r="405" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A405" s="5"/>
-      <c r="B405" s="204"/>
-      <c r="C405" s="206"/>
-      <c r="D405" s="206"/>
-      <c r="E405" s="206"/>
-      <c r="F405" s="206"/>
-      <c r="G405" s="206"/>
-      <c r="H405" s="206"/>
-      <c r="I405" s="206"/>
-      <c r="J405" s="206"/>
-      <c r="K405" s="206"/>
-      <c r="L405" s="206"/>
-      <c r="M405" s="206"/>
-      <c r="N405" s="206"/>
-      <c r="O405" s="206"/>
-      <c r="P405" s="206"/>
-      <c r="Q405" s="206"/>
-      <c r="R405" s="206"/>
-      <c r="S405" s="206"/>
-      <c r="T405" s="206"/>
-      <c r="V405" s="206"/>
-      <c r="W405" s="206"/>
-      <c r="X405" s="206"/>
-      <c r="Y405" s="206"/>
-      <c r="Z405" s="206"/>
-      <c r="AA405" s="206"/>
-      <c r="AB405" s="206"/>
-      <c r="AC405" s="206"/>
-      <c r="AD405" s="206"/>
-      <c r="AE405" s="206"/>
-      <c r="AF405" s="206"/>
-      <c r="AG405" s="206"/>
-      <c r="AH405" s="206"/>
-      <c r="AI405" s="206"/>
-      <c r="AJ405" s="206"/>
-      <c r="AK405" s="206"/>
-      <c r="AL405" s="206"/>
-      <c r="AM405" s="206"/>
-      <c r="AN405" s="206"/>
-      <c r="AO405" s="206"/>
-      <c r="AP405" s="206"/>
-      <c r="AQ405" s="206"/>
-      <c r="AR405" s="206"/>
-      <c r="AT405" s="206"/>
-      <c r="AU405" s="206"/>
+      <c r="B405" s="312"/>
+      <c r="C405" s="314"/>
+      <c r="D405" s="314"/>
+      <c r="E405" s="314"/>
+      <c r="F405" s="314"/>
+      <c r="G405" s="314"/>
+      <c r="H405" s="314"/>
+      <c r="I405" s="314"/>
+      <c r="J405" s="314"/>
+      <c r="K405" s="314"/>
+      <c r="L405" s="314"/>
+      <c r="M405" s="314"/>
+      <c r="N405" s="314"/>
+      <c r="O405" s="314"/>
+      <c r="P405" s="314"/>
+      <c r="Q405" s="314"/>
+      <c r="R405" s="314"/>
+      <c r="S405" s="314"/>
+      <c r="T405" s="314"/>
+      <c r="V405" s="314"/>
+      <c r="W405" s="314"/>
+      <c r="X405" s="314"/>
+      <c r="Y405" s="314"/>
+      <c r="Z405" s="314"/>
+      <c r="AA405" s="314"/>
+      <c r="AB405" s="314"/>
+      <c r="AC405" s="314"/>
+      <c r="AD405" s="314"/>
+      <c r="AE405" s="314"/>
+      <c r="AF405" s="314"/>
+      <c r="AG405" s="314"/>
+      <c r="AH405" s="314"/>
+      <c r="AI405" s="314"/>
+      <c r="AJ405" s="314"/>
+      <c r="AK405" s="314"/>
+      <c r="AL405" s="314"/>
+      <c r="AM405" s="314"/>
+      <c r="AN405" s="314"/>
+      <c r="AO405" s="314"/>
+      <c r="AP405" s="314"/>
+      <c r="AQ405" s="314"/>
+      <c r="AR405" s="314"/>
+      <c r="AT405" s="314"/>
+      <c r="AU405" s="314"/>
       <c r="AV405" s="192"/>
       <c r="AW405" s="192"/>
       <c r="AX405" s="192"/>
-      <c r="AZ405" s="206"/>
-      <c r="BA405" s="206"/>
-      <c r="BB405" s="206"/>
-      <c r="BC405" s="206"/>
-      <c r="BD405" s="206"/>
-      <c r="BE405" s="206"/>
-      <c r="BF405" s="206"/>
-      <c r="BG405" s="206"/>
-      <c r="BH405" s="206"/>
-      <c r="BI405" s="206"/>
+      <c r="AZ405" s="314"/>
+      <c r="BA405" s="314"/>
+      <c r="BB405" s="314"/>
+      <c r="BC405" s="314"/>
+      <c r="BD405" s="314"/>
+      <c r="BE405" s="314"/>
+      <c r="BF405" s="314"/>
+      <c r="BG405" s="314"/>
+      <c r="BH405" s="314"/>
+      <c r="BI405" s="314"/>
       <c r="BJ405"/>
     </row>
     <row r="406" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A406" s="5"/>
-      <c r="B406" s="204"/>
-      <c r="C406" s="206"/>
-      <c r="D406" s="206"/>
-      <c r="E406" s="206"/>
-      <c r="F406" s="206"/>
-      <c r="G406" s="206"/>
-      <c r="H406" s="206"/>
-      <c r="I406" s="206"/>
-      <c r="J406" s="206"/>
-      <c r="K406" s="206"/>
-      <c r="L406" s="206"/>
-      <c r="M406" s="206"/>
-      <c r="N406" s="206"/>
-      <c r="O406" s="206"/>
-      <c r="P406" s="206"/>
-      <c r="Q406" s="206"/>
-      <c r="R406" s="206"/>
-      <c r="S406" s="206"/>
-      <c r="T406" s="206"/>
-      <c r="V406" s="206"/>
-      <c r="W406" s="206"/>
-      <c r="X406" s="206"/>
-      <c r="Y406" s="206"/>
-      <c r="Z406" s="206"/>
-      <c r="AA406" s="206"/>
-      <c r="AB406" s="206"/>
-      <c r="AC406" s="206"/>
-      <c r="AD406" s="206"/>
-      <c r="AE406" s="206"/>
-      <c r="AF406" s="206"/>
-      <c r="AG406" s="206"/>
-      <c r="AH406" s="206"/>
-      <c r="AI406" s="206"/>
-      <c r="AJ406" s="206"/>
-      <c r="AK406" s="206"/>
-      <c r="AL406" s="206"/>
-      <c r="AM406" s="206"/>
-      <c r="AN406" s="206"/>
-      <c r="AO406" s="206"/>
-      <c r="AP406" s="206"/>
-      <c r="AQ406" s="206"/>
-      <c r="AR406" s="206"/>
-      <c r="AT406" s="206"/>
-      <c r="AU406" s="206"/>
+      <c r="B406" s="312"/>
+      <c r="C406" s="314"/>
+      <c r="D406" s="314"/>
+      <c r="E406" s="314"/>
+      <c r="F406" s="314"/>
+      <c r="G406" s="314"/>
+      <c r="H406" s="314"/>
+      <c r="I406" s="314"/>
+      <c r="J406" s="314"/>
+      <c r="K406" s="314"/>
+      <c r="L406" s="314"/>
+      <c r="M406" s="314"/>
+      <c r="N406" s="314"/>
+      <c r="O406" s="314"/>
+      <c r="P406" s="314"/>
+      <c r="Q406" s="314"/>
+      <c r="R406" s="314"/>
+      <c r="S406" s="314"/>
+      <c r="T406" s="314"/>
+      <c r="V406" s="314"/>
+      <c r="W406" s="314"/>
+      <c r="X406" s="314"/>
+      <c r="Y406" s="314"/>
+      <c r="Z406" s="314"/>
+      <c r="AA406" s="314"/>
+      <c r="AB406" s="314"/>
+      <c r="AC406" s="314"/>
+      <c r="AD406" s="314"/>
+      <c r="AE406" s="314"/>
+      <c r="AF406" s="314"/>
+      <c r="AG406" s="314"/>
+      <c r="AH406" s="314"/>
+      <c r="AI406" s="314"/>
+      <c r="AJ406" s="314"/>
+      <c r="AK406" s="314"/>
+      <c r="AL406" s="314"/>
+      <c r="AM406" s="314"/>
+      <c r="AN406" s="314"/>
+      <c r="AO406" s="314"/>
+      <c r="AP406" s="314"/>
+      <c r="AQ406" s="314"/>
+      <c r="AR406" s="314"/>
+      <c r="AT406" s="314"/>
+      <c r="AU406" s="314"/>
       <c r="AV406" s="192"/>
       <c r="AW406" s="192"/>
       <c r="AX406" s="192"/>
-      <c r="AZ406" s="206"/>
-      <c r="BA406" s="206"/>
-      <c r="BB406" s="206"/>
-      <c r="BC406" s="206"/>
-      <c r="BD406" s="206"/>
-      <c r="BE406" s="206"/>
-      <c r="BF406" s="206"/>
-      <c r="BG406" s="206"/>
-      <c r="BH406" s="206"/>
-      <c r="BI406" s="206"/>
+      <c r="AZ406" s="314"/>
+      <c r="BA406" s="314"/>
+      <c r="BB406" s="314"/>
+      <c r="BC406" s="314"/>
+      <c r="BD406" s="314"/>
+      <c r="BE406" s="314"/>
+      <c r="BF406" s="314"/>
+      <c r="BG406" s="314"/>
+      <c r="BH406" s="314"/>
+      <c r="BI406" s="314"/>
       <c r="BJ406"/>
     </row>
     <row r="407" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="5"/>
-      <c r="B407" s="204" t="s">
+      <c r="B407" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="C407" s="202">
+      <c r="C407" s="315">
         <f>+C404*9.17</f>
         <v>1751.47</v>
       </c>
-      <c r="D407" s="202">
+      <c r="D407" s="315">
         <f t="shared" ref="D407:T407" si="63">+D404*9.17</f>
         <v>1751.47</v>
       </c>
-      <c r="E407" s="202">
+      <c r="E407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="F407" s="202">
+      <c r="F407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="G407" s="202">
+      <c r="G407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="H407" s="202">
+      <c r="H407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="I407" s="202">
+      <c r="I407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="J407" s="202">
+      <c r="J407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="K407" s="202">
+      <c r="K407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="L407" s="202">
+      <c r="L407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="M407" s="202">
+      <c r="M407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="N407" s="202">
+      <c r="N407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="O407" s="202">
+      <c r="O407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="P407" s="202">
+      <c r="P407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="Q407" s="202">
+      <c r="Q407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="R407" s="202">
+      <c r="R407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="S407" s="202">
+      <c r="S407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="T407" s="202">
+      <c r="T407" s="315">
         <f t="shared" si="63"/>
         <v>1751.47</v>
       </c>
-      <c r="V407" s="202">
+      <c r="V407" s="315">
         <f t="shared" ref="V407:AM407" si="64">+V404*9.17</f>
         <v>1751.47</v>
       </c>
-      <c r="W407" s="202">
+      <c r="W407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="X407" s="202">
+      <c r="X407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="Y407" s="202">
+      <c r="Y407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="Z407" s="202">
+      <c r="Z407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AA407" s="202">
+      <c r="AA407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AB407" s="202">
+      <c r="AB407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AC407" s="202">
+      <c r="AC407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AD407" s="202">
+      <c r="AD407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AE407" s="202">
+      <c r="AE407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AF407" s="202">
+      <c r="AF407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AG407" s="202">
+      <c r="AG407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AH407" s="202">
+      <c r="AH407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AI407" s="202">
+      <c r="AI407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AJ407" s="202">
+      <c r="AJ407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AK407" s="202">
+      <c r="AK407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AL407" s="202">
+      <c r="AL407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AM407" s="202">
+      <c r="AM407" s="315">
         <f t="shared" si="64"/>
         <v>1751.47</v>
       </c>
-      <c r="AN407" s="202">
+      <c r="AN407" s="315">
         <f>+AN404*8</f>
         <v>1744</v>
       </c>
-      <c r="AO407" s="202">
+      <c r="AO407" s="315">
         <f>+AO404*8</f>
         <v>1744</v>
       </c>
-      <c r="AP407" s="202">
+      <c r="AP407" s="315">
         <f>+AP404*8</f>
         <v>1744</v>
       </c>
-      <c r="AQ407" s="202">
+      <c r="AQ407" s="315">
         <f>+AQ404*8</f>
         <v>1744</v>
       </c>
-      <c r="AR407" s="202">
+      <c r="AR407" s="315">
         <f>+AR404*8</f>
         <v>1744</v>
       </c>
-      <c r="AT407" s="202">
+      <c r="AT407" s="315">
         <f t="shared" ref="AT407:AU407" si="65">+AT404*9.17</f>
         <v>1751.47</v>
       </c>
-      <c r="AU407" s="202">
+      <c r="AU407" s="315">
         <f t="shared" si="65"/>
         <v>1751.47</v>
       </c>
       <c r="AV407" s="192"/>
       <c r="AW407" s="192"/>
       <c r="AX407" s="192"/>
-      <c r="AZ407" s="202">
+      <c r="AZ407" s="315">
         <f t="shared" ref="AZ407:BI407" si="66">+AZ404*8</f>
         <v>1744</v>
       </c>
-      <c r="BA407" s="202">
+      <c r="BA407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BB407" s="202">
+      <c r="BB407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BC407" s="202">
+      <c r="BC407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BD407" s="202">
+      <c r="BD407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BE407" s="202">
+      <c r="BE407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BF407" s="202">
+      <c r="BF407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BG407" s="202">
+      <c r="BG407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BH407" s="202">
+      <c r="BH407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
-      <c r="BI407" s="202">
+      <c r="BI407" s="315">
         <f t="shared" si="66"/>
         <v>1744</v>
       </c>
@@ -56106,124 +56103,124 @@
     </row>
     <row r="408" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A408" s="5"/>
-      <c r="B408" s="204"/>
-      <c r="C408" s="206"/>
-      <c r="D408" s="206"/>
-      <c r="E408" s="206"/>
-      <c r="F408" s="206"/>
-      <c r="G408" s="206"/>
-      <c r="H408" s="206"/>
-      <c r="I408" s="206"/>
-      <c r="J408" s="206"/>
-      <c r="K408" s="206"/>
-      <c r="L408" s="206"/>
-      <c r="M408" s="206"/>
-      <c r="N408" s="206"/>
-      <c r="O408" s="206"/>
-      <c r="P408" s="206"/>
-      <c r="Q408" s="206"/>
-      <c r="R408" s="206"/>
-      <c r="S408" s="206"/>
-      <c r="T408" s="206"/>
-      <c r="V408" s="206"/>
-      <c r="W408" s="206"/>
-      <c r="X408" s="206"/>
-      <c r="Y408" s="206"/>
-      <c r="Z408" s="206"/>
-      <c r="AA408" s="206"/>
-      <c r="AB408" s="206"/>
-      <c r="AC408" s="206"/>
-      <c r="AD408" s="206"/>
-      <c r="AE408" s="206"/>
-      <c r="AF408" s="206"/>
-      <c r="AG408" s="206"/>
-      <c r="AH408" s="206"/>
-      <c r="AI408" s="206"/>
-      <c r="AJ408" s="206"/>
-      <c r="AK408" s="206"/>
-      <c r="AL408" s="206"/>
-      <c r="AM408" s="206"/>
-      <c r="AN408" s="206"/>
-      <c r="AO408" s="206"/>
-      <c r="AP408" s="206"/>
-      <c r="AQ408" s="206"/>
-      <c r="AR408" s="206"/>
-      <c r="AT408" s="206"/>
-      <c r="AU408" s="206"/>
+      <c r="B408" s="312"/>
+      <c r="C408" s="314"/>
+      <c r="D408" s="314"/>
+      <c r="E408" s="314"/>
+      <c r="F408" s="314"/>
+      <c r="G408" s="314"/>
+      <c r="H408" s="314"/>
+      <c r="I408" s="314"/>
+      <c r="J408" s="314"/>
+      <c r="K408" s="314"/>
+      <c r="L408" s="314"/>
+      <c r="M408" s="314"/>
+      <c r="N408" s="314"/>
+      <c r="O408" s="314"/>
+      <c r="P408" s="314"/>
+      <c r="Q408" s="314"/>
+      <c r="R408" s="314"/>
+      <c r="S408" s="314"/>
+      <c r="T408" s="314"/>
+      <c r="V408" s="314"/>
+      <c r="W408" s="314"/>
+      <c r="X408" s="314"/>
+      <c r="Y408" s="314"/>
+      <c r="Z408" s="314"/>
+      <c r="AA408" s="314"/>
+      <c r="AB408" s="314"/>
+      <c r="AC408" s="314"/>
+      <c r="AD408" s="314"/>
+      <c r="AE408" s="314"/>
+      <c r="AF408" s="314"/>
+      <c r="AG408" s="314"/>
+      <c r="AH408" s="314"/>
+      <c r="AI408" s="314"/>
+      <c r="AJ408" s="314"/>
+      <c r="AK408" s="314"/>
+      <c r="AL408" s="314"/>
+      <c r="AM408" s="314"/>
+      <c r="AN408" s="314"/>
+      <c r="AO408" s="314"/>
+      <c r="AP408" s="314"/>
+      <c r="AQ408" s="314"/>
+      <c r="AR408" s="314"/>
+      <c r="AT408" s="314"/>
+      <c r="AU408" s="314"/>
       <c r="AV408" s="192"/>
       <c r="AW408" s="192"/>
       <c r="AX408" s="192"/>
-      <c r="AZ408" s="206"/>
-      <c r="BA408" s="206"/>
-      <c r="BB408" s="206"/>
-      <c r="BC408" s="206"/>
-      <c r="BD408" s="206"/>
-      <c r="BE408" s="206"/>
-      <c r="BF408" s="206"/>
-      <c r="BG408" s="206"/>
-      <c r="BH408" s="206"/>
-      <c r="BI408" s="206"/>
+      <c r="AZ408" s="314"/>
+      <c r="BA408" s="314"/>
+      <c r="BB408" s="314"/>
+      <c r="BC408" s="314"/>
+      <c r="BD408" s="314"/>
+      <c r="BE408" s="314"/>
+      <c r="BF408" s="314"/>
+      <c r="BG408" s="314"/>
+      <c r="BH408" s="314"/>
+      <c r="BI408" s="314"/>
       <c r="BJ408"/>
     </row>
     <row r="409" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A409" s="5"/>
-      <c r="B409" s="204"/>
-      <c r="C409" s="206"/>
-      <c r="D409" s="206"/>
-      <c r="E409" s="206"/>
-      <c r="F409" s="206"/>
-      <c r="G409" s="206"/>
-      <c r="H409" s="206"/>
-      <c r="I409" s="206"/>
-      <c r="J409" s="206"/>
-      <c r="K409" s="206"/>
-      <c r="L409" s="206"/>
-      <c r="M409" s="206"/>
-      <c r="N409" s="206"/>
-      <c r="O409" s="206"/>
-      <c r="P409" s="206"/>
-      <c r="Q409" s="206"/>
-      <c r="R409" s="206"/>
-      <c r="S409" s="206"/>
-      <c r="T409" s="206"/>
-      <c r="V409" s="206"/>
-      <c r="W409" s="206"/>
-      <c r="X409" s="206"/>
-      <c r="Y409" s="206"/>
-      <c r="Z409" s="206"/>
-      <c r="AA409" s="206"/>
-      <c r="AB409" s="206"/>
-      <c r="AC409" s="206"/>
-      <c r="AD409" s="206"/>
-      <c r="AE409" s="206"/>
-      <c r="AF409" s="206"/>
-      <c r="AG409" s="206"/>
-      <c r="AH409" s="206"/>
-      <c r="AI409" s="206"/>
-      <c r="AJ409" s="206"/>
-      <c r="AK409" s="206"/>
-      <c r="AL409" s="206"/>
-      <c r="AM409" s="206"/>
-      <c r="AN409" s="206"/>
-      <c r="AO409" s="206"/>
-      <c r="AP409" s="206"/>
-      <c r="AQ409" s="206"/>
-      <c r="AR409" s="206"/>
-      <c r="AT409" s="206"/>
-      <c r="AU409" s="206"/>
+      <c r="B409" s="312"/>
+      <c r="C409" s="314"/>
+      <c r="D409" s="314"/>
+      <c r="E409" s="314"/>
+      <c r="F409" s="314"/>
+      <c r="G409" s="314"/>
+      <c r="H409" s="314"/>
+      <c r="I409" s="314"/>
+      <c r="J409" s="314"/>
+      <c r="K409" s="314"/>
+      <c r="L409" s="314"/>
+      <c r="M409" s="314"/>
+      <c r="N409" s="314"/>
+      <c r="O409" s="314"/>
+      <c r="P409" s="314"/>
+      <c r="Q409" s="314"/>
+      <c r="R409" s="314"/>
+      <c r="S409" s="314"/>
+      <c r="T409" s="314"/>
+      <c r="V409" s="314"/>
+      <c r="W409" s="314"/>
+      <c r="X409" s="314"/>
+      <c r="Y409" s="314"/>
+      <c r="Z409" s="314"/>
+      <c r="AA409" s="314"/>
+      <c r="AB409" s="314"/>
+      <c r="AC409" s="314"/>
+      <c r="AD409" s="314"/>
+      <c r="AE409" s="314"/>
+      <c r="AF409" s="314"/>
+      <c r="AG409" s="314"/>
+      <c r="AH409" s="314"/>
+      <c r="AI409" s="314"/>
+      <c r="AJ409" s="314"/>
+      <c r="AK409" s="314"/>
+      <c r="AL409" s="314"/>
+      <c r="AM409" s="314"/>
+      <c r="AN409" s="314"/>
+      <c r="AO409" s="314"/>
+      <c r="AP409" s="314"/>
+      <c r="AQ409" s="314"/>
+      <c r="AR409" s="314"/>
+      <c r="AT409" s="314"/>
+      <c r="AU409" s="314"/>
       <c r="AV409" s="192"/>
       <c r="AW409" s="192"/>
       <c r="AX409" s="192"/>
-      <c r="AZ409" s="206"/>
-      <c r="BA409" s="206"/>
-      <c r="BB409" s="206"/>
-      <c r="BC409" s="206"/>
-      <c r="BD409" s="206"/>
-      <c r="BE409" s="206"/>
-      <c r="BF409" s="206"/>
-      <c r="BG409" s="206"/>
-      <c r="BH409" s="206"/>
-      <c r="BI409" s="206"/>
+      <c r="AZ409" s="314"/>
+      <c r="BA409" s="314"/>
+      <c r="BB409" s="314"/>
+      <c r="BC409" s="314"/>
+      <c r="BD409" s="314"/>
+      <c r="BE409" s="314"/>
+      <c r="BF409" s="314"/>
+      <c r="BG409" s="314"/>
+      <c r="BH409" s="314"/>
+      <c r="BI409" s="314"/>
       <c r="BJ409"/>
     </row>
     <row r="410" spans="1:62" x14ac:dyDescent="0.25">
@@ -56286,697 +56283,697 @@
     </row>
     <row r="411" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5"/>
-      <c r="B411" s="204" t="s">
+      <c r="B411" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="C411" s="202">
+      <c r="C411" s="315">
         <f>+C407-1748</f>
         <v>3.4700000000000273</v>
       </c>
-      <c r="D411" s="202">
+      <c r="D411" s="315">
         <f t="shared" ref="D411:T411" si="67">+D407-1748</f>
         <v>3.4700000000000273</v>
       </c>
-      <c r="E411" s="202">
+      <c r="E411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="F411" s="202">
+      <c r="F411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="G411" s="202">
+      <c r="G411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="H411" s="202">
+      <c r="H411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="I411" s="202">
+      <c r="I411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="J411" s="202">
+      <c r="J411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="K411" s="202">
+      <c r="K411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="L411" s="202">
+      <c r="L411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="M411" s="202">
+      <c r="M411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="N411" s="202">
+      <c r="N411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="O411" s="202">
+      <c r="O411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="P411" s="202">
+      <c r="P411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="Q411" s="202">
+      <c r="Q411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="R411" s="202">
+      <c r="R411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="S411" s="202">
+      <c r="S411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="T411" s="202">
+      <c r="T411" s="315">
         <f t="shared" si="67"/>
         <v>3.4700000000000273</v>
       </c>
       <c r="U411" s="195"/>
-      <c r="V411" s="202">
+      <c r="V411" s="315">
         <f t="shared" ref="V411:AR411" si="68">+V407-1748</f>
         <v>3.4700000000000273</v>
       </c>
-      <c r="W411" s="202">
+      <c r="W411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="X411" s="202">
+      <c r="X411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="Y411" s="202">
+      <c r="Y411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="Z411" s="202">
+      <c r="Z411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AA411" s="202">
+      <c r="AA411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AB411" s="202">
+      <c r="AB411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AC411" s="202">
+      <c r="AC411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AD411" s="202">
+      <c r="AD411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AE411" s="202">
+      <c r="AE411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AF411" s="202">
+      <c r="AF411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AG411" s="202">
+      <c r="AG411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AH411" s="202">
+      <c r="AH411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AI411" s="202">
+      <c r="AI411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AJ411" s="202">
+      <c r="AJ411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AK411" s="202">
+      <c r="AK411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AL411" s="202">
+      <c r="AL411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AM411" s="202">
+      <c r="AM411" s="315">
         <f t="shared" si="68"/>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AN411" s="202">
+      <c r="AN411" s="315">
         <f t="shared" si="68"/>
         <v>-4</v>
       </c>
-      <c r="AO411" s="202">
+      <c r="AO411" s="315">
         <f t="shared" si="68"/>
         <v>-4</v>
       </c>
-      <c r="AP411" s="202">
+      <c r="AP411" s="315">
         <f t="shared" si="68"/>
         <v>-4</v>
       </c>
-      <c r="AQ411" s="202">
+      <c r="AQ411" s="315">
         <f t="shared" si="68"/>
         <v>-4</v>
       </c>
-      <c r="AR411" s="202">
+      <c r="AR411" s="315">
         <f t="shared" si="68"/>
         <v>-4</v>
       </c>
-      <c r="AT411" s="202">
+      <c r="AT411" s="315">
         <f t="shared" ref="AT411:AU411" si="69">+AT407-1748</f>
         <v>3.4700000000000273</v>
       </c>
-      <c r="AU411" s="202">
+      <c r="AU411" s="315">
         <f t="shared" si="69"/>
         <v>3.4700000000000273</v>
       </c>
       <c r="AV411" s="196"/>
       <c r="AW411" s="196"/>
       <c r="AX411" s="196"/>
-      <c r="AZ411" s="202">
+      <c r="AZ411" s="315">
         <f t="shared" ref="AZ411:BI411" si="70">+AZ407-1748</f>
         <v>-4</v>
       </c>
-      <c r="BA411" s="202">
+      <c r="BA411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BB411" s="202">
+      <c r="BB411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BC411" s="202">
+      <c r="BC411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BD411" s="202">
+      <c r="BD411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BE411" s="202">
+      <c r="BE411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BF411" s="202">
+      <c r="BF411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BG411" s="202">
+      <c r="BG411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BH411" s="202">
+      <c r="BH411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BI411" s="202">
+      <c r="BI411" s="315">
         <f t="shared" si="70"/>
         <v>-4</v>
       </c>
-      <c r="BJ411" s="203"/>
+      <c r="BJ411" s="316"/>
     </row>
     <row r="412" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A412" s="5"/>
-      <c r="B412" s="204"/>
-      <c r="C412" s="202"/>
-      <c r="D412" s="202"/>
-      <c r="E412" s="202"/>
-      <c r="F412" s="202"/>
-      <c r="G412" s="202"/>
-      <c r="H412" s="202"/>
-      <c r="I412" s="202"/>
-      <c r="J412" s="202"/>
-      <c r="K412" s="202"/>
-      <c r="L412" s="202"/>
-      <c r="M412" s="202"/>
-      <c r="N412" s="202"/>
-      <c r="O412" s="202"/>
-      <c r="P412" s="202"/>
-      <c r="Q412" s="202"/>
-      <c r="R412" s="202"/>
-      <c r="S412" s="202"/>
-      <c r="T412" s="202"/>
+      <c r="B412" s="312"/>
+      <c r="C412" s="315"/>
+      <c r="D412" s="315"/>
+      <c r="E412" s="315"/>
+      <c r="F412" s="315"/>
+      <c r="G412" s="315"/>
+      <c r="H412" s="315"/>
+      <c r="I412" s="315"/>
+      <c r="J412" s="315"/>
+      <c r="K412" s="315"/>
+      <c r="L412" s="315"/>
+      <c r="M412" s="315"/>
+      <c r="N412" s="315"/>
+      <c r="O412" s="315"/>
+      <c r="P412" s="315"/>
+      <c r="Q412" s="315"/>
+      <c r="R412" s="315"/>
+      <c r="S412" s="315"/>
+      <c r="T412" s="315"/>
       <c r="U412" s="195"/>
-      <c r="V412" s="202"/>
-      <c r="W412" s="202"/>
-      <c r="X412" s="202"/>
-      <c r="Y412" s="202"/>
-      <c r="Z412" s="202"/>
-      <c r="AA412" s="202"/>
-      <c r="AB412" s="202"/>
-      <c r="AC412" s="202"/>
-      <c r="AD412" s="202"/>
-      <c r="AE412" s="202"/>
-      <c r="AF412" s="202"/>
-      <c r="AG412" s="202"/>
-      <c r="AH412" s="202"/>
-      <c r="AI412" s="202"/>
-      <c r="AJ412" s="202"/>
-      <c r="AK412" s="202"/>
-      <c r="AL412" s="202"/>
-      <c r="AM412" s="202"/>
-      <c r="AN412" s="202"/>
-      <c r="AO412" s="202"/>
-      <c r="AP412" s="202"/>
-      <c r="AQ412" s="202"/>
-      <c r="AR412" s="202"/>
-      <c r="AT412" s="202"/>
-      <c r="AU412" s="202"/>
+      <c r="V412" s="315"/>
+      <c r="W412" s="315"/>
+      <c r="X412" s="315"/>
+      <c r="Y412" s="315"/>
+      <c r="Z412" s="315"/>
+      <c r="AA412" s="315"/>
+      <c r="AB412" s="315"/>
+      <c r="AC412" s="315"/>
+      <c r="AD412" s="315"/>
+      <c r="AE412" s="315"/>
+      <c r="AF412" s="315"/>
+      <c r="AG412" s="315"/>
+      <c r="AH412" s="315"/>
+      <c r="AI412" s="315"/>
+      <c r="AJ412" s="315"/>
+      <c r="AK412" s="315"/>
+      <c r="AL412" s="315"/>
+      <c r="AM412" s="315"/>
+      <c r="AN412" s="315"/>
+      <c r="AO412" s="315"/>
+      <c r="AP412" s="315"/>
+      <c r="AQ412" s="315"/>
+      <c r="AR412" s="315"/>
+      <c r="AT412" s="315"/>
+      <c r="AU412" s="315"/>
       <c r="AV412" s="196"/>
       <c r="AW412" s="196"/>
       <c r="AX412" s="196"/>
-      <c r="AZ412" s="202"/>
-      <c r="BA412" s="202"/>
-      <c r="BB412" s="202"/>
-      <c r="BC412" s="202"/>
-      <c r="BD412" s="202"/>
-      <c r="BE412" s="202"/>
-      <c r="BF412" s="202"/>
-      <c r="BG412" s="202"/>
-      <c r="BH412" s="202"/>
-      <c r="BI412" s="202"/>
-      <c r="BJ412" s="203"/>
+      <c r="AZ412" s="315"/>
+      <c r="BA412" s="315"/>
+      <c r="BB412" s="315"/>
+      <c r="BC412" s="315"/>
+      <c r="BD412" s="315"/>
+      <c r="BE412" s="315"/>
+      <c r="BF412" s="315"/>
+      <c r="BG412" s="315"/>
+      <c r="BH412" s="315"/>
+      <c r="BI412" s="315"/>
+      <c r="BJ412" s="316"/>
     </row>
     <row r="413" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A413" s="5"/>
-      <c r="B413" s="204"/>
-      <c r="C413" s="202"/>
-      <c r="D413" s="202"/>
-      <c r="E413" s="202"/>
-      <c r="F413" s="202"/>
-      <c r="G413" s="202"/>
-      <c r="H413" s="202"/>
-      <c r="I413" s="202"/>
-      <c r="J413" s="202"/>
-      <c r="K413" s="202"/>
-      <c r="L413" s="202"/>
-      <c r="M413" s="202"/>
-      <c r="N413" s="202"/>
-      <c r="O413" s="202"/>
-      <c r="P413" s="202"/>
-      <c r="Q413" s="202"/>
-      <c r="R413" s="202"/>
-      <c r="S413" s="202"/>
-      <c r="T413" s="202"/>
+      <c r="B413" s="312"/>
+      <c r="C413" s="315"/>
+      <c r="D413" s="315"/>
+      <c r="E413" s="315"/>
+      <c r="F413" s="315"/>
+      <c r="G413" s="315"/>
+      <c r="H413" s="315"/>
+      <c r="I413" s="315"/>
+      <c r="J413" s="315"/>
+      <c r="K413" s="315"/>
+      <c r="L413" s="315"/>
+      <c r="M413" s="315"/>
+      <c r="N413" s="315"/>
+      <c r="O413" s="315"/>
+      <c r="P413" s="315"/>
+      <c r="Q413" s="315"/>
+      <c r="R413" s="315"/>
+      <c r="S413" s="315"/>
+      <c r="T413" s="315"/>
       <c r="U413" s="195"/>
-      <c r="V413" s="202"/>
-      <c r="W413" s="202"/>
-      <c r="X413" s="202"/>
-      <c r="Y413" s="202"/>
-      <c r="Z413" s="202"/>
-      <c r="AA413" s="202"/>
-      <c r="AB413" s="202"/>
-      <c r="AC413" s="202"/>
-      <c r="AD413" s="202"/>
-      <c r="AE413" s="202"/>
-      <c r="AF413" s="202"/>
-      <c r="AG413" s="202"/>
-      <c r="AH413" s="202"/>
-      <c r="AI413" s="202"/>
-      <c r="AJ413" s="202"/>
-      <c r="AK413" s="202"/>
-      <c r="AL413" s="202"/>
-      <c r="AM413" s="202"/>
-      <c r="AN413" s="202"/>
-      <c r="AO413" s="202"/>
-      <c r="AP413" s="202"/>
-      <c r="AQ413" s="202"/>
-      <c r="AR413" s="202"/>
-      <c r="AT413" s="202"/>
-      <c r="AU413" s="202"/>
+      <c r="V413" s="315"/>
+      <c r="W413" s="315"/>
+      <c r="X413" s="315"/>
+      <c r="Y413" s="315"/>
+      <c r="Z413" s="315"/>
+      <c r="AA413" s="315"/>
+      <c r="AB413" s="315"/>
+      <c r="AC413" s="315"/>
+      <c r="AD413" s="315"/>
+      <c r="AE413" s="315"/>
+      <c r="AF413" s="315"/>
+      <c r="AG413" s="315"/>
+      <c r="AH413" s="315"/>
+      <c r="AI413" s="315"/>
+      <c r="AJ413" s="315"/>
+      <c r="AK413" s="315"/>
+      <c r="AL413" s="315"/>
+      <c r="AM413" s="315"/>
+      <c r="AN413" s="315"/>
+      <c r="AO413" s="315"/>
+      <c r="AP413" s="315"/>
+      <c r="AQ413" s="315"/>
+      <c r="AR413" s="315"/>
+      <c r="AT413" s="315"/>
+      <c r="AU413" s="315"/>
       <c r="AV413" s="196"/>
       <c r="AW413" s="196"/>
       <c r="AX413" s="196"/>
-      <c r="AZ413" s="202"/>
-      <c r="BA413" s="202"/>
-      <c r="BB413" s="202"/>
-      <c r="BC413" s="202"/>
-      <c r="BD413" s="202"/>
-      <c r="BE413" s="202"/>
-      <c r="BF413" s="202"/>
-      <c r="BG413" s="202"/>
-      <c r="BH413" s="202"/>
-      <c r="BI413" s="202"/>
-      <c r="BJ413" s="203"/>
+      <c r="AZ413" s="315"/>
+      <c r="BA413" s="315"/>
+      <c r="BB413" s="315"/>
+      <c r="BC413" s="315"/>
+      <c r="BD413" s="315"/>
+      <c r="BE413" s="315"/>
+      <c r="BF413" s="315"/>
+      <c r="BG413" s="315"/>
+      <c r="BH413" s="315"/>
+      <c r="BI413" s="315"/>
+      <c r="BJ413" s="316"/>
     </row>
     <row r="414" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5"/>
-      <c r="B414" s="204" t="s">
+      <c r="B414" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="C414" s="199">
+      <c r="C414" s="318">
         <f>+C411/9.17</f>
         <v>0.37840785169029739</v>
       </c>
-      <c r="D414" s="199">
+      <c r="D414" s="318">
         <f t="shared" ref="D414:T414" si="71">+D411/9.17</f>
         <v>0.37840785169029739</v>
       </c>
-      <c r="E414" s="199">
+      <c r="E414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="F414" s="199">
+      <c r="F414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="G414" s="199">
+      <c r="G414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="H414" s="199">
+      <c r="H414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="I414" s="199">
+      <c r="I414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="J414" s="199">
+      <c r="J414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="K414" s="199">
+      <c r="K414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="L414" s="199">
+      <c r="L414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="M414" s="199">
+      <c r="M414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="N414" s="199">
+      <c r="N414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="O414" s="199">
+      <c r="O414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="P414" s="199">
+      <c r="P414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="Q414" s="199">
+      <c r="Q414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="R414" s="199">
+      <c r="R414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="S414" s="199">
+      <c r="S414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="T414" s="199">
+      <c r="T414" s="318">
         <f t="shared" si="71"/>
         <v>0.37840785169029739</v>
       </c>
       <c r="U414" s="197"/>
-      <c r="V414" s="199">
+      <c r="V414" s="318">
         <f t="shared" ref="V414:AM414" si="72">+V411/9.17</f>
         <v>0.37840785169029739</v>
       </c>
-      <c r="W414" s="199">
+      <c r="W414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="X414" s="199">
+      <c r="X414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="Y414" s="199">
+      <c r="Y414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="Z414" s="199">
+      <c r="Z414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AA414" s="199">
+      <c r="AA414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AB414" s="199">
+      <c r="AB414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AC414" s="199">
+      <c r="AC414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AD414" s="199">
+      <c r="AD414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AE414" s="199">
+      <c r="AE414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AF414" s="199">
+      <c r="AF414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AG414" s="199">
+      <c r="AG414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AH414" s="199">
+      <c r="AH414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AI414" s="199">
+      <c r="AI414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AJ414" s="199">
+      <c r="AJ414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AK414" s="199">
+      <c r="AK414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AL414" s="199">
+      <c r="AL414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AM414" s="199">
+      <c r="AM414" s="318">
         <f t="shared" si="72"/>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AN414" s="199">
+      <c r="AN414" s="318">
         <f>+AN411/8</f>
         <v>-0.5</v>
       </c>
-      <c r="AO414" s="199">
+      <c r="AO414" s="318">
         <f t="shared" ref="AO414:AR414" si="73">+AO411/8</f>
         <v>-0.5</v>
       </c>
-      <c r="AP414" s="199">
+      <c r="AP414" s="318">
         <f t="shared" si="73"/>
         <v>-0.5</v>
       </c>
-      <c r="AQ414" s="199">
+      <c r="AQ414" s="318">
         <f t="shared" si="73"/>
         <v>-0.5</v>
       </c>
-      <c r="AR414" s="199">
+      <c r="AR414" s="318">
         <f t="shared" si="73"/>
         <v>-0.5</v>
       </c>
-      <c r="AT414" s="199">
+      <c r="AT414" s="318">
         <f t="shared" ref="AT414:AU414" si="74">+AT411/9.17</f>
         <v>0.37840785169029739</v>
       </c>
-      <c r="AU414" s="199">
+      <c r="AU414" s="318">
         <f t="shared" si="74"/>
         <v>0.37840785169029739</v>
       </c>
       <c r="AV414" s="198"/>
       <c r="AW414" s="198"/>
       <c r="AX414" s="198"/>
-      <c r="AZ414" s="199">
+      <c r="AZ414" s="318">
         <f t="shared" ref="AZ414:BI414" si="75">+AZ411/8</f>
         <v>-0.5</v>
       </c>
-      <c r="BA414" s="199">
+      <c r="BA414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BB414" s="199">
+      <c r="BB414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BC414" s="199">
+      <c r="BC414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BD414" s="199">
+      <c r="BD414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BE414" s="199">
+      <c r="BE414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BF414" s="199">
+      <c r="BF414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BG414" s="199">
+      <c r="BG414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BH414" s="199">
+      <c r="BH414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BI414" s="199">
+      <c r="BI414" s="318">
         <f t="shared" si="75"/>
         <v>-0.5</v>
       </c>
-      <c r="BJ414" s="201"/>
+      <c r="BJ414" s="320"/>
     </row>
     <row r="415" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A415" s="5"/>
-      <c r="B415" s="204"/>
-      <c r="C415" s="199"/>
-      <c r="D415" s="199"/>
-      <c r="E415" s="199"/>
-      <c r="F415" s="199"/>
-      <c r="G415" s="199"/>
-      <c r="H415" s="199"/>
-      <c r="I415" s="199"/>
-      <c r="J415" s="199"/>
-      <c r="K415" s="199"/>
-      <c r="L415" s="199"/>
-      <c r="M415" s="199"/>
-      <c r="N415" s="199"/>
-      <c r="O415" s="199"/>
-      <c r="P415" s="199"/>
-      <c r="Q415" s="199"/>
-      <c r="R415" s="199"/>
-      <c r="S415" s="199"/>
-      <c r="T415" s="199"/>
+      <c r="B415" s="312"/>
+      <c r="C415" s="318"/>
+      <c r="D415" s="318"/>
+      <c r="E415" s="318"/>
+      <c r="F415" s="318"/>
+      <c r="G415" s="318"/>
+      <c r="H415" s="318"/>
+      <c r="I415" s="318"/>
+      <c r="J415" s="318"/>
+      <c r="K415" s="318"/>
+      <c r="L415" s="318"/>
+      <c r="M415" s="318"/>
+      <c r="N415" s="318"/>
+      <c r="O415" s="318"/>
+      <c r="P415" s="318"/>
+      <c r="Q415" s="318"/>
+      <c r="R415" s="318"/>
+      <c r="S415" s="318"/>
+      <c r="T415" s="318"/>
       <c r="U415" s="197"/>
-      <c r="V415" s="199"/>
-      <c r="W415" s="199"/>
-      <c r="X415" s="199"/>
-      <c r="Y415" s="199"/>
-      <c r="Z415" s="199"/>
-      <c r="AA415" s="199"/>
-      <c r="AB415" s="199"/>
-      <c r="AC415" s="199"/>
-      <c r="AD415" s="199"/>
-      <c r="AE415" s="199"/>
-      <c r="AF415" s="199"/>
-      <c r="AG415" s="199"/>
-      <c r="AH415" s="199"/>
-      <c r="AI415" s="199"/>
-      <c r="AJ415" s="199"/>
-      <c r="AK415" s="199"/>
-      <c r="AL415" s="199"/>
-      <c r="AM415" s="199"/>
-      <c r="AN415" s="199"/>
-      <c r="AO415" s="199"/>
-      <c r="AP415" s="199"/>
-      <c r="AQ415" s="199"/>
-      <c r="AR415" s="199"/>
-      <c r="AT415" s="199"/>
-      <c r="AU415" s="199"/>
+      <c r="V415" s="318"/>
+      <c r="W415" s="318"/>
+      <c r="X415" s="318"/>
+      <c r="Y415" s="318"/>
+      <c r="Z415" s="318"/>
+      <c r="AA415" s="318"/>
+      <c r="AB415" s="318"/>
+      <c r="AC415" s="318"/>
+      <c r="AD415" s="318"/>
+      <c r="AE415" s="318"/>
+      <c r="AF415" s="318"/>
+      <c r="AG415" s="318"/>
+      <c r="AH415" s="318"/>
+      <c r="AI415" s="318"/>
+      <c r="AJ415" s="318"/>
+      <c r="AK415" s="318"/>
+      <c r="AL415" s="318"/>
+      <c r="AM415" s="318"/>
+      <c r="AN415" s="318"/>
+      <c r="AO415" s="318"/>
+      <c r="AP415" s="318"/>
+      <c r="AQ415" s="318"/>
+      <c r="AR415" s="318"/>
+      <c r="AT415" s="318"/>
+      <c r="AU415" s="318"/>
       <c r="AV415" s="198"/>
       <c r="AW415" s="198"/>
       <c r="AX415" s="198"/>
-      <c r="AZ415" s="199"/>
-      <c r="BA415" s="199"/>
-      <c r="BB415" s="199"/>
-      <c r="BC415" s="199"/>
-      <c r="BD415" s="199"/>
-      <c r="BE415" s="199"/>
-      <c r="BF415" s="199"/>
-      <c r="BG415" s="199"/>
-      <c r="BH415" s="199"/>
-      <c r="BI415" s="199"/>
-      <c r="BJ415" s="201"/>
+      <c r="AZ415" s="318"/>
+      <c r="BA415" s="318"/>
+      <c r="BB415" s="318"/>
+      <c r="BC415" s="318"/>
+      <c r="BD415" s="318"/>
+      <c r="BE415" s="318"/>
+      <c r="BF415" s="318"/>
+      <c r="BG415" s="318"/>
+      <c r="BH415" s="318"/>
+      <c r="BI415" s="318"/>
+      <c r="BJ415" s="320"/>
     </row>
     <row r="416" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A416" s="5"/>
-      <c r="B416" s="205"/>
-      <c r="C416" s="200"/>
-      <c r="D416" s="200"/>
-      <c r="E416" s="200"/>
-      <c r="F416" s="200"/>
-      <c r="G416" s="200"/>
-      <c r="H416" s="200"/>
-      <c r="I416" s="200"/>
-      <c r="J416" s="200"/>
-      <c r="K416" s="200"/>
-      <c r="L416" s="200"/>
-      <c r="M416" s="200"/>
-      <c r="N416" s="200"/>
-      <c r="O416" s="200"/>
-      <c r="P416" s="200"/>
-      <c r="Q416" s="200"/>
-      <c r="R416" s="200"/>
-      <c r="S416" s="200"/>
-      <c r="T416" s="200"/>
+      <c r="B416" s="317"/>
+      <c r="C416" s="319"/>
+      <c r="D416" s="319"/>
+      <c r="E416" s="319"/>
+      <c r="F416" s="319"/>
+      <c r="G416" s="319"/>
+      <c r="H416" s="319"/>
+      <c r="I416" s="319"/>
+      <c r="J416" s="319"/>
+      <c r="K416" s="319"/>
+      <c r="L416" s="319"/>
+      <c r="M416" s="319"/>
+      <c r="N416" s="319"/>
+      <c r="O416" s="319"/>
+      <c r="P416" s="319"/>
+      <c r="Q416" s="319"/>
+      <c r="R416" s="319"/>
+      <c r="S416" s="319"/>
+      <c r="T416" s="319"/>
       <c r="U416" s="197"/>
-      <c r="V416" s="200"/>
-      <c r="W416" s="200"/>
-      <c r="X416" s="200"/>
-      <c r="Y416" s="200"/>
-      <c r="Z416" s="200"/>
-      <c r="AA416" s="200"/>
-      <c r="AB416" s="200"/>
-      <c r="AC416" s="200"/>
-      <c r="AD416" s="200"/>
-      <c r="AE416" s="200"/>
-      <c r="AF416" s="200"/>
-      <c r="AG416" s="200"/>
-      <c r="AH416" s="200"/>
-      <c r="AI416" s="200"/>
-      <c r="AJ416" s="200"/>
-      <c r="AK416" s="200"/>
-      <c r="AL416" s="200"/>
-      <c r="AM416" s="200"/>
-      <c r="AN416" s="200"/>
-      <c r="AO416" s="200"/>
-      <c r="AP416" s="200"/>
-      <c r="AQ416" s="200"/>
-      <c r="AR416" s="200"/>
-      <c r="AT416" s="200"/>
-      <c r="AU416" s="200"/>
+      <c r="V416" s="319"/>
+      <c r="W416" s="319"/>
+      <c r="X416" s="319"/>
+      <c r="Y416" s="319"/>
+      <c r="Z416" s="319"/>
+      <c r="AA416" s="319"/>
+      <c r="AB416" s="319"/>
+      <c r="AC416" s="319"/>
+      <c r="AD416" s="319"/>
+      <c r="AE416" s="319"/>
+      <c r="AF416" s="319"/>
+      <c r="AG416" s="319"/>
+      <c r="AH416" s="319"/>
+      <c r="AI416" s="319"/>
+      <c r="AJ416" s="319"/>
+      <c r="AK416" s="319"/>
+      <c r="AL416" s="319"/>
+      <c r="AM416" s="319"/>
+      <c r="AN416" s="319"/>
+      <c r="AO416" s="319"/>
+      <c r="AP416" s="319"/>
+      <c r="AQ416" s="319"/>
+      <c r="AR416" s="319"/>
+      <c r="AT416" s="319"/>
+      <c r="AU416" s="319"/>
       <c r="AV416" s="198"/>
       <c r="AW416" s="198"/>
       <c r="AX416" s="198"/>
-      <c r="AZ416" s="200"/>
-      <c r="BA416" s="200"/>
-      <c r="BB416" s="200"/>
-      <c r="BC416" s="200"/>
-      <c r="BD416" s="200"/>
-      <c r="BE416" s="200"/>
-      <c r="BF416" s="200"/>
-      <c r="BG416" s="200"/>
-      <c r="BH416" s="200"/>
-      <c r="BI416" s="200"/>
-      <c r="BJ416" s="201"/>
+      <c r="AZ416" s="319"/>
+      <c r="BA416" s="319"/>
+      <c r="BB416" s="319"/>
+      <c r="BC416" s="319"/>
+      <c r="BD416" s="319"/>
+      <c r="BE416" s="319"/>
+      <c r="BF416" s="319"/>
+      <c r="BG416" s="319"/>
+      <c r="BH416" s="319"/>
+      <c r="BI416" s="319"/>
+      <c r="BJ416" s="320"/>
     </row>
     <row r="417" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A417" s="5"/>
@@ -57652,44 +57649,331 @@
     </row>
   </sheetData>
   <mergeCells count="387">
-    <mergeCell ref="I1:I7"/>
-    <mergeCell ref="J1:J7"/>
-    <mergeCell ref="K1:K7"/>
-    <mergeCell ref="L1:L7"/>
-    <mergeCell ref="M1:M7"/>
-    <mergeCell ref="N1:N7"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="D1:D7"/>
-    <mergeCell ref="E1:E7"/>
-    <mergeCell ref="F1:F7"/>
-    <mergeCell ref="G1:G7"/>
-    <mergeCell ref="H1:H7"/>
-    <mergeCell ref="U1:U7"/>
-    <mergeCell ref="V1:V7"/>
-    <mergeCell ref="W1:W7"/>
-    <mergeCell ref="X1:X7"/>
-    <mergeCell ref="Y1:Y7"/>
-    <mergeCell ref="Z1:Z7"/>
-    <mergeCell ref="O1:O7"/>
-    <mergeCell ref="P1:P7"/>
-    <mergeCell ref="Q1:Q7"/>
-    <mergeCell ref="R1:R7"/>
-    <mergeCell ref="S1:S7"/>
-    <mergeCell ref="T1:T7"/>
-    <mergeCell ref="AQ1:AQ7"/>
-    <mergeCell ref="AR1:AR7"/>
-    <mergeCell ref="AG1:AG7"/>
-    <mergeCell ref="AH1:AH7"/>
-    <mergeCell ref="AI1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="AK1:AK7"/>
-    <mergeCell ref="AL1:AL7"/>
-    <mergeCell ref="AA1:AA7"/>
-    <mergeCell ref="AB1:AB7"/>
-    <mergeCell ref="AC1:AC7"/>
-    <mergeCell ref="AD1:AD7"/>
-    <mergeCell ref="AE1:AE7"/>
-    <mergeCell ref="AF1:AF7"/>
+    <mergeCell ref="BF414:BF416"/>
+    <mergeCell ref="BG414:BG416"/>
+    <mergeCell ref="BH414:BH416"/>
+    <mergeCell ref="BI414:BI416"/>
+    <mergeCell ref="BJ414:BJ416"/>
+    <mergeCell ref="AZ414:AZ416"/>
+    <mergeCell ref="BA414:BA416"/>
+    <mergeCell ref="BB414:BB416"/>
+    <mergeCell ref="BC414:BC416"/>
+    <mergeCell ref="BD414:BD416"/>
+    <mergeCell ref="BE414:BE416"/>
+    <mergeCell ref="AO414:AO416"/>
+    <mergeCell ref="AP414:AP416"/>
+    <mergeCell ref="AQ414:AQ416"/>
+    <mergeCell ref="AR414:AR416"/>
+    <mergeCell ref="AT414:AT416"/>
+    <mergeCell ref="AU414:AU416"/>
+    <mergeCell ref="AI414:AI416"/>
+    <mergeCell ref="AJ414:AJ416"/>
+    <mergeCell ref="AK414:AK416"/>
+    <mergeCell ref="AL414:AL416"/>
+    <mergeCell ref="AM414:AM416"/>
+    <mergeCell ref="AN414:AN416"/>
+    <mergeCell ref="AC414:AC416"/>
+    <mergeCell ref="AD414:AD416"/>
+    <mergeCell ref="AE414:AE416"/>
+    <mergeCell ref="AF414:AF416"/>
+    <mergeCell ref="AG414:AG416"/>
+    <mergeCell ref="AH414:AH416"/>
+    <mergeCell ref="W414:W416"/>
+    <mergeCell ref="X414:X416"/>
+    <mergeCell ref="Y414:Y416"/>
+    <mergeCell ref="Z414:Z416"/>
+    <mergeCell ref="AA414:AA416"/>
+    <mergeCell ref="AB414:AB416"/>
+    <mergeCell ref="P414:P416"/>
+    <mergeCell ref="Q414:Q416"/>
+    <mergeCell ref="R414:R416"/>
+    <mergeCell ref="S414:S416"/>
+    <mergeCell ref="T414:T416"/>
+    <mergeCell ref="V414:V416"/>
+    <mergeCell ref="J414:J416"/>
+    <mergeCell ref="K414:K416"/>
+    <mergeCell ref="L414:L416"/>
+    <mergeCell ref="M414:M416"/>
+    <mergeCell ref="N414:N416"/>
+    <mergeCell ref="O414:O416"/>
+    <mergeCell ref="BI411:BI413"/>
+    <mergeCell ref="BJ411:BJ413"/>
+    <mergeCell ref="B414:B416"/>
+    <mergeCell ref="C414:C416"/>
+    <mergeCell ref="D414:D416"/>
+    <mergeCell ref="E414:E416"/>
+    <mergeCell ref="F414:F416"/>
+    <mergeCell ref="G414:G416"/>
+    <mergeCell ref="H414:H416"/>
+    <mergeCell ref="I414:I416"/>
+    <mergeCell ref="BC411:BC413"/>
+    <mergeCell ref="BD411:BD413"/>
+    <mergeCell ref="BE411:BE413"/>
+    <mergeCell ref="BF411:BF413"/>
+    <mergeCell ref="BG411:BG413"/>
+    <mergeCell ref="BH411:BH413"/>
+    <mergeCell ref="AR411:AR413"/>
+    <mergeCell ref="AT411:AT413"/>
+    <mergeCell ref="AU411:AU413"/>
+    <mergeCell ref="AZ411:AZ413"/>
+    <mergeCell ref="BA411:BA413"/>
+    <mergeCell ref="BB411:BB413"/>
+    <mergeCell ref="AL411:AL413"/>
+    <mergeCell ref="AM411:AM413"/>
+    <mergeCell ref="AN411:AN413"/>
+    <mergeCell ref="AO411:AO413"/>
+    <mergeCell ref="AP411:AP413"/>
+    <mergeCell ref="AQ411:AQ413"/>
+    <mergeCell ref="AF411:AF413"/>
+    <mergeCell ref="AG411:AG413"/>
+    <mergeCell ref="AH411:AH413"/>
+    <mergeCell ref="AI411:AI413"/>
+    <mergeCell ref="AJ411:AJ413"/>
+    <mergeCell ref="AK411:AK413"/>
+    <mergeCell ref="Z411:Z413"/>
+    <mergeCell ref="AA411:AA413"/>
+    <mergeCell ref="AB411:AB413"/>
+    <mergeCell ref="AC411:AC413"/>
+    <mergeCell ref="AD411:AD413"/>
+    <mergeCell ref="AE411:AE413"/>
+    <mergeCell ref="S411:S413"/>
+    <mergeCell ref="T411:T413"/>
+    <mergeCell ref="V411:V413"/>
+    <mergeCell ref="W411:W413"/>
+    <mergeCell ref="X411:X413"/>
+    <mergeCell ref="Y411:Y413"/>
+    <mergeCell ref="M411:M413"/>
+    <mergeCell ref="N411:N413"/>
+    <mergeCell ref="O411:O413"/>
+    <mergeCell ref="P411:P413"/>
+    <mergeCell ref="Q411:Q413"/>
+    <mergeCell ref="R411:R413"/>
+    <mergeCell ref="G411:G413"/>
+    <mergeCell ref="H411:H413"/>
+    <mergeCell ref="I411:I413"/>
+    <mergeCell ref="J411:J413"/>
+    <mergeCell ref="K411:K413"/>
+    <mergeCell ref="L411:L413"/>
+    <mergeCell ref="BE407:BE409"/>
+    <mergeCell ref="BF407:BF409"/>
+    <mergeCell ref="BG407:BG409"/>
+    <mergeCell ref="BH407:BH409"/>
+    <mergeCell ref="BI407:BI409"/>
+    <mergeCell ref="B411:B413"/>
+    <mergeCell ref="C411:C413"/>
+    <mergeCell ref="D411:D413"/>
+    <mergeCell ref="E411:E413"/>
+    <mergeCell ref="F411:F413"/>
+    <mergeCell ref="AU407:AU409"/>
+    <mergeCell ref="AZ407:AZ409"/>
+    <mergeCell ref="BA407:BA409"/>
+    <mergeCell ref="BB407:BB409"/>
+    <mergeCell ref="BC407:BC409"/>
+    <mergeCell ref="BD407:BD409"/>
+    <mergeCell ref="AN407:AN409"/>
+    <mergeCell ref="AO407:AO409"/>
+    <mergeCell ref="AP407:AP409"/>
+    <mergeCell ref="AQ407:AQ409"/>
+    <mergeCell ref="AR407:AR409"/>
+    <mergeCell ref="AT407:AT409"/>
+    <mergeCell ref="AH407:AH409"/>
+    <mergeCell ref="AI407:AI409"/>
+    <mergeCell ref="AJ407:AJ409"/>
+    <mergeCell ref="AK407:AK409"/>
+    <mergeCell ref="AL407:AL409"/>
+    <mergeCell ref="AM407:AM409"/>
+    <mergeCell ref="AB407:AB409"/>
+    <mergeCell ref="AC407:AC409"/>
+    <mergeCell ref="AD407:AD409"/>
+    <mergeCell ref="AE407:AE409"/>
+    <mergeCell ref="AF407:AF409"/>
+    <mergeCell ref="AG407:AG409"/>
+    <mergeCell ref="V407:V409"/>
+    <mergeCell ref="W407:W409"/>
+    <mergeCell ref="X407:X409"/>
+    <mergeCell ref="Y407:Y409"/>
+    <mergeCell ref="Z407:Z409"/>
+    <mergeCell ref="AA407:AA409"/>
+    <mergeCell ref="O407:O409"/>
+    <mergeCell ref="P407:P409"/>
+    <mergeCell ref="Q407:Q409"/>
+    <mergeCell ref="R407:R409"/>
+    <mergeCell ref="S407:S409"/>
+    <mergeCell ref="T407:T409"/>
+    <mergeCell ref="I407:I409"/>
+    <mergeCell ref="J407:J409"/>
+    <mergeCell ref="K407:K409"/>
+    <mergeCell ref="L407:L409"/>
+    <mergeCell ref="M407:M409"/>
+    <mergeCell ref="N407:N409"/>
+    <mergeCell ref="BG404:BG406"/>
+    <mergeCell ref="BH404:BH406"/>
+    <mergeCell ref="BI404:BI406"/>
+    <mergeCell ref="BC404:BC406"/>
+    <mergeCell ref="BD404:BD406"/>
+    <mergeCell ref="BE404:BE406"/>
+    <mergeCell ref="BF404:BF406"/>
+    <mergeCell ref="AG404:AG406"/>
+    <mergeCell ref="AH404:AH406"/>
+    <mergeCell ref="AI404:AI406"/>
+    <mergeCell ref="X404:X406"/>
+    <mergeCell ref="Y404:Y406"/>
+    <mergeCell ref="Z404:Z406"/>
+    <mergeCell ref="AA404:AA406"/>
+    <mergeCell ref="AB404:AB406"/>
+    <mergeCell ref="AC404:AC406"/>
+    <mergeCell ref="Q404:Q406"/>
+    <mergeCell ref="R404:R406"/>
+    <mergeCell ref="B407:B409"/>
+    <mergeCell ref="C407:C409"/>
+    <mergeCell ref="D407:D409"/>
+    <mergeCell ref="E407:E409"/>
+    <mergeCell ref="F407:F409"/>
+    <mergeCell ref="G407:G409"/>
+    <mergeCell ref="H407:H409"/>
+    <mergeCell ref="BA404:BA406"/>
+    <mergeCell ref="BB404:BB406"/>
+    <mergeCell ref="AP404:AP406"/>
+    <mergeCell ref="AQ404:AQ406"/>
+    <mergeCell ref="AR404:AR406"/>
+    <mergeCell ref="AT404:AT406"/>
+    <mergeCell ref="AU404:AU406"/>
+    <mergeCell ref="AZ404:AZ406"/>
+    <mergeCell ref="AJ404:AJ406"/>
+    <mergeCell ref="AK404:AK406"/>
+    <mergeCell ref="AL404:AL406"/>
+    <mergeCell ref="AM404:AM406"/>
+    <mergeCell ref="AN404:AN406"/>
+    <mergeCell ref="AO404:AO406"/>
+    <mergeCell ref="AD404:AD406"/>
+    <mergeCell ref="AE404:AE406"/>
+    <mergeCell ref="AF404:AF406"/>
+    <mergeCell ref="S404:S406"/>
+    <mergeCell ref="T404:T406"/>
+    <mergeCell ref="V404:V406"/>
+    <mergeCell ref="W404:W406"/>
+    <mergeCell ref="K404:K406"/>
+    <mergeCell ref="L404:L406"/>
+    <mergeCell ref="M404:M406"/>
+    <mergeCell ref="N404:N406"/>
+    <mergeCell ref="O404:O406"/>
+    <mergeCell ref="P404:P406"/>
+    <mergeCell ref="BI401:BI403"/>
+    <mergeCell ref="B404:B406"/>
+    <mergeCell ref="C404:C406"/>
+    <mergeCell ref="D404:D406"/>
+    <mergeCell ref="E404:E406"/>
+    <mergeCell ref="F404:F406"/>
+    <mergeCell ref="G404:G406"/>
+    <mergeCell ref="H404:H406"/>
+    <mergeCell ref="I404:I406"/>
+    <mergeCell ref="J404:J406"/>
+    <mergeCell ref="BC401:BC403"/>
+    <mergeCell ref="BD401:BD403"/>
+    <mergeCell ref="BE401:BE403"/>
+    <mergeCell ref="BF401:BF403"/>
+    <mergeCell ref="BG401:BG403"/>
+    <mergeCell ref="BH401:BH403"/>
+    <mergeCell ref="AS401:AS403"/>
+    <mergeCell ref="AT401:AT403"/>
+    <mergeCell ref="AU401:AU403"/>
+    <mergeCell ref="AZ401:AZ403"/>
+    <mergeCell ref="BA401:BA403"/>
+    <mergeCell ref="BB401:BB403"/>
+    <mergeCell ref="AM401:AM403"/>
+    <mergeCell ref="AN401:AN403"/>
+    <mergeCell ref="AO401:AO403"/>
+    <mergeCell ref="AP401:AP403"/>
+    <mergeCell ref="AQ401:AQ403"/>
+    <mergeCell ref="AR401:AR403"/>
+    <mergeCell ref="AG401:AG403"/>
+    <mergeCell ref="AH401:AH403"/>
+    <mergeCell ref="AI401:AI403"/>
+    <mergeCell ref="AJ401:AJ403"/>
+    <mergeCell ref="AK401:AK403"/>
+    <mergeCell ref="AL401:AL403"/>
+    <mergeCell ref="AC401:AC403"/>
+    <mergeCell ref="AD401:AD403"/>
+    <mergeCell ref="AE401:AE403"/>
+    <mergeCell ref="AF401:AF403"/>
+    <mergeCell ref="T401:T403"/>
+    <mergeCell ref="V401:V403"/>
+    <mergeCell ref="W401:W403"/>
+    <mergeCell ref="X401:X403"/>
+    <mergeCell ref="Y401:Y403"/>
+    <mergeCell ref="Z401:Z403"/>
+    <mergeCell ref="A373:A379"/>
+    <mergeCell ref="A380:A386"/>
+    <mergeCell ref="A387:A393"/>
+    <mergeCell ref="AY395:AZ395"/>
+    <mergeCell ref="B401:B403"/>
+    <mergeCell ref="C401:C403"/>
+    <mergeCell ref="D401:D403"/>
+    <mergeCell ref="E401:E403"/>
+    <mergeCell ref="F401:F403"/>
+    <mergeCell ref="G401:G403"/>
+    <mergeCell ref="N401:N403"/>
+    <mergeCell ref="O401:O403"/>
+    <mergeCell ref="P401:P403"/>
+    <mergeCell ref="Q401:Q403"/>
+    <mergeCell ref="R401:R403"/>
+    <mergeCell ref="S401:S403"/>
+    <mergeCell ref="H401:H403"/>
+    <mergeCell ref="I401:I403"/>
+    <mergeCell ref="J401:J403"/>
+    <mergeCell ref="K401:K403"/>
+    <mergeCell ref="L401:L403"/>
+    <mergeCell ref="M401:M403"/>
+    <mergeCell ref="AA401:AA403"/>
+    <mergeCell ref="AB401:AB403"/>
+    <mergeCell ref="A331:A337"/>
+    <mergeCell ref="A338:A344"/>
+    <mergeCell ref="A345:A351"/>
+    <mergeCell ref="A352:A358"/>
+    <mergeCell ref="A359:A365"/>
+    <mergeCell ref="A366:A372"/>
+    <mergeCell ref="A289:A295"/>
+    <mergeCell ref="A296:A302"/>
+    <mergeCell ref="A303:A309"/>
+    <mergeCell ref="A310:A316"/>
+    <mergeCell ref="A317:A323"/>
+    <mergeCell ref="A324:A330"/>
+    <mergeCell ref="A247:A253"/>
+    <mergeCell ref="A254:A260"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="A275:A281"/>
+    <mergeCell ref="A282:A288"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A219:A225"/>
+    <mergeCell ref="A226:A232"/>
+    <mergeCell ref="A233:A239"/>
+    <mergeCell ref="A240:A246"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="A170:A176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="A184:A190"/>
+    <mergeCell ref="A191:A197"/>
+    <mergeCell ref="A198:A204"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="A142:A148"/>
+    <mergeCell ref="A149:A155"/>
+    <mergeCell ref="A156:A162"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A72:A78"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A23:A29"/>
@@ -57714,331 +57998,44 @@
     <mergeCell ref="AN1:AN7"/>
     <mergeCell ref="AO1:AO7"/>
     <mergeCell ref="AP1:AP7"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="A170:A176"/>
-    <mergeCell ref="A177:A183"/>
-    <mergeCell ref="A184:A190"/>
-    <mergeCell ref="A191:A197"/>
-    <mergeCell ref="A198:A204"/>
-    <mergeCell ref="A121:A127"/>
-    <mergeCell ref="A128:A134"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="A142:A148"/>
-    <mergeCell ref="A149:A155"/>
-    <mergeCell ref="A156:A162"/>
-    <mergeCell ref="A247:A253"/>
-    <mergeCell ref="A254:A260"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="A268:A274"/>
-    <mergeCell ref="A275:A281"/>
-    <mergeCell ref="A282:A288"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="A212:A218"/>
-    <mergeCell ref="A219:A225"/>
-    <mergeCell ref="A226:A232"/>
-    <mergeCell ref="A233:A239"/>
-    <mergeCell ref="A240:A246"/>
-    <mergeCell ref="A331:A337"/>
-    <mergeCell ref="A338:A344"/>
-    <mergeCell ref="A345:A351"/>
-    <mergeCell ref="A352:A358"/>
-    <mergeCell ref="A359:A365"/>
-    <mergeCell ref="A366:A372"/>
-    <mergeCell ref="A289:A295"/>
-    <mergeCell ref="A296:A302"/>
-    <mergeCell ref="A303:A309"/>
-    <mergeCell ref="A310:A316"/>
-    <mergeCell ref="A317:A323"/>
-    <mergeCell ref="A324:A330"/>
-    <mergeCell ref="A373:A379"/>
-    <mergeCell ref="A380:A386"/>
-    <mergeCell ref="A387:A393"/>
-    <mergeCell ref="AY395:AZ395"/>
-    <mergeCell ref="B401:B403"/>
-    <mergeCell ref="C401:C403"/>
-    <mergeCell ref="D401:D403"/>
-    <mergeCell ref="E401:E403"/>
-    <mergeCell ref="F401:F403"/>
-    <mergeCell ref="G401:G403"/>
-    <mergeCell ref="N401:N403"/>
-    <mergeCell ref="O401:O403"/>
-    <mergeCell ref="P401:P403"/>
-    <mergeCell ref="Q401:Q403"/>
-    <mergeCell ref="R401:R403"/>
-    <mergeCell ref="S401:S403"/>
-    <mergeCell ref="H401:H403"/>
-    <mergeCell ref="I401:I403"/>
-    <mergeCell ref="J401:J403"/>
-    <mergeCell ref="K401:K403"/>
-    <mergeCell ref="L401:L403"/>
-    <mergeCell ref="M401:M403"/>
-    <mergeCell ref="AA401:AA403"/>
-    <mergeCell ref="AB401:AB403"/>
-    <mergeCell ref="AC401:AC403"/>
-    <mergeCell ref="AD401:AD403"/>
-    <mergeCell ref="AE401:AE403"/>
-    <mergeCell ref="AF401:AF403"/>
-    <mergeCell ref="T401:T403"/>
-    <mergeCell ref="V401:V403"/>
-    <mergeCell ref="W401:W403"/>
-    <mergeCell ref="X401:X403"/>
-    <mergeCell ref="Y401:Y403"/>
-    <mergeCell ref="Z401:Z403"/>
-    <mergeCell ref="AO401:AO403"/>
-    <mergeCell ref="AP401:AP403"/>
-    <mergeCell ref="AQ401:AQ403"/>
-    <mergeCell ref="AR401:AR403"/>
-    <mergeCell ref="AG401:AG403"/>
-    <mergeCell ref="AH401:AH403"/>
-    <mergeCell ref="AI401:AI403"/>
-    <mergeCell ref="AJ401:AJ403"/>
-    <mergeCell ref="AK401:AK403"/>
-    <mergeCell ref="AL401:AL403"/>
-    <mergeCell ref="BI401:BI403"/>
-    <mergeCell ref="B404:B406"/>
-    <mergeCell ref="C404:C406"/>
-    <mergeCell ref="D404:D406"/>
-    <mergeCell ref="E404:E406"/>
-    <mergeCell ref="F404:F406"/>
-    <mergeCell ref="G404:G406"/>
-    <mergeCell ref="H404:H406"/>
-    <mergeCell ref="I404:I406"/>
-    <mergeCell ref="J404:J406"/>
-    <mergeCell ref="BC401:BC403"/>
-    <mergeCell ref="BD401:BD403"/>
-    <mergeCell ref="BE401:BE403"/>
-    <mergeCell ref="BF401:BF403"/>
-    <mergeCell ref="BG401:BG403"/>
-    <mergeCell ref="BH401:BH403"/>
-    <mergeCell ref="AS401:AS403"/>
-    <mergeCell ref="AT401:AT403"/>
-    <mergeCell ref="AU401:AU403"/>
-    <mergeCell ref="AZ401:AZ403"/>
-    <mergeCell ref="BA401:BA403"/>
-    <mergeCell ref="BB401:BB403"/>
-    <mergeCell ref="AM401:AM403"/>
-    <mergeCell ref="AN401:AN403"/>
-    <mergeCell ref="S404:S406"/>
-    <mergeCell ref="T404:T406"/>
-    <mergeCell ref="V404:V406"/>
-    <mergeCell ref="W404:W406"/>
-    <mergeCell ref="K404:K406"/>
-    <mergeCell ref="L404:L406"/>
-    <mergeCell ref="M404:M406"/>
-    <mergeCell ref="N404:N406"/>
-    <mergeCell ref="O404:O406"/>
-    <mergeCell ref="P404:P406"/>
-    <mergeCell ref="B407:B409"/>
-    <mergeCell ref="C407:C409"/>
-    <mergeCell ref="D407:D409"/>
-    <mergeCell ref="E407:E409"/>
-    <mergeCell ref="F407:F409"/>
-    <mergeCell ref="G407:G409"/>
-    <mergeCell ref="H407:H409"/>
-    <mergeCell ref="BA404:BA406"/>
-    <mergeCell ref="BB404:BB406"/>
-    <mergeCell ref="AP404:AP406"/>
-    <mergeCell ref="AQ404:AQ406"/>
-    <mergeCell ref="AR404:AR406"/>
-    <mergeCell ref="AT404:AT406"/>
-    <mergeCell ref="AU404:AU406"/>
-    <mergeCell ref="AZ404:AZ406"/>
-    <mergeCell ref="AJ404:AJ406"/>
-    <mergeCell ref="AK404:AK406"/>
-    <mergeCell ref="AL404:AL406"/>
-    <mergeCell ref="AM404:AM406"/>
-    <mergeCell ref="AN404:AN406"/>
-    <mergeCell ref="AO404:AO406"/>
-    <mergeCell ref="AD404:AD406"/>
-    <mergeCell ref="AE404:AE406"/>
-    <mergeCell ref="AF404:AF406"/>
-    <mergeCell ref="I407:I409"/>
-    <mergeCell ref="J407:J409"/>
-    <mergeCell ref="K407:K409"/>
-    <mergeCell ref="L407:L409"/>
-    <mergeCell ref="M407:M409"/>
-    <mergeCell ref="N407:N409"/>
-    <mergeCell ref="BG404:BG406"/>
-    <mergeCell ref="BH404:BH406"/>
-    <mergeCell ref="BI404:BI406"/>
-    <mergeCell ref="BC404:BC406"/>
-    <mergeCell ref="BD404:BD406"/>
-    <mergeCell ref="BE404:BE406"/>
-    <mergeCell ref="BF404:BF406"/>
-    <mergeCell ref="AG404:AG406"/>
-    <mergeCell ref="AH404:AH406"/>
-    <mergeCell ref="AI404:AI406"/>
-    <mergeCell ref="X404:X406"/>
-    <mergeCell ref="Y404:Y406"/>
-    <mergeCell ref="Z404:Z406"/>
-    <mergeCell ref="AA404:AA406"/>
-    <mergeCell ref="AB404:AB406"/>
-    <mergeCell ref="AC404:AC406"/>
-    <mergeCell ref="Q404:Q406"/>
-    <mergeCell ref="R404:R406"/>
-    <mergeCell ref="V407:V409"/>
-    <mergeCell ref="W407:W409"/>
-    <mergeCell ref="X407:X409"/>
-    <mergeCell ref="Y407:Y409"/>
-    <mergeCell ref="Z407:Z409"/>
-    <mergeCell ref="AA407:AA409"/>
-    <mergeCell ref="O407:O409"/>
-    <mergeCell ref="P407:P409"/>
-    <mergeCell ref="Q407:Q409"/>
-    <mergeCell ref="R407:R409"/>
-    <mergeCell ref="S407:S409"/>
-    <mergeCell ref="T407:T409"/>
-    <mergeCell ref="AJ407:AJ409"/>
-    <mergeCell ref="AK407:AK409"/>
-    <mergeCell ref="AL407:AL409"/>
-    <mergeCell ref="AM407:AM409"/>
-    <mergeCell ref="AB407:AB409"/>
-    <mergeCell ref="AC407:AC409"/>
-    <mergeCell ref="AD407:AD409"/>
-    <mergeCell ref="AE407:AE409"/>
-    <mergeCell ref="AF407:AF409"/>
-    <mergeCell ref="AG407:AG409"/>
-    <mergeCell ref="BE407:BE409"/>
-    <mergeCell ref="BF407:BF409"/>
-    <mergeCell ref="BG407:BG409"/>
-    <mergeCell ref="BH407:BH409"/>
-    <mergeCell ref="BI407:BI409"/>
-    <mergeCell ref="B411:B413"/>
-    <mergeCell ref="C411:C413"/>
-    <mergeCell ref="D411:D413"/>
-    <mergeCell ref="E411:E413"/>
-    <mergeCell ref="F411:F413"/>
-    <mergeCell ref="AU407:AU409"/>
-    <mergeCell ref="AZ407:AZ409"/>
-    <mergeCell ref="BA407:BA409"/>
-    <mergeCell ref="BB407:BB409"/>
-    <mergeCell ref="BC407:BC409"/>
-    <mergeCell ref="BD407:BD409"/>
-    <mergeCell ref="AN407:AN409"/>
-    <mergeCell ref="AO407:AO409"/>
-    <mergeCell ref="AP407:AP409"/>
-    <mergeCell ref="AQ407:AQ409"/>
-    <mergeCell ref="AR407:AR409"/>
-    <mergeCell ref="AT407:AT409"/>
-    <mergeCell ref="AH407:AH409"/>
-    <mergeCell ref="AI407:AI409"/>
-    <mergeCell ref="M411:M413"/>
-    <mergeCell ref="N411:N413"/>
-    <mergeCell ref="O411:O413"/>
-    <mergeCell ref="P411:P413"/>
-    <mergeCell ref="Q411:Q413"/>
-    <mergeCell ref="R411:R413"/>
-    <mergeCell ref="G411:G413"/>
-    <mergeCell ref="H411:H413"/>
-    <mergeCell ref="I411:I413"/>
-    <mergeCell ref="J411:J413"/>
-    <mergeCell ref="K411:K413"/>
-    <mergeCell ref="L411:L413"/>
-    <mergeCell ref="Z411:Z413"/>
-    <mergeCell ref="AA411:AA413"/>
-    <mergeCell ref="AB411:AB413"/>
-    <mergeCell ref="AC411:AC413"/>
-    <mergeCell ref="AD411:AD413"/>
-    <mergeCell ref="AE411:AE413"/>
-    <mergeCell ref="S411:S413"/>
-    <mergeCell ref="T411:T413"/>
-    <mergeCell ref="V411:V413"/>
-    <mergeCell ref="W411:W413"/>
-    <mergeCell ref="X411:X413"/>
-    <mergeCell ref="Y411:Y413"/>
-    <mergeCell ref="AN411:AN413"/>
-    <mergeCell ref="AO411:AO413"/>
-    <mergeCell ref="AP411:AP413"/>
-    <mergeCell ref="AQ411:AQ413"/>
-    <mergeCell ref="AF411:AF413"/>
-    <mergeCell ref="AG411:AG413"/>
-    <mergeCell ref="AH411:AH413"/>
-    <mergeCell ref="AI411:AI413"/>
-    <mergeCell ref="AJ411:AJ413"/>
-    <mergeCell ref="AK411:AK413"/>
-    <mergeCell ref="BI411:BI413"/>
-    <mergeCell ref="BJ411:BJ413"/>
-    <mergeCell ref="B414:B416"/>
-    <mergeCell ref="C414:C416"/>
-    <mergeCell ref="D414:D416"/>
-    <mergeCell ref="E414:E416"/>
-    <mergeCell ref="F414:F416"/>
-    <mergeCell ref="G414:G416"/>
-    <mergeCell ref="H414:H416"/>
-    <mergeCell ref="I414:I416"/>
-    <mergeCell ref="BC411:BC413"/>
-    <mergeCell ref="BD411:BD413"/>
-    <mergeCell ref="BE411:BE413"/>
-    <mergeCell ref="BF411:BF413"/>
-    <mergeCell ref="BG411:BG413"/>
-    <mergeCell ref="BH411:BH413"/>
-    <mergeCell ref="AR411:AR413"/>
-    <mergeCell ref="AT411:AT413"/>
-    <mergeCell ref="AU411:AU413"/>
-    <mergeCell ref="AZ411:AZ413"/>
-    <mergeCell ref="BA411:BA413"/>
-    <mergeCell ref="BB411:BB413"/>
-    <mergeCell ref="AL411:AL413"/>
-    <mergeCell ref="AM411:AM413"/>
-    <mergeCell ref="P414:P416"/>
-    <mergeCell ref="Q414:Q416"/>
-    <mergeCell ref="R414:R416"/>
-    <mergeCell ref="S414:S416"/>
-    <mergeCell ref="T414:T416"/>
-    <mergeCell ref="V414:V416"/>
-    <mergeCell ref="J414:J416"/>
-    <mergeCell ref="K414:K416"/>
-    <mergeCell ref="L414:L416"/>
-    <mergeCell ref="M414:M416"/>
-    <mergeCell ref="N414:N416"/>
-    <mergeCell ref="O414:O416"/>
-    <mergeCell ref="AC414:AC416"/>
-    <mergeCell ref="AD414:AD416"/>
-    <mergeCell ref="AE414:AE416"/>
-    <mergeCell ref="AF414:AF416"/>
-    <mergeCell ref="AG414:AG416"/>
-    <mergeCell ref="AH414:AH416"/>
-    <mergeCell ref="W414:W416"/>
-    <mergeCell ref="X414:X416"/>
-    <mergeCell ref="Y414:Y416"/>
-    <mergeCell ref="Z414:Z416"/>
-    <mergeCell ref="AA414:AA416"/>
-    <mergeCell ref="AB414:AB416"/>
-    <mergeCell ref="AO414:AO416"/>
-    <mergeCell ref="AP414:AP416"/>
-    <mergeCell ref="AQ414:AQ416"/>
-    <mergeCell ref="AR414:AR416"/>
-    <mergeCell ref="AT414:AT416"/>
-    <mergeCell ref="AU414:AU416"/>
-    <mergeCell ref="AI414:AI416"/>
-    <mergeCell ref="AJ414:AJ416"/>
-    <mergeCell ref="AK414:AK416"/>
-    <mergeCell ref="AL414:AL416"/>
-    <mergeCell ref="AM414:AM416"/>
-    <mergeCell ref="AN414:AN416"/>
-    <mergeCell ref="BF414:BF416"/>
-    <mergeCell ref="BG414:BG416"/>
-    <mergeCell ref="BH414:BH416"/>
-    <mergeCell ref="BI414:BI416"/>
-    <mergeCell ref="BJ414:BJ416"/>
-    <mergeCell ref="AZ414:AZ416"/>
-    <mergeCell ref="BA414:BA416"/>
-    <mergeCell ref="BB414:BB416"/>
-    <mergeCell ref="BC414:BC416"/>
-    <mergeCell ref="BD414:BD416"/>
-    <mergeCell ref="BE414:BE416"/>
+    <mergeCell ref="AQ1:AQ7"/>
+    <mergeCell ref="AR1:AR7"/>
+    <mergeCell ref="AG1:AG7"/>
+    <mergeCell ref="AH1:AH7"/>
+    <mergeCell ref="AI1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="AK1:AK7"/>
+    <mergeCell ref="AL1:AL7"/>
+    <mergeCell ref="AA1:AA7"/>
+    <mergeCell ref="AB1:AB7"/>
+    <mergeCell ref="AC1:AC7"/>
+    <mergeCell ref="AD1:AD7"/>
+    <mergeCell ref="AE1:AE7"/>
+    <mergeCell ref="AF1:AF7"/>
+    <mergeCell ref="U1:U7"/>
+    <mergeCell ref="V1:V7"/>
+    <mergeCell ref="W1:W7"/>
+    <mergeCell ref="X1:X7"/>
+    <mergeCell ref="Y1:Y7"/>
+    <mergeCell ref="Z1:Z7"/>
+    <mergeCell ref="O1:O7"/>
+    <mergeCell ref="P1:P7"/>
+    <mergeCell ref="Q1:Q7"/>
+    <mergeCell ref="R1:R7"/>
+    <mergeCell ref="S1:S7"/>
+    <mergeCell ref="T1:T7"/>
+    <mergeCell ref="I1:I7"/>
+    <mergeCell ref="J1:J7"/>
+    <mergeCell ref="K1:K7"/>
+    <mergeCell ref="L1:L7"/>
+    <mergeCell ref="M1:M7"/>
+    <mergeCell ref="N1:N7"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="D1:D7"/>
+    <mergeCell ref="E1:E7"/>
+    <mergeCell ref="F1:F7"/>
+    <mergeCell ref="G1:G7"/>
+    <mergeCell ref="H1:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="AY9:AY393">
     <cfRule type="expression" dxfId="5" priority="1">
